--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7BAB28-09E7-4BD7-84DC-0BDB839B6C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63641CAA-0707-4F96-BA70-93DB468D7F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="BS" sheetId="7" r:id="rId3"/>
     <sheet name="Cash Flow Statement" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$128</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4932,8 +4935,8 @@
   <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -8592,8 +8595,9 @@
   <mergeCells count="1">
     <mergeCell ref="B1:X1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8601,11 +8605,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9212D3C2-BF1B-4D2F-8150-2431D636A5B7}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D73" workbookViewId="0">
-      <selection activeCell="F70" sqref="F69:F70"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -10511,7 +10516,7 @@
       <c r="T75" s="41"/>
       <c r="U75" s="41"/>
     </row>
-    <row r="76" spans="3:26" ht="15" outlineLevel="1">
+    <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C76" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10535,7 +10540,7 @@
       <c r="T76" s="41"/>
       <c r="U76" s="41"/>
     </row>
-    <row r="77" spans="3:26" ht="15" outlineLevel="1">
+    <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C77" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10559,7 +10564,7 @@
       <c r="T77" s="41"/>
       <c r="U77" s="41"/>
     </row>
-    <row r="78" spans="3:26" ht="15">
+    <row r="78" spans="3:26" ht="15" collapsed="1">
       <c r="C78" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11599,8 +11604,9 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D79:E79"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11611,8 +11617,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63641CAA-0707-4F96-BA70-93DB468D7F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59658D28-0490-4E18-9ACE-089C6A4BB286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Cash Flow Statement" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$128</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$C$1:$V$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
   <si>
     <t>Amended
 Budget</t>
@@ -96,34 +98,7 @@
     <t>Var</t>
   </si>
   <si>
-    <t>Local Revenue</t>
-  </si>
-  <si>
-    <t>State Program Revenue</t>
-  </si>
-  <si>
-    <t>Federal Program Revenue</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Surplus (Deficits) before Depreciation</t>
-  </si>
-  <si>
     <t>Depreciation and Amortization</t>
-  </si>
-  <si>
-    <t>Net Surplus (Deficit)</t>
-  </si>
-  <si>
-    <t>Expenses by Object Codes</t>
-  </si>
-  <si>
-    <t>Total Expense</t>
-  </si>
-  <si>
-    <t>Net Income</t>
   </si>
   <si>
     <t>ADVANTAGE ACADEMY 
@@ -843,7 +818,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1067,6 +1042,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4517,10 +4495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30A149C-A5C8-41CD-812F-848E4CBC1852}">
   <sheetPr>
     <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4538,7 +4517,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="73" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -4547,7 +4526,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="75" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -4556,67 +4535,67 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="76" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="78" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" s="79">
         <v>-1323478</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="83" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D5" s="84"/>
       <c r="E5" s="85" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="78" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="88" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="78" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B7" s="89">
         <v>190</v>
@@ -4626,12 +4605,12 @@
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="88" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B8" s="91">
         <v>4.6100000000000003</v>
@@ -4641,12 +4620,12 @@
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="88" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="90" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" s="79">
         <v>-802645</v>
@@ -4656,27 +4635,27 @@
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="88" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="90" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C10" s="92">
         <v>10</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="88" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="90" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B11" s="91">
         <v>0.64</v>
@@ -4686,27 +4665,27 @@
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="88" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="90" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" s="92">
         <v>10</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="88" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="90" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B13" s="95">
         <v>0.68</v>
@@ -4716,152 +4695,152 @@
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="88" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="96" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C14" s="86">
         <v>10</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="98" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="99" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C15" s="86">
         <v>10</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="88" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="90" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C16" s="92">
         <v>5</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="88" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="90" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="88" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="90" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C19" s="92">
         <v>10</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
       <c r="A20" s="90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C20" s="92">
         <v>5</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="88" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="99" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="88" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
       <c r="A22" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="106">
+        <v>107</v>
+      </c>
+      <c r="B22" s="107">
         <v>100</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="110" t="s">
-        <v>117</v>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="111" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
       <c r="A23" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="111"/>
+        <v>109</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="112"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="102"/>
@@ -4878,7 +4857,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="104" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="102"/>
@@ -4920,8 +4899,9 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="B23:C23"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4934,9 +4914,9 @@
   </sheetPr>
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y75" sqref="Y75"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4944,40 +4924,46 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13" hidden="1" customWidth="1"/>
-    <col min="9" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
     <col min="19" max="19" width="5.5703125" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
+      <c r="B1" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -5315,76 +5301,26 @@
     </row>
     <row r="17" spans="1:22" collapsed="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="17">
-        <f>D13</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <f>SUM(E7:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
-        <f t="shared" ref="G17:R17" si="1">SUM(G4:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17">
-        <f>SUM(T4:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="17">
-        <f>+T17-E17</f>
-        <v>0</v>
-      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
       <c r="V17" s="9" t="e">
         <f>+T17/D17</f>
         <v>#DIV/0!</v>
@@ -5409,7 +5345,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6">
-        <f t="shared" ref="T18" si="2">SUM(G18:R18)</f>
+        <f t="shared" ref="T18" si="1">SUM(G18:R18)</f>
         <v>0</v>
       </c>
       <c r="U18" s="16">
@@ -5446,76 +5382,26 @@
     </row>
     <row r="20" spans="1:22" collapsed="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="18">
-        <f>SUM(D18:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <f>SUM(E18:E19)</f>
-        <v>0</v>
-      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18">
-        <f t="shared" ref="G20:R20" si="3">SUM(G18:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="18">
-        <f>SUM(T18:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="18">
-        <f>SUM(U18:U19)</f>
-        <v>0</v>
-      </c>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="9" t="e">
         <f>+T20/D20</f>
         <v>#DIV/0!</v>
@@ -5541,11 +5427,11 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6">
-        <f t="shared" ref="T21:T32" si="4">SUM(G21:R21)</f>
+        <f t="shared" ref="T21:T32" si="2">SUM(G21:R21)</f>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="U21:U29" si="5">+T21-E21</f>
+        <f t="shared" ref="U21:U29" si="3">+T21-E21</f>
         <v>0</v>
       </c>
     </row>
@@ -5568,11 +5454,11 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,11 +5481,11 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5622,11 +5508,11 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5649,11 +5535,11 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5676,11 +5562,11 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5703,11 +5589,11 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5730,11 +5616,11 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5757,11 +5643,11 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5784,7 +5670,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="6">
@@ -5811,7 +5697,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U31" s="6">
@@ -5837,7 +5723,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="T32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U32" s="6">
@@ -5847,76 +5733,25 @@
     </row>
     <row r="33" spans="1:22" collapsed="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="18">
-        <f>SUM(D21:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <f>SUM(E21:E32)</f>
-        <v>0</v>
-      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18">
-        <f t="shared" ref="G33:R33" si="6">SUM(G21:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="18">
-        <f>SUM(T21:T32)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="18">
-        <f>+T33-E33</f>
-        <v>0</v>
-      </c>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
       <c r="V33" s="9" t="e">
         <f>+T33/D33</f>
         <v>#DIV/0!</v>
@@ -5924,76 +5759,26 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="10"/>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="17">
-        <f>SUM(D17,D20,D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <f>SUM(E33,E20,E17)</f>
-        <v>0</v>
-      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="17">
-        <f t="shared" ref="G34:R34" si="7">SUM(G4:G33)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="17">
-        <f>SUM(T4:T33)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="17">
-        <f>+T34-E34</f>
-        <v>0</v>
-      </c>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
       <c r="V34" s="9" t="e">
         <f>+T34/D34</f>
         <v>#DIV/0!</v>
@@ -6042,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" ref="U36:U50" si="8">E36-T36</f>
+        <f t="shared" ref="U36:U50" si="4">E36-T36</f>
         <v>0</v>
       </c>
       <c r="V36" s="14" t="str">
@@ -6072,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V37" s="14" t="str">
@@ -6098,11 +5883,11 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="8">
-        <f t="shared" ref="T38:T52" si="9">SUBTOTAL(109,G38:R38)</f>
+        <f t="shared" ref="T38:T52" si="5">SUBTOTAL(109,G38:R38)</f>
         <v>0</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V38" s="14" t="str">
@@ -6128,15 +5913,15 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V39" s="14" t="str">
-        <f t="shared" ref="V39:V52" si="10">IFERROR(T39/D39,"       ")</f>
+        <f t="shared" ref="V39:V52" si="6">IFERROR(T39/D39,"       ")</f>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6158,15 +5943,15 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V40" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6188,15 +5973,15 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V41" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6218,15 +6003,15 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V42" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6248,15 +6033,15 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V43" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6278,15 +6063,15 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V44" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6308,15 +6093,15 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V45" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6338,15 +6123,15 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V46" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6368,15 +6153,15 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U47" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V47" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6398,15 +6183,15 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U48" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V48" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6428,15 +6213,15 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V49" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6458,15 +6243,15 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V50" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6488,7 +6273,7 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U51" s="6">
@@ -6496,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6518,7 +6303,7 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U52" s="6">
@@ -6526,155 +6311,55 @@
         <v>0</v>
       </c>
       <c r="V52" s="14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
     <row r="53" spans="2:22" collapsed="1">
-      <c r="B53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="19">
-        <f>SUM(D36:D52)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="19">
-        <f>SUM(E36:E52)</f>
-        <v>0</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="19">
-        <f t="shared" ref="G53:R53" si="11">SUM(G36:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
       <c r="S53" s="19"/>
-      <c r="T53" s="19">
-        <f>SUM(T36:T52)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="19">
-        <f>SUM(U36:U52)</f>
-        <v>0</v>
-      </c>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
       <c r="V53" s="14" t="e">
         <f>+T53/E53</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="13">
-        <f>D34-D53</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="13">
-        <f>E34-E53</f>
-        <v>0</v>
-      </c>
+      <c r="B55" s="4"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="13">
-        <f t="shared" ref="G55:R55" si="12">G34-G53</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="13">
-        <f>T34-T53</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="13">
-        <f>+T55-E55</f>
-        <v>0</v>
-      </c>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
       <c r="V55" t="str">
         <f>IFERROR(T55/D55,"       ")</f>
         <v xml:space="preserve">       </v>
@@ -6700,7 +6385,7 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" t="str">
-        <f t="shared" ref="V57:V70" si="13">IFERROR(T57/D57,"       ")</f>
+        <f t="shared" ref="V57:V70" si="7">IFERROR(T57/D57,"       ")</f>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6724,7 +6409,7 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6748,7 +6433,7 @@
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6772,7 +6457,7 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6796,7 +6481,7 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6820,7 +6505,7 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6844,7 +6529,7 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6868,7 +6553,7 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6892,7 +6577,7 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6916,7 +6601,7 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6940,7 +6625,7 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6964,7 +6649,7 @@
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -6988,7 +6673,7 @@
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -7012,7 +6697,7 @@
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -7065,157 +6750,54 @@
       </c>
     </row>
     <row r="73" spans="2:22" collapsed="1">
-      <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="20">
-        <f>SUM(D57:D72)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="20">
-        <f>SUM(E57:E72)</f>
-        <v>0</v>
-      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="20">
-        <f t="shared" ref="G73:N73" si="14">SUM(G57:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="20">
-        <f t="shared" ref="O73:R73" si="15">SUM(O57:O72)</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="20">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
       <c r="S73" s="20"/>
-      <c r="T73" s="20">
-        <f>SUBTOTAL(109,G73:R73)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="20">
-        <f>E73-T73</f>
-        <v>0</v>
-      </c>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
       <c r="V73" t="e">
         <f>+T73/E73</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="2:22">
-      <c r="B75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="11">
-        <f>+D55-D73</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f>+E55-E73</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <f>+G55-G73</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <f>+H55-H73</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <f t="shared" ref="I75:R75" si="16">+I55-I73</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T75" s="11">
-        <f>+T55-T73</f>
-        <v>0</v>
-      </c>
-      <c r="U75" s="11">
-        <f>+T75-E75</f>
-        <v>0</v>
-      </c>
+      <c r="B75" s="4"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
       <c r="V75" t="str">
         <f>IFERROR(T75/D75,"       ")</f>
         <v xml:space="preserve">       </v>
       </c>
     </row>
     <row r="77" spans="2:22">
-      <c r="B77" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="B77" s="12"/>
     </row>
     <row r="78" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D78" s="6"/>
@@ -7281,7 +6863,7 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6">
-        <f t="shared" ref="T80:T88" si="17">SUBTOTAL(109,G80:R80)</f>
+        <f t="shared" ref="T80:T88" si="8">SUBTOTAL(109,G80:R80)</f>
         <v>0</v>
       </c>
       <c r="U80" s="6"/>
@@ -7304,7 +6886,7 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U81" s="6"/>
@@ -7327,7 +6909,7 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U82" s="6"/>
@@ -7350,7 +6932,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U83" s="6"/>
@@ -7373,7 +6955,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U84" s="6"/>
@@ -7396,7 +6978,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U85" s="6"/>
@@ -7419,7 +7001,7 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U86" s="6"/>
@@ -7442,7 +7024,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U87" s="6"/>
@@ -7465,7 +7047,7 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U88" s="6"/>
@@ -7473,63 +7055,21 @@
     <row r="89" spans="2:21" collapsed="1">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="15">
-        <f>SUM(D78:D88)</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="15">
-        <f>SUM(E78:E88)</f>
-        <v>0</v>
-      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="15">
-        <f>SUM(G78:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" ref="H89:R89" si="18">SUM(H78:H88)</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
       <c r="U89" s="15"/>
@@ -7818,68 +7358,23 @@
     <row r="104" spans="2:22" collapsed="1">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="15">
-        <f>SUM(D90:D103)</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="15">
-        <f>SUM(E90:E103)</f>
-        <v>0</v>
-      </c>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="15">
-        <f>SUM(G90:G103)</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="15">
-        <f t="shared" ref="H104:T104" si="19">SUM(H90:H103)</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
       <c r="S104" s="15"/>
-      <c r="T104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="T104" s="15"/>
       <c r="U104" s="15"/>
       <c r="V104" s="4"/>
     </row>
@@ -8087,68 +7582,23 @@
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="15">
-        <f>SUM(D105:D114)</f>
-        <v>0</v>
-      </c>
-      <c r="E115" s="15">
-        <f>SUM(E105:E114)</f>
-        <v>0</v>
-      </c>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="15">
-        <f>SUM(G105:G114)</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="15">
-        <f t="shared" ref="H115:T115" si="20">SUM(H105:H114)</f>
-        <v>0</v>
-      </c>
-      <c r="I115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
       <c r="S115" s="15"/>
-      <c r="T115" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="T115" s="15"/>
       <c r="U115" s="15"/>
       <c r="V115" s="4"/>
     </row>
@@ -8276,71 +7726,23 @@
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="15">
-        <f>SUM(D116:D121)</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="15">
-        <f>SUM(E116:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="15">
-        <f t="shared" ref="F122:T122" si="21">SUM(F116:F121)</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
       <c r="S122" s="15"/>
-      <c r="T122" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="T122" s="15"/>
       <c r="U122" s="15"/>
       <c r="V122" s="4"/>
     </row>
@@ -8387,208 +7789,66 @@
     <row r="125" spans="1:22" collapsed="1">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="15">
-        <f>SUM(D123:D124)</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="15">
-        <f>SUM(E123:E124)</f>
-        <v>0</v>
-      </c>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="15">
-        <f t="shared" ref="G125:T125" si="22">SUM(G123:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
       <c r="S125" s="15"/>
-      <c r="T125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="T125" s="15"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="B127" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="20">
-        <f>SUM(D125,D122,D115,D104,D89)</f>
-        <v>0</v>
-      </c>
-      <c r="E127" s="20">
-        <f t="shared" ref="E127:T127" si="23">SUM(E125,E122,E115,E104,E89)</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="B127" s="4"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
       <c r="S127" s="20"/>
-      <c r="T127" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="T127" s="20"/>
       <c r="U127" s="20"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="B128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128" s="20">
-        <f>D34-D127</f>
-        <v>0</v>
-      </c>
-      <c r="E128" s="20">
-        <f>E34-E127</f>
-        <v>0</v>
-      </c>
+      <c r="B128" s="4"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="20">
-        <f t="shared" ref="G128:R128" si="24">G34-G127</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
       <c r="S128" s="20"/>
-      <c r="T128" s="20">
-        <f>T34-T127</f>
-        <v>0</v>
-      </c>
+      <c r="T128" s="20"/>
       <c r="U128" s="20"/>
     </row>
   </sheetData>
@@ -8597,7 +7857,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8609,8 +7869,8 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -8636,7 +7896,7 @@
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -8662,7 +7922,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="28"/>
       <c r="F2" s="21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -8695,10 +7955,10 @@
       </c>
       <c r="S2" s="27"/>
       <c r="T2" s="21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="77.25" customHeight="1" collapsed="1">
@@ -8706,7 +7966,7 @@
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>1</v>
@@ -8746,20 +8006,20 @@
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
       <c r="D4" s="28" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4" s="32"/>
       <c r="T4" s="33"/>
       <c r="U4" s="34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
@@ -9416,8 +8676,8 @@
       <c r="V35" s="35"/>
     </row>
     <row r="36" spans="1:22" ht="15">
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="45">
         <f t="shared" ref="F36:R36" si="0">SUM(F16:F35)</f>
         <v>0</v>
@@ -9732,8 +8992,8 @@
       <c r="U48" s="6"/>
     </row>
     <row r="49" spans="1:21" ht="15">
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="45">
         <f>SUM(F39:F48)</f>
         <v>0</v>
@@ -9797,8 +9057,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="15">
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="44">
         <f>SUM(F49,F36)</f>
         <v>0</v>
@@ -10424,8 +9684,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
       <c r="F74" s="43">
         <f>SUM(F58:F73)</f>
         <v>0</v>
@@ -10593,8 +9853,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
       <c r="F79" s="47">
         <f>SUM(F78,F74)</f>
         <v>0</v>
@@ -10662,8 +9922,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D80" s="115"/>
-      <c r="E80" s="115"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
@@ -10686,8 +9946,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D81" s="115"/>
-      <c r="E81" s="115"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
       <c r="F81" s="46">
         <f>SUM(F80,F79)</f>
         <v>0</v>
@@ -11614,11 +10874,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC8619C-D3FF-463D-B596-F1344658A89A}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -11639,7 +10900,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -11660,7 +10921,7 @@
     </row>
     <row r="2" spans="1:18" ht="20.25">
       <c r="A2" s="48" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -11681,7 +10942,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -11716,7 +10977,7 @@
       <c r="O4" s="51"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="R4" s="52"/>
     </row>
@@ -11758,12 +11019,12 @@
         <v>12</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
       <c r="A6" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -11784,7 +11045,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" s="54">
         <v>-1375582</v>
@@ -11829,7 +11090,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="33">
         <v>104167</v>
@@ -11859,10 +11120,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E10" s="33">
         <v>589378</v>
@@ -11889,7 +11150,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D11" s="33">
         <v>20990</v>
@@ -11919,7 +11180,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -11934,12 +11195,12 @@
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
       <c r="Q12" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13" s="33">
         <v>181842</v>
@@ -11969,22 +11230,22 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F14" s="33">
         <v>1080</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="68"/>
@@ -11999,22 +11260,22 @@
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="68"/>
@@ -12027,22 +11288,22 @@
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="68"/>
@@ -12055,22 +11316,22 @@
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B17" s="21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="68"/>
@@ -12098,7 +11359,7 @@
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" s="59">
         <v>-1068584</v>
@@ -12158,7 +11419,7 @@
     </row>
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -12179,25 +11440,25 @@
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="28"/>
       <c r="B23" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C23" s="61">
         <v>1510</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="55"/>
@@ -12206,30 +11467,30 @@
       <c r="M23" s="55"/>
       <c r="O23" s="55"/>
       <c r="Q23" s="54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="B24" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" s="61">
         <v>1520</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24" s="33">
         <v>-132300</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="68"/>
@@ -12244,25 +11505,25 @@
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C25" s="61">
         <v>1538</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E25" s="33">
         <v>-139</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G25" s="33">
         <v>-21374</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="68"/>
@@ -12277,25 +11538,25 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C26" s="61">
         <v>1539</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="68"/>
@@ -12305,12 +11566,12 @@
       <c r="N26" s="68"/>
       <c r="O26" s="68"/>
       <c r="Q26" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C27" s="61">
         <v>1531</v>
@@ -12319,16 +11580,16 @@
         <v>-231</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="68"/>
@@ -12343,22 +11604,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="68"/>
@@ -12368,7 +11629,7 @@
       <c r="N28" s="68"/>
       <c r="O28" s="68"/>
       <c r="Q28" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -12388,7 +11649,7 @@
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="28" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -12446,7 +11707,7 @@
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="28" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -12466,7 +11727,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
@@ -12484,7 +11745,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
@@ -12502,7 +11763,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -12520,46 +11781,46 @@
     </row>
     <row r="37" spans="1:22">
       <c r="D37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O37" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -12579,46 +11840,46 @@
     </row>
     <row r="39" spans="1:22">
       <c r="D39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O39" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D40" s="59">
         <v>-1068815</v>
@@ -12663,7 +11924,7 @@
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D42" s="59">
         <v>7264371</v>
@@ -12693,46 +11954,46 @@
     </row>
     <row r="43" spans="1:22">
       <c r="D43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O43" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="28" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D44" s="62">
         <v>6195556</v>
@@ -12781,7 +12042,8 @@
       <c r="P46" s="72"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59658D28-0490-4E18-9ACE-089C6A4BB286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF2674-CAD8-4A40-B862-D37B946FB330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -130,9 +130,6 @@
   <si>
     <t>ADVANTAGE ACADEMY
 FY2022-2023 Balance Sheet as of  July 1, 2023</t>
-  </si>
-  <si>
-    <t>As of June</t>
   </si>
   <si>
     <t>Statement of Cash Flows</t>
@@ -437,6 +434,9 @@
   <si>
     <t>10.3% / 10.2%</t>
   </si>
+  <si>
+    <t>As of July</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -648,15 +648,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -901,18 +892,10 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="10">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="13" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -932,21 +915,21 @@
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -955,82 +938,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
@@ -1046,35 +1029,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4505,392 +4494,392 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="74" customWidth="1"/>
-    <col min="2" max="2" width="14" style="74" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="105" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="74" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="74" customWidth="1"/>
-    <col min="8" max="8" width="46" style="74" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="74"/>
+    <col min="1" max="1" width="46" style="70" customWidth="1"/>
+    <col min="2" max="2" width="14" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="101" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="70" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="46" style="70" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="75">
+        <v>-1323478</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="79">
-        <v>-1323478</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="83" t="s">
+      <c r="B7" s="85">
+        <v>190</v>
+      </c>
+      <c r="C7" s="82">
+        <v>10</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="87">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C8" s="88">
+        <v>10</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="75">
+        <v>-802645</v>
+      </c>
+      <c r="C9" s="88">
+        <v>5</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="88">
+        <v>10</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="87">
+        <v>0.64</v>
+      </c>
+      <c r="C11" s="88">
+        <v>10</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="78" t="s">
+      <c r="C12" s="88">
+        <v>10</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="91">
+        <v>0.68</v>
+      </c>
+      <c r="C13" s="88">
+        <v>5</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="82">
+        <v>10</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="82">
+        <v>10</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="C16" s="88">
+        <v>5</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="88">
+        <v>10</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A20" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="88">
+        <v>5</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="88" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="89">
-        <v>190</v>
-      </c>
-      <c r="C7" s="86">
-        <v>10</v>
-      </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="88" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="91">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="C8" s="92">
-        <v>10</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="79">
-        <v>-802645</v>
-      </c>
-      <c r="C9" s="92">
-        <v>5</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="92">
-        <v>10</v>
-      </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="91">
-        <v>0.64</v>
-      </c>
-      <c r="C11" s="92">
-        <v>10</v>
-      </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="92">
-        <v>10</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="95">
-        <v>0.68</v>
-      </c>
-      <c r="C13" s="92">
-        <v>5</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="86">
-        <v>10</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="98" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="86">
-        <v>10</v>
-      </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="92">
-        <v>5</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="90" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A22" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="103">
         <v>100</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="92">
-        <v>10</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="92">
-        <v>5</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="88" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="100" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="107">
-        <v>100</v>
-      </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="111" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A23" s="97" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="101" t="s">
+      <c r="B23" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="C23" s="110"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="108"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="98"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="100"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="112"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="102"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="102"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="104"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="102"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="102"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="98"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="102"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="98"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="102"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4914,9 +4903,9 @@
   </sheetPr>
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4939,31 +4928,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -5303,24 +5292,24 @@
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
       <c r="V17" s="9" t="e">
         <f>+T17/D17</f>
         <v>#DIV/0!</v>
@@ -7869,8 +7858,8 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -8009,7 +7998,7 @@
         <v>23</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -8044,7 +8033,7 @@
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:22" ht="15">
-      <c r="D6" s="4"/>
+      <c r="D6"/>
       <c r="E6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8676,73 +8665,28 @@
       <c r="V35" s="35"/>
     </row>
     <row r="36" spans="1:22" ht="15">
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="45">
-        <f t="shared" ref="F36:R36" si="0">SUM(F16:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45">
-        <f>SUM(T16:T35)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="45">
-        <f>SUM(U16:U35)</f>
-        <v>0</v>
-      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
       <c r="V36" s="35"/>
     </row>
     <row r="37" spans="1:22" ht="15">
-      <c r="D37" s="4"/>
+      <c r="D37"/>
       <c r="E37"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -8992,142 +8936,52 @@
       <c r="U48" s="6"/>
     </row>
     <row r="49" spans="1:21" ht="15">
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="45">
-        <f>SUM(F39:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="45">
-        <f t="shared" ref="G49:U49" si="1">SUM(G39:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D49"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
     </row>
     <row r="50" spans="1:21" ht="15">
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="44">
-        <f>SUM(F49,F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="44">
-        <f>SUM(G49,G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="44">
-        <f t="shared" ref="H50:U50" si="2">SUM(H49,H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="D50"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
     </row>
     <row r="51" spans="1:21" ht="15">
       <c r="A51"/>
       <c r="C51" s="21">
-        <f t="shared" ref="C51:C110" si="3">COUNTIFS(A:A,B51)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="4"/>
+        <f t="shared" ref="C51:C110" si="0">COUNTIFS(A:A,B51)</f>
+        <v>0</v>
+      </c>
+      <c r="D51"/>
       <c r="E51"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -9148,10 +9002,10 @@
     </row>
     <row r="52" spans="1:21" ht="15">
       <c r="C52" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D52"/>
       <c r="E52"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -9173,7 +9027,7 @@
     <row r="53" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="A53"/>
       <c r="C53" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D53"/>
@@ -9197,7 +9051,7 @@
     </row>
     <row r="54" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C54" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D54"/>
@@ -9221,7 +9075,7 @@
     </row>
     <row r="55" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C55" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D55"/>
@@ -9245,7 +9099,7 @@
     </row>
     <row r="56" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C56" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D56"/>
@@ -9269,7 +9123,7 @@
     </row>
     <row r="57" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C57" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D57"/>
@@ -9293,7 +9147,7 @@
     </row>
     <row r="58" spans="1:21" ht="15" collapsed="1">
       <c r="C58" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D58"/>
@@ -9317,7 +9171,7 @@
     </row>
     <row r="59" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C59" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D59"/>
@@ -9341,7 +9195,7 @@
     </row>
     <row r="60" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C60" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D60"/>
@@ -9365,7 +9219,7 @@
     </row>
     <row r="61" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C61" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D61"/>
@@ -9389,7 +9243,7 @@
     </row>
     <row r="62" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C62" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D62"/>
@@ -9413,7 +9267,7 @@
     </row>
     <row r="63" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C63" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D63"/>
@@ -9437,7 +9291,7 @@
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="C64" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D64"/>
@@ -9461,7 +9315,7 @@
     </row>
     <row r="65" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C65" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D65"/>
@@ -9485,7 +9339,7 @@
     </row>
     <row r="66" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C66" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D66"/>
@@ -9509,7 +9363,7 @@
     </row>
     <row r="67" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C67" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D67"/>
@@ -9533,7 +9387,7 @@
     </row>
     <row r="68" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C68" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D68"/>
@@ -9557,7 +9411,7 @@
     </row>
     <row r="69" spans="3:26" ht="15" collapsed="1">
       <c r="C69" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D69"/>
@@ -9581,99 +9435,99 @@
     </row>
     <row r="70" spans="3:26" ht="15">
       <c r="C70" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="41"/>
-      <c r="U70" s="41"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="112"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="S70" s="112"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
     </row>
     <row r="71" spans="3:26" ht="15">
       <c r="C71" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="112"/>
     </row>
     <row r="72" spans="3:26" ht="15">
       <c r="C72" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="112"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="112"/>
+      <c r="L72" s="112"/>
+      <c r="M72" s="112"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="112"/>
+      <c r="R72" s="112"/>
+      <c r="S72" s="112"/>
+      <c r="T72" s="112"/>
+      <c r="U72" s="112"/>
     </row>
     <row r="73" spans="3:26" ht="15">
       <c r="C73" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="112"/>
+      <c r="S73" s="112"/>
+      <c r="T73" s="112"/>
+      <c r="U73" s="112"/>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
@@ -9681,72 +9535,27 @@
     </row>
     <row r="74" spans="3:26" ht="15">
       <c r="C74" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="43">
-        <f>SUM(F58:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="43">
-        <f>SUM(G58:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="43">
-        <f t="shared" ref="H74:U74" si="4">SUM(H58:H73)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="115"/>
+      <c r="L74" s="115"/>
+      <c r="M74" s="115"/>
+      <c r="N74" s="115"/>
+      <c r="O74" s="115"/>
+      <c r="P74" s="115"/>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>
@@ -9754,775 +9563,682 @@
     </row>
     <row r="75" spans="3:26" ht="15">
       <c r="C75" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="112"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="112"/>
+      <c r="R75" s="112"/>
+      <c r="S75" s="112"/>
+      <c r="T75" s="112"/>
+      <c r="U75" s="112"/>
     </row>
     <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C76" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="112"/>
+      <c r="N76" s="112"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="112"/>
+      <c r="Q76" s="112"/>
+      <c r="R76" s="112"/>
+      <c r="S76" s="112"/>
+      <c r="T76" s="112"/>
+      <c r="U76" s="112"/>
     </row>
     <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C77" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="112"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="112"/>
+      <c r="T77" s="112"/>
+      <c r="U77" s="112"/>
     </row>
     <row r="78" spans="3:26" ht="15" collapsed="1">
       <c r="C78" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="112"/>
+      <c r="K78" s="112"/>
+      <c r="L78" s="112"/>
+      <c r="M78" s="112"/>
+      <c r="N78" s="112"/>
+      <c r="O78" s="112"/>
+      <c r="P78" s="112"/>
+      <c r="Q78" s="112"/>
+      <c r="R78" s="112"/>
+      <c r="S78" s="112"/>
+      <c r="T78" s="112"/>
+      <c r="U78" s="112"/>
     </row>
     <row r="79" spans="3:26" ht="15.75" customHeight="1">
       <c r="C79" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="47">
-        <f>SUM(F78,F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="47">
-        <f>SUM(G78,G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="47">
-        <f t="shared" ref="H79:U79" si="5">SUM(H78,H74)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
     </row>
     <row r="80" spans="3:26" ht="15">
       <c r="C80" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="116"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
+      <c r="M80" s="112"/>
+      <c r="N80" s="112"/>
+      <c r="O80" s="112"/>
+      <c r="P80" s="112"/>
+      <c r="Q80" s="112"/>
+      <c r="R80" s="112"/>
+      <c r="S80" s="112"/>
+      <c r="T80" s="112"/>
+      <c r="U80" s="112"/>
     </row>
     <row r="81" spans="3:21" ht="15">
       <c r="C81" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="116"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="46">
-        <f>SUM(F80,F79)</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="46">
-        <f t="shared" ref="G81:U81" si="6">SUM(G80,G79)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+      <c r="S81" s="114"/>
+      <c r="T81" s="114"/>
+      <c r="U81" s="114"/>
     </row>
     <row r="82" spans="3:21" ht="15">
       <c r="C82" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
     </row>
     <row r="83" spans="3:21" ht="15">
       <c r="C83" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
       <c r="U83" s="39"/>
     </row>
     <row r="84" spans="3:21" ht="15">
       <c r="C84" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
       <c r="U84" s="39"/>
     </row>
     <row r="85" spans="3:21" ht="15">
       <c r="C85" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D85" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
       <c r="U85" s="39"/>
     </row>
     <row r="86" spans="3:21" ht="15">
       <c r="C86" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
       <c r="U86" s="39"/>
     </row>
     <row r="87" spans="3:21" ht="15">
       <c r="C87" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
       <c r="U87" s="39"/>
     </row>
     <row r="88" spans="3:21" ht="15">
       <c r="C88" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D88" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
       <c r="U88" s="39"/>
     </row>
     <row r="89" spans="3:21" ht="15">
       <c r="C89" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D89" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
       <c r="U89" s="39"/>
     </row>
     <row r="90" spans="3:21" ht="15">
       <c r="C90" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D90" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
       <c r="U90" s="39"/>
     </row>
     <row r="91" spans="3:21" ht="15">
       <c r="C91" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D91" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
       <c r="U91" s="39"/>
     </row>
     <row r="92" spans="3:21" ht="15">
       <c r="C92" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
       <c r="U92" s="39"/>
     </row>
     <row r="93" spans="3:21" ht="15">
       <c r="C93" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D93" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
       <c r="U93" s="39"/>
     </row>
     <row r="94" spans="3:21" ht="15">
       <c r="C94" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D94" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
-      <c r="R94" s="41"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="41"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="40"/>
+      <c r="T94" s="40"/>
       <c r="U94" s="39"/>
     </row>
     <row r="95" spans="3:21" ht="15">
       <c r="C95" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="40"/>
       <c r="U95" s="39"/>
     </row>
     <row r="96" spans="3:21" ht="15">
       <c r="C96" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D96" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
       <c r="U96" s="39"/>
     </row>
     <row r="97" spans="1:21" ht="15">
       <c r="C97" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D97" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="40"/>
       <c r="U97" s="39"/>
     </row>
     <row r="98" spans="1:21" ht="15">
       <c r="C98" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D98" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="40"/>
       <c r="U98" s="39"/>
     </row>
     <row r="99" spans="1:21" ht="15">
       <c r="C99" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="40"/>
       <c r="U99" s="39"/>
     </row>
     <row r="100" spans="1:21" ht="15">
       <c r="C100" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="40"/>
+      <c r="T100" s="40"/>
       <c r="U100" s="39"/>
     </row>
     <row r="101" spans="1:21" ht="15">
       <c r="C101" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
       <c r="U101" s="39"/>
     </row>
     <row r="102" spans="1:21" ht="15">
       <c r="C102" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
+      <c r="T102" s="40"/>
       <c r="U102" s="39"/>
     </row>
     <row r="103" spans="1:21" ht="15">
       <c r="C103" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D103"/>
       <c r="E103"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -10543,10 +10259,10 @@
     </row>
     <row r="104" spans="1:21" ht="15">
       <c r="C104" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D104"/>
       <c r="E104"/>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -10567,10 +10283,10 @@
     </row>
     <row r="105" spans="1:21" ht="15">
       <c r="C105" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D105" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D105"/>
       <c r="E105"/>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -10591,10 +10307,10 @@
     </row>
     <row r="106" spans="1:21" ht="15">
       <c r="C106" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D106" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D106"/>
       <c r="E106"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
@@ -10615,10 +10331,10 @@
     </row>
     <row r="107" spans="1:21" ht="15">
       <c r="C107" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D107" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D107"/>
       <c r="E107"/>
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
@@ -10639,10 +10355,10 @@
     </row>
     <row r="108" spans="1:21" ht="15">
       <c r="C108" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D108" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D108"/>
       <c r="E108"/>
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
@@ -10663,10 +10379,10 @@
     </row>
     <row r="109" spans="1:21" ht="15">
       <c r="C109" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D109" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D109"/>
       <c r="E109"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -10687,10 +10403,10 @@
     </row>
     <row r="110" spans="1:21" ht="15">
       <c r="C110" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D110" s="40"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D110"/>
       <c r="E110"/>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -10711,19 +10427,19 @@
     </row>
     <row r="111" spans="1:21" ht="15">
       <c r="A111"/>
-      <c r="D111" s="4"/>
+      <c r="D111"/>
       <c r="E111"/>
       <c r="T111" s="39"/>
       <c r="U111" s="39"/>
     </row>
     <row r="112" spans="1:21" ht="15">
-      <c r="D112" s="40"/>
+      <c r="D112"/>
       <c r="E112"/>
       <c r="T112" s="39"/>
       <c r="U112" s="39"/>
     </row>
     <row r="113" spans="4:21" ht="15">
-      <c r="D113" s="4"/>
+      <c r="D113"/>
       <c r="E113"/>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
@@ -10855,15 +10571,6 @@
       <c r="U119" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D79:E79"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
@@ -10879,7 +10586,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -10887,11 +10594,11 @@
     <col min="1" max="1" width="2" style="21" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="9" width="13.28515625" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="15" width="13.28515625" style="21" customWidth="1" outlineLevel="2"/>
-    <col min="16" max="16" width="2.7109375" style="66" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="15.28515625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="9" width="13.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="15" width="13.28515625" style="21" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="16" max="16" width="2.7109375" style="62" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="17" max="17" width="15.28515625" style="21" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -10899,87 +10606,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="A1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.25">
+      <c r="A3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+    </row>
+    <row r="4" spans="1:18" s="46" customFormat="1" ht="15">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.25">
-      <c r="A3" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-    </row>
-    <row r="4" spans="1:18" s="50" customFormat="1" ht="15">
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="52"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
       <c r="D5" s="29" t="s">
@@ -11019,12 +10726,12 @@
         <v>12</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
       <c r="A6" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -11040,53 +10747,53 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="54">
+        <v>31</v>
+      </c>
+      <c r="D7" s="50">
         <v>-1375582</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="50">
         <v>664497</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="50">
         <v>-508913</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="50">
         <v>-63392</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="50">
         <v>-40088</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="Q7" s="54">
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="Q7" s="50">
         <v>-1323478</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="Q8" s="53"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="21" t="s">
@@ -11108,22 +10815,22 @@
         <v>104167</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
       <c r="Q9" s="33">
         <v>520833</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="33">
         <v>589378</v>
@@ -11138,19 +10845,19 @@
         <v>273447</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
       <c r="Q10" s="33">
         <v>1109508</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="33">
         <v>20990</v>
@@ -11168,19 +10875,19 @@
         <v>8758</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
       <c r="Q11" s="33">
         <v>-2728</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -11188,19 +10895,19 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
       <c r="Q12" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="33">
         <v>181842</v>
@@ -11218,418 +10925,418 @@
         <v>167540</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
       <c r="Q13" s="33">
         <v>360926</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="33">
         <v>1080</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="33"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
       <c r="Q14" s="33">
         <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="33"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="33"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B17" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="33"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="Q18" s="55"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="59">
+        <v>40</v>
+      </c>
+      <c r="D19" s="55">
         <v>-1068584</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="55">
         <v>1450109</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="55">
         <v>-357698</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="55">
         <v>128491</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="55">
         <v>513824</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="Q19" s="59">
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="Q19" s="55">
         <v>666141</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="54"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="Q20" s="50"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="54"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="Q22" s="53"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="28"/>
       <c r="B23" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="61">
+        <v>42</v>
+      </c>
+      <c r="C23" s="57">
         <v>1510</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="Q23" s="54" t="s">
-        <v>62</v>
+      <c r="D23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="Q23" s="50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="B24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="61">
+        <v>43</v>
+      </c>
+      <c r="C24" s="57">
         <v>1520</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="33">
         <v>-132300</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
       <c r="Q24" s="33">
         <v>-132300</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="61">
+        <v>44</v>
+      </c>
+      <c r="C25" s="57">
         <v>1538</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="33">
         <v>-139</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="33">
         <v>-21374</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" s="33"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
       <c r="Q25" s="33">
         <v>-21513</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="61">
+        <v>45</v>
+      </c>
+      <c r="C26" s="57">
         <v>1539</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="33"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
       <c r="Q26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="61">
+        <v>46</v>
+      </c>
+      <c r="C27" s="57">
         <v>1531</v>
       </c>
       <c r="D27" s="33">
         <v>-231</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="33"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
       <c r="Q27" s="33">
         <v>-231</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="33"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
       <c r="Q28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -11639,407 +11346,407 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="70">
+      <c r="D30" s="66">
         <v>-231</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="66">
         <v>-132439</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70">
+      <c r="F30" s="66"/>
+      <c r="G30" s="66">
         <v>-21374</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="Q30" s="70">
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="Q30" s="66">
         <v>-154044</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="Q31" s="54"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="Q32" s="54"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="Q33" s="53"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="Q34" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
       <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="Q36" s="33"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="D37" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="Q36" s="33"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="D37" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="N37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q37" s="57" t="s">
-        <v>54</v>
+      <c r="E37" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="Q38" s="59"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="Q38" s="55"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q39" s="57" t="s">
-        <v>54</v>
+      <c r="D39" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="59">
+        <v>55</v>
+      </c>
+      <c r="D40" s="55">
         <v>-1068815</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="55">
         <v>1317670</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="55">
         <v>-357698</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="55">
         <v>107117</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="55">
         <v>513824</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="Q40" s="59">
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="Q40" s="55">
         <v>512097</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="Q41" s="54"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="Q41" s="50"/>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="59">
+        <v>56</v>
+      </c>
+      <c r="D42" s="55">
         <v>7264371</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="55">
         <v>6195556</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="55">
         <v>7513119</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="55">
         <v>7152482</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="55">
         <v>7259598</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="Q42" s="59">
+      <c r="I42" s="55"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="Q42" s="55">
         <v>7264371</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="M43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q43" s="57" t="s">
-        <v>54</v>
+      <c r="D43" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="62">
+        <v>57</v>
+      </c>
+      <c r="D44" s="58">
         <v>6195556</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="58">
         <v>7513119</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="58">
         <v>7152482</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="58">
         <v>7259598</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="58">
         <v>7771900</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="Q44" s="62">
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="Q44" s="58">
         <v>7771900</v>
       </c>
-      <c r="R44" s="54"/>
-      <c r="V44" s="54"/>
+      <c r="R44" s="50"/>
+      <c r="V44" s="50"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="Q45" s="64"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="Q45" s="60"/>
     </row>
     <row r="46" spans="1:22" s="35" customFormat="1">
-      <c r="P46" s="72"/>
+      <c r="P46" s="68"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF2674-CAD8-4A40-B862-D37B946FB330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1B741-9AD0-4AB7-A8B8-13295DAC948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -809,7 +809,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -828,18 +828,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -852,7 +845,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1029,6 +1021,22 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,15 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4488,398 +4487,396 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="70" customWidth="1"/>
-    <col min="2" max="2" width="14" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="101" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="70" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="70" customWidth="1"/>
-    <col min="8" max="8" width="46" style="70" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="70"/>
+    <col min="1" max="1" width="46" style="66" customWidth="1"/>
+    <col min="2" max="2" width="14" style="66" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="97" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="66" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="46" style="66" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="71">
         <v>-1323478</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="77" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="84" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="80" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="81">
         <v>190</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="78">
         <v>10</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="84" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="80" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="83">
         <v>4.6100000000000003</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="84">
         <v>10</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="84" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="80" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="71">
         <v>-802645</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="84">
         <v>5</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="80" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="84">
         <v>10</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="80" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="83">
         <v>0.64</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="84">
         <v>10</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="84" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="80" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="84">
         <v>10</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="84" t="s">
+      <c r="D12" s="76"/>
+      <c r="E12" s="80" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="87">
         <v>0.68</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="84">
         <v>5</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="80" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="78">
         <v>10</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="90" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="78">
         <v>10</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="84" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="80" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="84">
         <v>5</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="84" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="80" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="80" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="84" t="s">
+      <c r="D18" s="76"/>
+      <c r="E18" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="84">
         <v>10</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="84" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="80" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="84">
         <v>5</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="76"/>
+      <c r="E21" s="80" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="103">
+      <c r="B22" s="109">
         <v>100</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="107" t="s">
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="113" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="98"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="94"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="100"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="98"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="94"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="98"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="98"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="94"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="98"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="98"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4904,8 +4901,8 @@
   <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4928,31 +4925,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -5010,10 +5007,11 @@
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="V4" s="105"/>
     </row>
     <row r="5" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5030,13 +5028,11 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <f>SUM(G5:R5)</f>
-        <v>0</v>
-      </c>
+      <c r="T5" s="6"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5053,13 +5049,11 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6">
-        <f t="shared" ref="T6:T16" si="0">SUM(G6:R6)</f>
-        <v>0</v>
-      </c>
+      <c r="T6" s="6"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5076,13 +5070,11 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T7" s="6"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5099,13 +5091,11 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T8" s="6"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5122,13 +5112,11 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T9" s="6"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5145,13 +5133,11 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T10" s="6"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5168,13 +5154,11 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T11" s="6"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5191,13 +5175,11 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T12" s="6"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -5214,13 +5196,11 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T13" s="6"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -5237,13 +5217,11 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T14" s="6"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -5260,13 +5238,11 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T15" s="6"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:24" hidden="1" outlineLevel="1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -5283,40 +5259,35 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="T16" s="6"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" collapsed="1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="9" t="e">
-        <f>+T17/D17</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5333,17 +5304,12 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6">
-        <f t="shared" ref="T18" si="1">SUM(G18:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="16">
-        <f>+T18-E18</f>
-        <v>0</v>
-      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5360,44 +5326,36 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6">
-        <f>SUM(G19:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <f>+T19-E19</f>
-        <v>0</v>
-      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" collapsed="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="9" t="e">
-        <f>+T20/D20</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5415,17 +5373,12 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6">
-        <f t="shared" ref="T21:T32" si="2">SUM(G21:R21)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" ref="U21:U29" si="3">+T21-E21</f>
-        <v>0</v>
-      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -5442,17 +5395,12 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -5469,17 +5417,12 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5496,17 +5439,12 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5523,17 +5461,12 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -5550,17 +5483,12 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -5577,17 +5505,12 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5604,17 +5527,12 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -5631,17 +5549,12 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5658,17 +5571,12 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <f>+T30-E30</f>
-        <v>0</v>
-      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -5685,17 +5593,12 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="6">
-        <f>+T31-E31</f>
-        <v>0</v>
-      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -5711,67 +5614,56 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="T32" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="6">
-        <f>+T32-E32</f>
-        <v>0</v>
-      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="11"/>
     </row>
     <row r="33" spans="1:22" collapsed="1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="9" t="e">
-        <f>+T33/D33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="8"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="9" t="e">
-        <f>+T34/D34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="8"/>
     </row>
     <row r="35" spans="1:22">
       <c r="D35" s="6"/>
@@ -5792,7 +5684,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="14"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D36" s="6"/>
@@ -5811,18 +5703,9 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="8">
-        <f>SUBTOTAL(109,G36:R36)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="6">
-        <f t="shared" ref="U36:U50" si="4">E36-T36</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="14" t="str">
-        <f>IFERROR(T36/D36,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T36" s="99"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D37" s="6"/>
@@ -5841,18 +5724,9 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="8">
-        <f>SUBTOTAL(109,G37:R37)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="14" t="str">
-        <f>IFERROR(T37/D37,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T37" s="99"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D38" s="6"/>
@@ -5871,18 +5745,9 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="8">
-        <f t="shared" ref="T38:T52" si="5">SUBTOTAL(109,G38:R38)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="14" t="str">
-        <f>IFERROR(T38/D38,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T38" s="99"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D39" s="6"/>
@@ -5901,18 +5766,9 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="14" t="str">
-        <f t="shared" ref="V39:V52" si="6">IFERROR(T39/D39,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T39" s="99"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D40" s="6"/>
@@ -5931,18 +5787,9 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T40" s="99"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D41" s="6"/>
@@ -5961,18 +5808,9 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T41" s="99"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D42" s="6"/>
@@ -5991,18 +5829,9 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T42" s="99"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D43" s="6"/>
@@ -6021,18 +5850,9 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T43" s="99"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D44" s="6"/>
@@ -6051,18 +5871,9 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T44" s="99"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D45" s="6"/>
@@ -6081,18 +5892,9 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T45" s="99"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D46" s="6"/>
@@ -6111,18 +5913,9 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T46" s="99"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D47" s="6"/>
@@ -6141,18 +5934,9 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T47" s="99"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D48" s="6"/>
@@ -6171,18 +5955,9 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T48" s="99"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D49" s="6"/>
@@ -6201,18 +5976,9 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T49" s="99"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D50" s="6"/>
@@ -6231,18 +5997,9 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T50" s="99"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D51" s="6"/>
@@ -6261,18 +6018,9 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="6">
-        <f>E51-T51</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T51" s="99"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="11"/>
     </row>
     <row r="52" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D52" s="6"/>
@@ -6291,68 +6039,59 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="6">
-        <f>E52-T52</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T52" s="99"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="11"/>
     </row>
     <row r="53" spans="2:22" collapsed="1">
       <c r="B53" s="4"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="14" t="e">
-        <f>+T53/E53</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="11"/>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="V54" s="11"/>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="4"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" t="str">
-        <f>IFERROR(T55/D55,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="11"/>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="V56" s="11"/>
     </row>
     <row r="57" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D57" s="6"/>
@@ -6373,10 +6112,7 @@
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
-      <c r="V57" t="str">
-        <f t="shared" ref="V57:V70" si="7">IFERROR(T57/D57,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V57" s="11"/>
     </row>
     <row r="58" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D58" s="6"/>
@@ -6397,12 +6133,9 @@
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
-      <c r="V58" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V58" s="11"/>
+    </row>
+    <row r="59" spans="2:22" collapsed="1">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -6421,12 +6154,9 @@
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
-      <c r="V59" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V59" s="11"/>
+    </row>
+    <row r="60" spans="2:22">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -6445,12 +6175,9 @@
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
-      <c r="V60" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V60" s="11"/>
+    </row>
+    <row r="61" spans="2:22">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -6469,12 +6196,9 @@
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
-      <c r="V61" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V61" s="11"/>
+    </row>
+    <row r="62" spans="2:22">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -6493,12 +6217,9 @@
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
-      <c r="V62" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V62" s="11"/>
+    </row>
+    <row r="63" spans="2:22">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -6517,10 +6238,7 @@
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
-      <c r="V63" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V63" s="11"/>
     </row>
     <row r="64" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D64" s="6"/>
@@ -6541,10 +6259,7 @@
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
-      <c r="V64" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V64" s="11"/>
     </row>
     <row r="65" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D65" s="6"/>
@@ -6565,10 +6280,7 @@
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
-      <c r="V65" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V65" s="11"/>
     </row>
     <row r="66" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D66" s="6"/>
@@ -6589,10 +6301,7 @@
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
-      <c r="V66" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V66" s="11"/>
     </row>
     <row r="67" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D67" s="6"/>
@@ -6613,10 +6322,7 @@
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
-      <c r="V67" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V67" s="11"/>
     </row>
     <row r="68" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D68" s="6"/>
@@ -6637,10 +6343,7 @@
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
-      <c r="V68" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V68" s="11"/>
     </row>
     <row r="69" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D69" s="6"/>
@@ -6661,10 +6364,7 @@
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
-      <c r="V69" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V69" s="11"/>
     </row>
     <row r="70" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D70" s="6"/>
@@ -6685,10 +6385,7 @@
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
-      <c r="V70" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V70" s="11"/>
     </row>
     <row r="71" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D71" s="6"/>
@@ -6709,10 +6406,7 @@
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
-      <c r="V71" t="str">
-        <f>IFERROR(T71/D71,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
+      <c r="V71" s="11"/>
     </row>
     <row r="72" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D72" s="6"/>
@@ -6733,60 +6427,113 @@
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
-      <c r="V72" t="str">
-        <f>IFERROR(T72/D72,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" collapsed="1">
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" t="e">
-        <f>+T73/E73</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:22">
-      <c r="B75" s="4"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" t="str">
-        <f>IFERROR(T75/D75,"       ")</f>
-        <v xml:space="preserve">       </v>
-      </c>
-    </row>
-    <row r="77" spans="2:22">
-      <c r="B77" s="12"/>
+      <c r="V72" s="11"/>
+    </row>
+    <row r="73" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="11"/>
+    </row>
+    <row r="74" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="11"/>
+    </row>
+    <row r="75" spans="2:22" collapsed="1">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="11"/>
+    </row>
+    <row r="76" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="11"/>
+    </row>
+    <row r="77" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="B77" s="104"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="11"/>
     </row>
     <row r="78" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D78" s="6"/>
@@ -6805,11 +6552,9 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6">
-        <f>SUBTOTAL(109,G78:R78)</f>
-        <v>0</v>
-      </c>
+      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
+      <c r="V78" s="11"/>
     </row>
     <row r="79" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D79" s="6"/>
@@ -6828,11 +6573,9 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="6">
-        <f>SUBTOTAL(109,G79:R79)</f>
-        <v>0</v>
-      </c>
+      <c r="T79" s="6"/>
       <c r="U79" s="6"/>
+      <c r="V79" s="11"/>
     </row>
     <row r="80" spans="2:22" hidden="1" outlineLevel="1">
       <c r="D80" s="6"/>
@@ -6851,13 +6594,11 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="6">
-        <f t="shared" ref="T80:T88" si="8">SUBTOTAL(109,G80:R80)</f>
-        <v>0</v>
-      </c>
+      <c r="T80" s="6"/>
       <c r="U80" s="6"/>
-    </row>
-    <row r="81" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V80" s="11"/>
+    </row>
+    <row r="81" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -6874,13 +6615,11 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T81" s="6"/>
       <c r="U81" s="6"/>
-    </row>
-    <row r="82" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V81" s="11"/>
+    </row>
+    <row r="82" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -6897,13 +6636,11 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
-      <c r="T82" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T82" s="6"/>
       <c r="U82" s="6"/>
-    </row>
-    <row r="83" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V82" s="11"/>
+    </row>
+    <row r="83" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -6920,13 +6657,11 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T83" s="6"/>
       <c r="U83" s="6"/>
-    </row>
-    <row r="84" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V83" s="11"/>
+    </row>
+    <row r="84" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -6943,13 +6678,11 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T84" s="6"/>
       <c r="U84" s="6"/>
-    </row>
-    <row r="85" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V84" s="11"/>
+    </row>
+    <row r="85" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -6966,13 +6699,11 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
-    </row>
-    <row r="86" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V85" s="11"/>
+    </row>
+    <row r="86" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -6989,13 +6720,11 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
-    </row>
-    <row r="87" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V86" s="11"/>
+    </row>
+    <row r="87" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -7012,13 +6741,11 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T87" s="6"/>
       <c r="U87" s="6"/>
-    </row>
-    <row r="88" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V87" s="11"/>
+    </row>
+    <row r="88" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -7035,36 +6762,33 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T88" s="6"/>
       <c r="U88" s="6"/>
-    </row>
-    <row r="89" spans="2:21" collapsed="1">
-      <c r="B89" s="4"/>
+      <c r="V88" s="11"/>
+    </row>
+    <row r="89" spans="3:22" hidden="1" outlineLevel="1">
       <c r="C89" s="4"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-    </row>
-    <row r="90" spans="2:21" hidden="1" outlineLevel="1">
-      <c r="B90" s="4"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="11"/>
+    </row>
+    <row r="90" spans="3:22" collapsed="1">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -7083,8 +6807,9 @@
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
-    </row>
-    <row r="91" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V90" s="11"/>
+    </row>
+    <row r="91" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -7103,8 +6828,9 @@
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
-    </row>
-    <row r="92" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V91" s="11"/>
+    </row>
+    <row r="92" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -7123,8 +6849,9 @@
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
-    </row>
-    <row r="93" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V92" s="11"/>
+    </row>
+    <row r="93" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -7143,8 +6870,9 @@
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
-    </row>
-    <row r="94" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V93" s="11"/>
+    </row>
+    <row r="94" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -7163,8 +6891,9 @@
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
-    </row>
-    <row r="95" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V94" s="11"/>
+    </row>
+    <row r="95" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -7183,8 +6912,9 @@
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
-    </row>
-    <row r="96" spans="2:21" hidden="1" outlineLevel="1">
+      <c r="V95" s="11"/>
+    </row>
+    <row r="96" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -7203,8 +6933,9 @@
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
-    </row>
-    <row r="97" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V96" s="11"/>
+    </row>
+    <row r="97" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -7223,8 +6954,9 @@
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
-    </row>
-    <row r="98" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V97" s="11"/>
+    </row>
+    <row r="98" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -7243,8 +6975,9 @@
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
-    </row>
-    <row r="99" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V98" s="11"/>
+    </row>
+    <row r="99" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -7263,8 +6996,9 @@
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
-    </row>
-    <row r="100" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V99" s="11"/>
+    </row>
+    <row r="100" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -7283,8 +7017,9 @@
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
-    </row>
-    <row r="101" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V100" s="11"/>
+    </row>
+    <row r="101" spans="3:22" collapsed="1">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -7303,8 +7038,9 @@
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
-    </row>
-    <row r="102" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V101" s="11"/>
+    </row>
+    <row r="102" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -7323,8 +7059,9 @@
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
-    </row>
-    <row r="103" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V102" s="11"/>
+    </row>
+    <row r="103" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -7343,31 +7080,31 @@
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
-    </row>
-    <row r="104" spans="2:22" collapsed="1">
-      <c r="B104" s="4"/>
+      <c r="V103" s="11"/>
+    </row>
+    <row r="104" spans="3:22" hidden="1" outlineLevel="1">
       <c r="C104" s="4"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15"/>
-      <c r="U104" s="15"/>
-      <c r="V104" s="4"/>
-    </row>
-    <row r="105" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="108"/>
+    </row>
+    <row r="105" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -7386,8 +7123,9 @@
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
-    </row>
-    <row r="106" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V105" s="11"/>
+    </row>
+    <row r="106" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -7406,8 +7144,9 @@
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
-    </row>
-    <row r="107" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V106" s="11"/>
+    </row>
+    <row r="107" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -7426,8 +7165,9 @@
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
-    </row>
-    <row r="108" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V107" s="11"/>
+    </row>
+    <row r="108" spans="3:22" collapsed="1">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -7446,8 +7186,9 @@
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
-    </row>
-    <row r="109" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V108" s="11"/>
+    </row>
+    <row r="109" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -7466,8 +7207,9 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
-    </row>
-    <row r="110" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V109" s="11"/>
+    </row>
+    <row r="110" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -7486,8 +7228,9 @@
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
-    </row>
-    <row r="111" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V110" s="11"/>
+    </row>
+    <row r="111" spans="3:22" collapsed="1">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -7506,8 +7249,9 @@
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
-    </row>
-    <row r="112" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="V111" s="11"/>
+    </row>
+    <row r="112" spans="3:22">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -7526,72 +7270,79 @@
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
-    </row>
-    <row r="113" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-    </row>
-    <row r="114" spans="1:22" hidden="1" outlineLevel="1">
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-    </row>
-    <row r="115" spans="1:22" collapsed="1">
+      <c r="V112" s="107"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="107"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="11"/>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="15"/>
-      <c r="U115" s="15"/>
-      <c r="V115" s="4"/>
-    </row>
-    <row r="116" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="108"/>
+    </row>
+    <row r="116" spans="1:22">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -7610,8 +7361,9 @@
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
-    </row>
-    <row r="117" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V116" s="11"/>
+    </row>
+    <row r="117" spans="1:22">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -7630,8 +7382,9 @@
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
-    </row>
-    <row r="118" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V117" s="11"/>
+    </row>
+    <row r="118" spans="1:22">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -7650,8 +7403,9 @@
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
-    </row>
-    <row r="119" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V118" s="11"/>
+    </row>
+    <row r="119" spans="1:22">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -7670,8 +7424,9 @@
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
-    </row>
-    <row r="120" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V119" s="11"/>
+    </row>
+    <row r="120" spans="1:22">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -7690,8 +7445,9 @@
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
-    </row>
-    <row r="121" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V120" s="11"/>
+    </row>
+    <row r="121" spans="1:22">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -7710,32 +7466,33 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
-    </row>
-    <row r="122" spans="1:22" collapsed="1">
+      <c r="V121" s="105"/>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-      <c r="U122" s="15"/>
-      <c r="V122" s="4"/>
-    </row>
-    <row r="123" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="106"/>
+    </row>
+    <row r="123" spans="1:22">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -7754,8 +7511,9 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
-    </row>
-    <row r="124" spans="1:22" hidden="1" outlineLevel="1">
+      <c r="V123" s="105"/>
+    </row>
+    <row r="124" spans="1:22">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -7774,71 +7532,36 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
-    </row>
-    <row r="125" spans="1:22" collapsed="1">
+      <c r="V124" s="105"/>
+    </row>
+    <row r="125" spans="1:22">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
+      <c r="V125" s="106"/>
     </row>
     <row r="127" spans="1:22">
       <c r="B127" s="4"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="20"/>
-      <c r="Q127" s="20"/>
-      <c r="R127" s="20"/>
-      <c r="S127" s="20"/>
-      <c r="T127" s="20"/>
-      <c r="U127" s="20"/>
     </row>
     <row r="128" spans="1:22">
       <c r="B128" s="4"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
-      <c r="S128" s="20"/>
-      <c r="T128" s="20"/>
-      <c r="U128" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7858,161 +7581,161 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="21" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14" style="21" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="21" customWidth="1"/>
-    <col min="13" max="18" width="11" style="21" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.5703125" style="21"/>
+    <col min="1" max="1" width="39.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14" style="17" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="17" customWidth="1"/>
+    <col min="13" max="18" width="11" style="17" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="17" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="44.25" customHeight="1">
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23">
         <v>1</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="23">
         <f>+M2+1</f>
         <v>2</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="23">
         <f>+N2+1</f>
         <v>3</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="23">
         <f>+O2+1</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="23">
         <f>+P2+1</f>
         <v>5</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="23">
         <f>+Q2+1</f>
         <v>6</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="21" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="77.25" customHeight="1" collapsed="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="34" t="s">
+      <c r="F4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="24"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" s="6"/>
@@ -8071,7 +7794,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="35"/>
+      <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D8"/>
@@ -8092,7 +7815,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="35"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D9"/>
@@ -8113,7 +7836,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="35"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D10"/>
@@ -8134,7 +7857,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="35"/>
+      <c r="V10" s="31"/>
     </row>
     <row r="11" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D11"/>
@@ -8155,7 +7878,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="35"/>
+      <c r="V11" s="31"/>
     </row>
     <row r="12" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D12"/>
@@ -8176,9 +7899,9 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="35"/>
-    </row>
-    <row r="13" spans="1:22" s="28" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+      <c r="V12" s="31"/>
+    </row>
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" outlineLevel="1">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="6"/>
@@ -8197,7 +7920,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="35"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D14"/>
@@ -8218,7 +7941,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="35"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D15"/>
@@ -8239,7 +7962,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="35"/>
+      <c r="V15" s="31"/>
     </row>
     <row r="16" spans="1:22" ht="15" collapsed="1">
       <c r="D16"/>
@@ -8260,7 +7983,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="35"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="17" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D17"/>
@@ -8281,7 +8004,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="35"/>
+      <c r="V17" s="31"/>
     </row>
     <row r="18" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D18"/>
@@ -8302,9 +8025,9 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="35"/>
-    </row>
-    <row r="19" spans="1:22" s="28" customFormat="1" ht="15" collapsed="1">
+      <c r="V18" s="31"/>
+    </row>
+    <row r="19" spans="1:22" s="24" customFormat="1" ht="15" collapsed="1">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="6"/>
@@ -8323,7 +8046,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="35"/>
+      <c r="V19" s="31"/>
     </row>
     <row r="20" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D20"/>
@@ -8344,12 +8067,12 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="35"/>
+      <c r="V20" s="31"/>
     </row>
     <row r="21" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="6"/>
@@ -8368,7 +8091,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="35"/>
+      <c r="V21" s="31"/>
     </row>
     <row r="22" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D22"/>
@@ -8389,7 +8112,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="35"/>
+      <c r="V22" s="31"/>
     </row>
     <row r="23" spans="1:22" ht="15" collapsed="1">
       <c r="D23"/>
@@ -8410,7 +8133,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="35"/>
+      <c r="V23" s="31"/>
     </row>
     <row r="24" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D24"/>
@@ -8431,7 +8154,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="35"/>
+      <c r="V24" s="31"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D25"/>
@@ -8452,7 +8175,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="35"/>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D26"/>
@@ -8473,7 +8196,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="35"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D27"/>
@@ -8494,7 +8217,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="35"/>
+      <c r="V27" s="31"/>
     </row>
     <row r="28" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D28"/>
@@ -8515,7 +8238,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="35"/>
+      <c r="V28" s="31"/>
     </row>
     <row r="29" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D29"/>
@@ -8536,7 +8259,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="35"/>
+      <c r="V29" s="31"/>
     </row>
     <row r="30" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D30"/>
@@ -8557,7 +8280,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="35"/>
+      <c r="V30" s="31"/>
     </row>
     <row r="31" spans="1:22" ht="15" collapsed="1">
       <c r="D31"/>
@@ -8578,7 +8301,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="35"/>
+      <c r="V31" s="31"/>
     </row>
     <row r="32" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D32"/>
@@ -8599,7 +8322,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="35"/>
+      <c r="V32" s="31"/>
     </row>
     <row r="33" spans="1:22" ht="15" collapsed="1">
       <c r="D33"/>
@@ -8620,7 +8343,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="35"/>
+      <c r="V33" s="31"/>
     </row>
     <row r="34" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D34"/>
@@ -8641,7 +8364,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="35"/>
+      <c r="V34" s="31"/>
     </row>
     <row r="35" spans="1:22" ht="15" collapsed="1">
       <c r="D35"/>
@@ -8662,28 +8385,28 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="35"/>
+      <c r="V35" s="31"/>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="35"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="31"/>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="D37"/>
@@ -8704,7 +8427,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="35"/>
+      <c r="V37" s="31"/>
     </row>
     <row r="38" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D38"/>
@@ -8725,7 +8448,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="35"/>
+      <c r="V38" s="31"/>
     </row>
     <row r="39" spans="1:22" ht="15" collapsed="1">
       <c r="D39"/>
@@ -8746,7 +8469,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="35"/>
+      <c r="V39" s="31"/>
     </row>
     <row r="40" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D40"/>
@@ -8767,12 +8490,12 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="35"/>
+      <c r="V40" s="31"/>
     </row>
     <row r="41" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="6"/>
@@ -8791,7 +8514,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="35"/>
+      <c r="V41" s="31"/>
     </row>
     <row r="42" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D42"/>
@@ -8812,7 +8535,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="35"/>
+      <c r="V42" s="31"/>
     </row>
     <row r="43" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D43"/>
@@ -8833,7 +8556,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="35"/>
+      <c r="V43" s="31"/>
     </row>
     <row r="44" spans="1:22" ht="15" collapsed="1">
       <c r="D44"/>
@@ -8938,46 +8661,46 @@
     <row r="49" spans="1:21" ht="15">
       <c r="D49"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
     </row>
     <row r="50" spans="1:21" ht="15">
       <c r="D50"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
     </row>
     <row r="51" spans="1:21" ht="15">
       <c r="A51"/>
-      <c r="C51" s="21">
+      <c r="C51" s="17">
         <f t="shared" ref="C51:C110" si="0">COUNTIFS(A:A,B51)</f>
         <v>0</v>
       </c>
@@ -9001,7 +8724,7 @@
       <c r="U51" s="6"/>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9026,7 +8749,7 @@
     </row>
     <row r="53" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="A53"/>
-      <c r="C53" s="21">
+      <c r="C53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9050,7 +8773,7 @@
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9074,7 +8797,7 @@
       <c r="U54" s="6"/>
     </row>
     <row r="55" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C55" s="21">
+      <c r="C55" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9098,7 +8821,7 @@
       <c r="U55" s="6"/>
     </row>
     <row r="56" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9122,7 +8845,7 @@
       <c r="U56" s="6"/>
     </row>
     <row r="57" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C57" s="21">
+      <c r="C57" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9146,7 +8869,7 @@
       <c r="U57" s="6"/>
     </row>
     <row r="58" spans="1:21" ht="15" collapsed="1">
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9170,7 +8893,7 @@
       <c r="U58" s="6"/>
     </row>
     <row r="59" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C59" s="21">
+      <c r="C59" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9194,7 +8917,7 @@
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9218,7 +8941,7 @@
       <c r="U60" s="6"/>
     </row>
     <row r="61" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C61" s="21">
+      <c r="C61" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9242,7 +8965,7 @@
       <c r="U61" s="6"/>
     </row>
     <row r="62" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9266,7 +8989,7 @@
       <c r="U62" s="6"/>
     </row>
     <row r="63" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C63" s="21">
+      <c r="C63" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9290,7 +9013,7 @@
       <c r="U63" s="6"/>
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C64" s="21">
+      <c r="C64" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9314,7 +9037,7 @@
       <c r="U64" s="6"/>
     </row>
     <row r="65" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C65" s="21">
+      <c r="C65" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9338,7 +9061,7 @@
       <c r="U65" s="6"/>
     </row>
     <row r="66" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C66" s="21">
+      <c r="C66" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9362,7 +9085,7 @@
       <c r="U66" s="6"/>
     </row>
     <row r="67" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C67" s="21">
+      <c r="C67" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9386,7 +9109,7 @@
       <c r="U67" s="6"/>
     </row>
     <row r="68" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C68" s="21">
+      <c r="C68" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9410,7 +9133,7 @@
       <c r="U68" s="6"/>
     </row>
     <row r="69" spans="3:26" ht="15" collapsed="1">
-      <c r="C69" s="21">
+      <c r="C69" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9434,1141 +9157,1141 @@
       <c r="U69" s="6"/>
     </row>
     <row r="70" spans="3:26" ht="15">
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="112"/>
-      <c r="K70" s="112"/>
-      <c r="L70" s="112"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="112"/>
-      <c r="T70" s="112"/>
-      <c r="U70" s="112"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="99"/>
+      <c r="T70" s="99"/>
+      <c r="U70" s="99"/>
     </row>
     <row r="71" spans="3:26" ht="15">
-      <c r="C71" s="21">
+      <c r="C71" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="112"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="112"/>
-      <c r="M71" s="112"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="112"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
-      <c r="R71" s="112"/>
-      <c r="S71" s="112"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="99"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="99"/>
     </row>
     <row r="72" spans="3:26" ht="15">
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="112"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
-      <c r="R72" s="112"/>
-      <c r="S72" s="112"/>
-      <c r="T72" s="112"/>
-      <c r="U72" s="112"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
     </row>
     <row r="73" spans="3:26" ht="15">
-      <c r="C73" s="21">
+      <c r="C73" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="112"/>
-      <c r="K73" s="112"/>
-      <c r="L73" s="112"/>
-      <c r="M73" s="112"/>
-      <c r="N73" s="112"/>
-      <c r="O73" s="112"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
-      <c r="R73" s="112"/>
-      <c r="S73" s="112"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="99"/>
+      <c r="T73" s="99"/>
+      <c r="U73" s="99"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
     </row>
     <row r="74" spans="3:26" ht="15">
-      <c r="C74" s="21">
+      <c r="C74" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="115"/>
-      <c r="I74" s="115"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="115"/>
-      <c r="L74" s="115"/>
-      <c r="M74" s="115"/>
-      <c r="N74" s="115"/>
-      <c r="O74" s="115"/>
-      <c r="P74" s="115"/>
-      <c r="Q74" s="115"/>
-      <c r="R74" s="115"/>
-      <c r="S74" s="115"/>
-      <c r="T74" s="115"/>
-      <c r="U74" s="115"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="102"/>
+      <c r="L74" s="102"/>
+      <c r="M74" s="102"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="102"/>
+      <c r="T74" s="102"/>
+      <c r="U74" s="102"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
     </row>
     <row r="75" spans="3:26" ht="15">
-      <c r="C75" s="21">
+      <c r="C75" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="112"/>
-      <c r="I75" s="113"/>
-      <c r="J75" s="112"/>
-      <c r="K75" s="112"/>
-      <c r="L75" s="112"/>
-      <c r="M75" s="112"/>
-      <c r="N75" s="112"/>
-      <c r="O75" s="112"/>
-      <c r="P75" s="112"/>
-      <c r="Q75" s="112"/>
-      <c r="R75" s="112"/>
-      <c r="S75" s="112"/>
-      <c r="T75" s="112"/>
-      <c r="U75" s="112"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="99"/>
+      <c r="R75" s="99"/>
+      <c r="S75" s="99"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="99"/>
     </row>
     <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C76" s="21">
+      <c r="C76" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="112"/>
-      <c r="N76" s="112"/>
-      <c r="O76" s="112"/>
-      <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
-      <c r="R76" s="112"/>
-      <c r="S76" s="112"/>
-      <c r="T76" s="112"/>
-      <c r="U76" s="112"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="99"/>
+      <c r="K76" s="99"/>
+      <c r="L76" s="99"/>
+      <c r="M76" s="99"/>
+      <c r="N76" s="99"/>
+      <c r="O76" s="99"/>
+      <c r="P76" s="99"/>
+      <c r="Q76" s="99"/>
+      <c r="R76" s="99"/>
+      <c r="S76" s="99"/>
+      <c r="T76" s="99"/>
+      <c r="U76" s="99"/>
     </row>
     <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C77" s="21">
+      <c r="C77" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="112"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
-      <c r="R77" s="112"/>
-      <c r="S77" s="112"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
     </row>
     <row r="78" spans="3:26" ht="15" collapsed="1">
-      <c r="C78" s="21">
+      <c r="C78" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112"/>
-      <c r="I78" s="113"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="112"/>
-      <c r="L78" s="112"/>
-      <c r="M78" s="112"/>
-      <c r="N78" s="112"/>
-      <c r="O78" s="112"/>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
-      <c r="R78" s="112"/>
-      <c r="S78" s="112"/>
-      <c r="T78" s="112"/>
-      <c r="U78" s="112"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="99"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="99"/>
+      <c r="S78" s="99"/>
+      <c r="T78" s="99"/>
+      <c r="U78" s="99"/>
     </row>
     <row r="79" spans="3:26" ht="15.75" customHeight="1">
-      <c r="C79" s="21">
+      <c r="C79" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="116"/>
-      <c r="N79" s="116"/>
-      <c r="O79" s="116"/>
-      <c r="P79" s="116"/>
-      <c r="Q79" s="116"/>
-      <c r="R79" s="116"/>
-      <c r="S79" s="116"/>
-      <c r="T79" s="116"/>
-      <c r="U79" s="116"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="103"/>
+      <c r="N79" s="103"/>
+      <c r="O79" s="103"/>
+      <c r="P79" s="103"/>
+      <c r="Q79" s="103"/>
+      <c r="R79" s="103"/>
+      <c r="S79" s="103"/>
+      <c r="T79" s="103"/>
+      <c r="U79" s="103"/>
     </row>
     <row r="80" spans="3:26" ht="15">
-      <c r="C80" s="21">
+      <c r="C80" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="112"/>
-      <c r="L80" s="112"/>
-      <c r="M80" s="112"/>
-      <c r="N80" s="112"/>
-      <c r="O80" s="112"/>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
-      <c r="R80" s="112"/>
-      <c r="S80" s="112"/>
-      <c r="T80" s="112"/>
-      <c r="U80" s="112"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="99"/>
+      <c r="L80" s="99"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="99"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="99"/>
+      <c r="Q80" s="99"/>
+      <c r="R80" s="99"/>
+      <c r="S80" s="99"/>
+      <c r="T80" s="99"/>
+      <c r="U80" s="99"/>
     </row>
     <row r="81" spans="3:21" ht="15">
-      <c r="C81" s="21">
+      <c r="C81" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="114"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
-      <c r="S81" s="114"/>
-      <c r="T81" s="114"/>
-      <c r="U81" s="114"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+      <c r="M81" s="101"/>
+      <c r="N81" s="101"/>
+      <c r="O81" s="101"/>
+      <c r="P81" s="101"/>
+      <c r="Q81" s="101"/>
+      <c r="R81" s="101"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="101"/>
+      <c r="U81" s="101"/>
     </row>
     <row r="82" spans="3:21" ht="15">
-      <c r="C82" s="21">
+      <c r="C82" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
     </row>
     <row r="83" spans="3:21" ht="15">
-      <c r="C83" s="21">
+      <c r="C83" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="39"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="35"/>
     </row>
     <row r="84" spans="3:21" ht="15">
-      <c r="C84" s="21">
+      <c r="C84" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="39"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="35"/>
     </row>
     <row r="85" spans="3:21" ht="15">
-      <c r="C85" s="21">
+      <c r="C85" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="40"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="40"/>
-      <c r="U85" s="39"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="35"/>
     </row>
     <row r="86" spans="3:21" ht="15">
-      <c r="C86" s="21">
+      <c r="C86" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="39"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="35"/>
     </row>
     <row r="87" spans="3:21" ht="15">
-      <c r="C87" s="21">
+      <c r="C87" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="39"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="35"/>
     </row>
     <row r="88" spans="3:21" ht="15">
-      <c r="C88" s="21">
+      <c r="C88" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="39"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="35"/>
     </row>
     <row r="89" spans="3:21" ht="15">
-      <c r="C89" s="21">
+      <c r="C89" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="39"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="35"/>
     </row>
     <row r="90" spans="3:21" ht="15">
-      <c r="C90" s="21">
+      <c r="C90" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="39"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="35"/>
     </row>
     <row r="91" spans="3:21" ht="15">
-      <c r="C91" s="21">
+      <c r="C91" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="39"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="35"/>
     </row>
     <row r="92" spans="3:21" ht="15">
-      <c r="C92" s="21">
+      <c r="C92" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="39"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="35"/>
     </row>
     <row r="93" spans="3:21" ht="15">
-      <c r="C93" s="21">
+      <c r="C93" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="39"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="35"/>
     </row>
     <row r="94" spans="3:21" ht="15">
-      <c r="C94" s="21">
+      <c r="C94" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="39"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="35"/>
     </row>
     <row r="95" spans="3:21" ht="15">
-      <c r="C95" s="21">
+      <c r="C95" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="39"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="35"/>
     </row>
     <row r="96" spans="3:21" ht="15">
-      <c r="C96" s="21">
+      <c r="C96" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="39"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="35"/>
     </row>
     <row r="97" spans="1:21" ht="15">
-      <c r="C97" s="21">
+      <c r="C97" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="39"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="35"/>
     </row>
     <row r="98" spans="1:21" ht="15">
-      <c r="C98" s="21">
+      <c r="C98" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="39"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="35"/>
     </row>
     <row r="99" spans="1:21" ht="15">
-      <c r="C99" s="21">
+      <c r="C99" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="39"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="35"/>
     </row>
     <row r="100" spans="1:21" ht="15">
-      <c r="C100" s="21">
+      <c r="C100" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="40"/>
-      <c r="U100" s="39"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="35"/>
     </row>
     <row r="101" spans="1:21" ht="15">
-      <c r="C101" s="21">
+      <c r="C101" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="40"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="39"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="35"/>
     </row>
     <row r="102" spans="1:21" ht="15">
-      <c r="C102" s="21">
+      <c r="C102" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
-      <c r="T102" s="40"/>
-      <c r="U102" s="39"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="36"/>
+      <c r="U102" s="35"/>
     </row>
     <row r="103" spans="1:21" ht="15">
-      <c r="C103" s="21">
+      <c r="C103" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="38"/>
-      <c r="T103" s="39"/>
-      <c r="U103" s="39"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="34"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
     </row>
     <row r="104" spans="1:21" ht="15">
-      <c r="C104" s="21">
+      <c r="C104" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="38"/>
-      <c r="T104" s="39"/>
-      <c r="U104" s="39"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
     </row>
     <row r="105" spans="1:21" ht="15">
-      <c r="C105" s="21">
+      <c r="C105" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="38"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
     </row>
     <row r="106" spans="1:21" ht="15">
-      <c r="C106" s="21">
+      <c r="C106" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="38"/>
-      <c r="T106" s="39"/>
-      <c r="U106" s="39"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
     </row>
     <row r="107" spans="1:21" ht="15">
-      <c r="C107" s="21">
+      <c r="C107" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-      <c r="P107" s="36"/>
-      <c r="Q107" s="36"/>
-      <c r="R107" s="36"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
     </row>
     <row r="108" spans="1:21" ht="15">
-      <c r="C108" s="21">
+      <c r="C108" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36"/>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36"/>
-      <c r="S108" s="38"/>
-      <c r="T108" s="39"/>
-      <c r="U108" s="39"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
     </row>
     <row r="109" spans="1:21" ht="15">
-      <c r="C109" s="21">
+      <c r="C109" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="36"/>
-      <c r="P109" s="36"/>
-      <c r="Q109" s="36"/>
-      <c r="R109" s="36"/>
-      <c r="S109" s="38"/>
-      <c r="T109" s="39"/>
-      <c r="U109" s="39"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="34"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
     </row>
     <row r="110" spans="1:21" ht="15">
-      <c r="C110" s="21">
+      <c r="C110" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="38"/>
-      <c r="T110" s="39"/>
-      <c r="U110" s="39"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="34"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
     </row>
     <row r="111" spans="1:21" ht="15">
       <c r="A111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="T111" s="39"/>
-      <c r="U111" s="39"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
     </row>
     <row r="112" spans="1:21" ht="15">
       <c r="D112"/>
       <c r="E112"/>
-      <c r="T112" s="39"/>
-      <c r="U112" s="39"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
     </row>
     <row r="113" spans="4:21" ht="15">
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="38"/>
-      <c r="T113" s="39"/>
-      <c r="U113" s="39"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
     </row>
     <row r="114" spans="4:21" ht="15">
       <c r="D114" s="4"/>
       <c r="E114"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="38"/>
-      <c r="T114" s="39"/>
-      <c r="U114" s="39"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="34"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
     </row>
     <row r="115" spans="4:21" ht="15">
       <c r="D115" s="4"/>
       <c r="E115"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36"/>
-      <c r="S115" s="38"/>
-      <c r="T115" s="39"/>
-      <c r="U115" s="39"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="34"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
     </row>
     <row r="116" spans="4:21">
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="36"/>
-      <c r="S116" s="38"/>
-      <c r="T116" s="39"/>
-      <c r="U116" s="39"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
     </row>
     <row r="117" spans="4:21">
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="36"/>
-      <c r="Q117" s="36"/>
-      <c r="R117" s="36"/>
-      <c r="S117" s="38"/>
-      <c r="T117" s="39"/>
-      <c r="U117" s="39"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
     </row>
     <row r="118" spans="4:21">
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="36"/>
-      <c r="S118" s="38"/>
-      <c r="T118" s="39"/>
-      <c r="U118" s="39"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="32"/>
+      <c r="P118" s="32"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="32"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
     </row>
     <row r="119" spans="4:21">
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="36"/>
-      <c r="M119" s="36"/>
-      <c r="N119" s="36"/>
-      <c r="O119" s="36"/>
-      <c r="P119" s="36"/>
-      <c r="Q119" s="36"/>
-      <c r="R119" s="36"/>
-      <c r="S119" s="38"/>
-      <c r="T119" s="39"/>
-      <c r="U119" s="39"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10585,1168 +10308,1166 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="2" style="21" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="9" width="13.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="15" width="13.28515625" style="21" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="16" max="16" width="2.7109375" style="62" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="17" max="17" width="15.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10" style="21"/>
+    <col min="1" max="1" width="2" style="17" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="9" width="13.28515625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="15" width="13.28515625" style="17" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="16" max="16" width="2.7109375" style="58" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="17" max="17" width="15.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:18" ht="20.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-    </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" ht="15">
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="46" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" s="42" customFormat="1" ht="15">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="48"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="49"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="46">
         <v>-1375582</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="46">
         <v>664497</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="46">
         <v>-508913</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="46">
         <v>-63392</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="46">
         <v>-40088</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="Q7" s="50">
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="Q7" s="46">
         <v>-1323478</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="Q8" s="49"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="29">
         <v>104167</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>104167</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>104167</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>104167</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>104167</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="Q9" s="33">
+      <c r="I9" s="29"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="Q9" s="29">
         <v>520833</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <v>589378</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <v>246683</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="29">
         <v>273447</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="Q10" s="33">
+      <c r="I10" s="29"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="Q10" s="29">
         <v>1109508</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="29">
         <v>20990</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <v>-30688</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <v>7305</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <v>-9094</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="29">
         <v>8758</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="Q11" s="33">
+      <c r="I11" s="29"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="Q11" s="29">
         <v>-2728</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="Q12" s="33" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="Q12" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="29">
         <v>181842</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <v>122755</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <v>38663</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <v>-149873</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="29">
         <v>167540</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="Q13" s="33">
+      <c r="I13" s="29"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="Q13" s="29">
         <v>360926</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>1080</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="Q14" s="33">
+      <c r="I14" s="29"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="Q14" s="29">
         <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="Q15" s="33"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="Q16" s="33"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="Q17" s="33"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="Q18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="1:17" ht="15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="51">
         <v>-1068584</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="51">
         <v>1450109</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="51">
         <v>-357698</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="51">
         <v>128491</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="51">
         <v>513824</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="Q19" s="55">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="51">
         <v>666141</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="Q20" s="50"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="Q20" s="46"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="Q21" s="50"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="Q21" s="46"/>
     </row>
     <row r="22" spans="1:17" ht="15">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="Q22" s="49"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" ht="15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="53">
         <v>1510</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="Q23" s="50" t="s">
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="Q23" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="53">
         <v>1520</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="29">
         <v>-132300</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="Q24" s="33">
+      <c r="I24" s="29"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="Q24" s="29">
         <v>-132300</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="53">
         <v>1538</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="29">
         <v>-139</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="29">
         <v>-21374</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="Q25" s="33">
+      <c r="I25" s="29"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="Q25" s="29">
         <v>-21513</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="53">
         <v>1539</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="Q26" s="33" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="Q26" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="53">
         <v>1531</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="29">
         <v>-231</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="Q27" s="33">
+      <c r="I27" s="29"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="Q27" s="29">
         <v>-231</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="Q28" s="33" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="Q28" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="Q29" s="33"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="15">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="66">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="62">
         <v>-231</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="62">
         <v>-132439</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66">
+      <c r="F30" s="62"/>
+      <c r="G30" s="62">
         <v>-21374</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="Q30" s="66">
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="Q30" s="62">
         <v>-154044</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="Q31" s="50"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="Q32" s="50"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="Q33" s="49"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="Q33" s="45"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="Q34" s="50"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="Q34" s="46"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="Q35" s="33"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="Q36" s="33"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54" t="s">
+      <c r="I37" s="49"/>
+      <c r="J37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="54" t="s">
+      <c r="L37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="54" t="s">
+      <c r="M37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="54" t="s">
+      <c r="N37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="54" t="s">
+      <c r="O37" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="Q37" s="53" t="s">
+      <c r="Q37" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="Q38" s="55"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="Q38" s="51"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54" t="s">
+      <c r="I39" s="49"/>
+      <c r="J39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="54" t="s">
+      <c r="K39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="54" t="s">
+      <c r="L39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="N39" s="54" t="s">
+      <c r="N39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="O39" s="54" t="s">
+      <c r="O39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="Q39" s="53" t="s">
+      <c r="Q39" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="51">
         <v>-1068815</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="51">
         <v>1317670</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="51">
         <v>-357698</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="51">
         <v>107117</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="51">
         <v>513824</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="Q40" s="55">
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="Q40" s="51">
         <v>512097</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="Q41" s="50"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="Q41" s="46"/>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="51">
         <v>7264371</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="51">
         <v>6195556</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="51">
         <v>7513119</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="51">
         <v>7152482</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="51">
         <v>7259598</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="Q42" s="55">
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="Q42" s="51">
         <v>7264371</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54" t="s">
+      <c r="I43" s="49"/>
+      <c r="J43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="54" t="s">
+      <c r="K43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="54" t="s">
+      <c r="L43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="54" t="s">
+      <c r="M43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="N43" s="54" t="s">
+      <c r="N43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="O43" s="54" t="s">
+      <c r="O43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="Q43" s="53" t="s">
+      <c r="Q43" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="54">
         <v>6195556</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="54">
         <v>7513119</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="54">
         <v>7152482</v>
       </c>
-      <c r="G44" s="58">
+      <c r="G44" s="54">
         <v>7259598</v>
       </c>
-      <c r="H44" s="58">
+      <c r="H44" s="54">
         <v>7771900</v>
       </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="Q44" s="58">
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="Q44" s="54">
         <v>7771900</v>
       </c>
-      <c r="R44" s="50"/>
-      <c r="V44" s="50"/>
+      <c r="R44" s="46"/>
+      <c r="V44" s="46"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="Q45" s="60"/>
-    </row>
-    <row r="46" spans="1:22" s="35" customFormat="1">
-      <c r="P46" s="68"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="Q45" s="56"/>
+    </row>
+    <row r="46" spans="1:22" s="31" customFormat="1">
+      <c r="P46" s="64"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1B741-9AD0-4AB7-A8B8-13295DAC948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E397101-CA0A-44C0-B7CD-FA799A447E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$C$1:$V$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4902,7 +4902,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -7569,7 +7569,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E397101-CA0A-44C0-B7CD-FA799A447E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D115E33-6A80-455E-9828-87CC307DF272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -101,11 +101,6 @@
     <t>Depreciation and Amortization</t>
   </si>
   <si>
-    <t>ADVANTAGE ACADEMY 
-FY2022-2023 Statement of 
-Activities as of July 1, 2023</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -128,10 +123,6 @@
     <t/>
   </si>
   <si>
-    <t>ADVANTAGE ACADEMY
-FY2022-2023 Balance Sheet as of  July 1, 2023</t>
-  </si>
-  <si>
     <t>Statement of Cash Flows</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
   </si>
   <si>
     <t>Cash at End of Period</t>
-  </si>
-  <si>
-    <t>for the period ended of July 1, 2023</t>
   </si>
   <si>
     <t>ADVANTAGE ACADEMY</t>
@@ -423,9 +411,6 @@
     <t xml:space="preserve">            </t>
   </si>
   <si>
-    <t>FY2022-2023 Charter FIRST Forecastas of July 1 2023</t>
-  </si>
-  <si>
     <t>ADVANTAGE ACADAMEY</t>
   </si>
   <si>
@@ -436,6 +421,21 @@
   </si>
   <si>
     <t>As of July</t>
+  </si>
+  <si>
+    <t>FY2022-2023 Charter FIRST Forecastas of July 31, 2023</t>
+  </si>
+  <si>
+    <t>ADVANTAGE ACADEMY 
+FY2022-2023 Statement of 
+Activities as of July 31, 2023</t>
+  </si>
+  <si>
+    <t>ADVANTAGE ACADEMY
+FY2022-2023 Balance Sheet as of  July 31, 2023</t>
+  </si>
+  <si>
+    <t>for the period ended of July 31, 2023</t>
   </si>
 </sst>
 </file>
@@ -4487,7 +4487,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -4503,7 +4503,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -4521,67 +4521,67 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="71">
         <v>-1323478</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" s="81">
         <v>190</v>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="80" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="82" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="83">
         <v>4.6100000000000003</v>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="71">
         <v>-802645</v>
@@ -4621,27 +4621,27 @@
       </c>
       <c r="D9" s="85"/>
       <c r="E9" s="80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="84">
         <v>10</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="83">
         <v>0.64</v>
@@ -4651,27 +4651,27 @@
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="84">
         <v>10</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="87">
         <v>0.68</v>
@@ -4681,132 +4681,132 @@
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="80" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="78">
         <v>10</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="90" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="91" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="78">
         <v>10</v>
       </c>
       <c r="D15" s="76"/>
       <c r="E15" s="80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="84">
         <v>5</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="84">
         <v>10</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
       <c r="A20" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="84">
         <v>5</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
       <c r="A22" s="92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="109">
         <v>100</v>
@@ -4814,15 +4814,15 @@
       <c r="C22" s="110"/>
       <c r="D22" s="111"/>
       <c r="E22" s="113" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
       <c r="A23" s="93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="112"/>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="96" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
@@ -4902,7 +4902,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4926,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="117" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="C1" s="117"/>
       <c r="D1" s="117"/>
@@ -7581,7 +7581,7 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7608,7 +7608,7 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -7634,7 +7634,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="24"/>
       <c r="F2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7667,10 +7667,10 @@
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="77.25" customHeight="1" collapsed="1">
@@ -7678,7 +7678,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="F3" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>1</v>
@@ -7718,20 +7718,20 @@
       </c>
       <c r="S3" s="26"/>
       <c r="T3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
       <c r="D4" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="28"/>
       <c r="T4" s="29"/>
       <c r="U4" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
@@ -10328,7 +10328,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="2" spans="1:18" ht="20.25">
       <c r="A2" s="40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="40" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10405,7 +10405,7 @@
       <c r="O4" s="43"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" s="44"/>
     </row>
@@ -10447,12 +10447,12 @@
         <v>12</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
       <c r="A6" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="46">
         <v>-1375582</v>
@@ -10548,10 +10548,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="29">
         <v>589378</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="29">
         <v>20990</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -10623,12 +10623,12 @@
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
       <c r="Q12" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="29">
         <v>181842</v>
@@ -10658,22 +10658,22 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="29">
         <v>1080</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="60"/>
@@ -10688,22 +10688,22 @@
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="60"/>
@@ -10716,22 +10716,22 @@
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="60"/>
@@ -10744,22 +10744,22 @@
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="60"/>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="51">
         <v>-1068584</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -10868,25 +10868,25 @@
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="24"/>
       <c r="B23" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="53">
         <v>1510</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
@@ -10895,30 +10895,30 @@
       <c r="M23" s="47"/>
       <c r="O23" s="47"/>
       <c r="Q23" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="B24" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="53">
         <v>1520</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="29">
         <v>-132300</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="60"/>
@@ -10933,25 +10933,25 @@
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="53">
         <v>1538</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="29">
         <v>-139</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G25" s="29">
         <v>-21374</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="60"/>
@@ -10966,25 +10966,25 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="53">
         <v>1539</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="60"/>
@@ -10994,12 +10994,12 @@
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="Q26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="53">
         <v>1531</v>
@@ -11008,16 +11008,16 @@
         <v>-231</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="60"/>
@@ -11032,22 +11032,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="60"/>
@@ -11057,7 +11057,7 @@
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="Q28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -11077,7 +11077,7 @@
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
@@ -11209,46 +11209,46 @@
     </row>
     <row r="37" spans="1:22">
       <c r="D37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I37" s="49"/>
       <c r="J37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -11268,46 +11268,46 @@
     </row>
     <row r="39" spans="1:22">
       <c r="D39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O39" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="51">
         <v>-1068815</v>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="51">
         <v>7264371</v>
@@ -11382,46 +11382,46 @@
     </row>
     <row r="43" spans="1:22">
       <c r="D43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O43" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q43" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="54">
         <v>6195556</v>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D115E33-6A80-455E-9828-87CC307DF272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218A78E-7FFB-4D29-91F9-5171408B5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4487,7 +4487,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -7581,7 +7581,7 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -11472,6 +11472,6 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218A78E-7FFB-4D29-91F9-5171408B5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C5814B-EC2E-4C55-B5BC-85C489162DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4886,8 +4887,8 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7568,8 +7569,8 @@
     <mergeCell ref="B1:X1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
+  <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10295,8 +10296,8 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11471,7 +11472,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C5814B-EC2E-4C55-B5BC-85C489162DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BA1B2-F5FA-4AA4-A842-CA72263B4EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>Amended
 Budget</t>
@@ -169,24 +169,6 @@
     <t>CASH FLOWS FROM INVESTING ACTIVITIES</t>
   </si>
   <si>
-    <t>Decrease (Increase) in Land</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Building &amp; Improvements</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Technology Equipment</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Furniture &amp; Equipment</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Vehicles</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) Construction in Process</t>
-  </si>
-  <si>
     <t>NET CASH FLOWS FROM INVESTING ACTIVITIES</t>
   </si>
   <si>
@@ -202,9 +184,6 @@
     <t>Decrease (Increase) Restricted Cash (Constr.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>NET CASH FLOWS FROM FINANCING ACTIVITIES</t>
   </si>
   <si>
@@ -218,12 +197,6 @@
   </si>
   <si>
     <t>ADVANTAGE ACADEMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $-   </t>
   </si>
   <si>
     <t>FIRST Rating Indicators</t>
@@ -810,7 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -905,24 +878,19 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -4488,396 +4456,398 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="66" customWidth="1"/>
-    <col min="2" max="2" width="14" style="66" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="97" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="66" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="46" style="66" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="66"/>
+    <col min="1" max="1" width="46" style="61" customWidth="1"/>
+    <col min="2" max="2" width="14" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="92" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="61" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="61" customWidth="1"/>
+    <col min="8" max="8" width="46" style="61" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="A1" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="A2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="66">
+        <v>-1323478</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="68" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="B6" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="C6" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="75" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="70" t="s">
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="76">
+        <v>190</v>
+      </c>
+      <c r="C7" s="73">
+        <v>10</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="71">
-        <v>-1323478</v>
-      </c>
-      <c r="C4" s="72" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="75" t="s">
+      <c r="B8" s="78">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C8" s="79">
+        <v>10</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="75" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="B9" s="66">
+        <v>-802645</v>
+      </c>
+      <c r="C9" s="79">
+        <v>5</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="77" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="70" t="s">
+      <c r="B10" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="79">
+        <v>10</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="78" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="80" t="s">
+      <c r="B11" s="78">
+        <v>0.64</v>
+      </c>
+      <c r="C11" s="79">
+        <v>10</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="81">
-        <v>190</v>
-      </c>
-      <c r="C7" s="78">
+    <row r="12" spans="1:5">
+      <c r="A12" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="79">
         <v>10</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="82" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="83">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="C8" s="84">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="82">
+        <v>0.68</v>
+      </c>
+      <c r="C13" s="79">
+        <v>5</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="73">
         <v>10</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="71">
-        <v>-802645</v>
-      </c>
-      <c r="C9" s="84">
+      <c r="D14" s="71"/>
+      <c r="E14" s="85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="73">
+        <v>10</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="79">
         <v>5</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="84">
+      <c r="D16" s="71"/>
+      <c r="E16" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="79">
         <v>10</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="82" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A20" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="79">
+        <v>5</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="83">
-        <v>0.64</v>
-      </c>
-      <c r="C11" s="84">
-        <v>10</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="84">
-        <v>10</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="87">
-        <v>0.68</v>
-      </c>
-      <c r="C13" s="84">
-        <v>5</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="80" t="s">
+      <c r="C21" s="79" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="78">
-        <v>10</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="78">
-        <v>10</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="84">
-        <v>5</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="84" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A22" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="80" t="s">
+      <c r="B22" s="104">
+        <v>100</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="108" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="82" t="s">
+    <row r="23" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A23" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="80" t="s">
+      <c r="B23" s="110" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="82" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="89"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="91"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="84">
-        <v>10</v>
-      </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="84">
-        <v>5</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="109">
-        <v>100</v>
-      </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="114"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="94"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="96"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="94"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="94"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="89"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="94"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="89"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="94"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4926,31 +4896,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
+      <c r="B1" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -5009,7 +4979,7 @@
     </row>
     <row r="4" spans="1:24" hidden="1" outlineLevel="1">
       <c r="A4" s="9"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:24" hidden="1" outlineLevel="1">
       <c r="A5" s="9"/>
@@ -5267,24 +5237,24 @@
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" hidden="1" outlineLevel="1">
@@ -5704,7 +5674,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="99"/>
+      <c r="T36" s="94"/>
       <c r="U36" s="6"/>
       <c r="V36" s="11"/>
     </row>
@@ -5725,7 +5695,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="99"/>
+      <c r="T37" s="94"/>
       <c r="U37" s="6"/>
       <c r="V37" s="11"/>
     </row>
@@ -5746,7 +5716,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="99"/>
+      <c r="T38" s="94"/>
       <c r="U38" s="6"/>
       <c r="V38" s="11"/>
     </row>
@@ -5767,7 +5737,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="99"/>
+      <c r="T39" s="94"/>
       <c r="U39" s="6"/>
       <c r="V39" s="11"/>
     </row>
@@ -5788,7 +5758,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="99"/>
+      <c r="T40" s="94"/>
       <c r="U40" s="6"/>
       <c r="V40" s="11"/>
     </row>
@@ -5809,7 +5779,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="99"/>
+      <c r="T41" s="94"/>
       <c r="U41" s="6"/>
       <c r="V41" s="11"/>
     </row>
@@ -5830,7 +5800,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="99"/>
+      <c r="T42" s="94"/>
       <c r="U42" s="6"/>
       <c r="V42" s="11"/>
     </row>
@@ -5851,7 +5821,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="99"/>
+      <c r="T43" s="94"/>
       <c r="U43" s="6"/>
       <c r="V43" s="11"/>
     </row>
@@ -5872,7 +5842,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="99"/>
+      <c r="T44" s="94"/>
       <c r="U44" s="6"/>
       <c r="V44" s="11"/>
     </row>
@@ -5893,7 +5863,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="99"/>
+      <c r="T45" s="94"/>
       <c r="U45" s="6"/>
       <c r="V45" s="11"/>
     </row>
@@ -5914,7 +5884,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="99"/>
+      <c r="T46" s="94"/>
       <c r="U46" s="6"/>
       <c r="V46" s="11"/>
     </row>
@@ -5935,7 +5905,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="99"/>
+      <c r="T47" s="94"/>
       <c r="U47" s="6"/>
       <c r="V47" s="11"/>
     </row>
@@ -5956,7 +5926,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="99"/>
+      <c r="T48" s="94"/>
       <c r="U48" s="6"/>
       <c r="V48" s="11"/>
     </row>
@@ -5977,7 +5947,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="99"/>
+      <c r="T49" s="94"/>
       <c r="U49" s="6"/>
       <c r="V49" s="11"/>
     </row>
@@ -5998,7 +5968,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="99"/>
+      <c r="T50" s="94"/>
       <c r="U50" s="6"/>
       <c r="V50" s="11"/>
     </row>
@@ -6019,7 +5989,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="99"/>
+      <c r="T51" s="94"/>
       <c r="U51" s="6"/>
       <c r="V51" s="11"/>
     </row>
@@ -6040,7 +6010,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="99"/>
+      <c r="T52" s="94"/>
       <c r="U52" s="6"/>
       <c r="V52" s="11"/>
     </row>
@@ -6515,7 +6485,7 @@
       <c r="V76" s="11"/>
     </row>
     <row r="77" spans="2:22" hidden="1" outlineLevel="1">
-      <c r="B77" s="104"/>
+      <c r="B77" s="99"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -7103,7 +7073,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
-      <c r="V104" s="108"/>
+      <c r="V104" s="103"/>
     </row>
     <row r="105" spans="3:22" hidden="1" outlineLevel="1">
       <c r="D105" s="6"/>
@@ -7271,7 +7241,7 @@
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
-      <c r="V112" s="107"/>
+      <c r="V112" s="102"/>
     </row>
     <row r="113" spans="1:22">
       <c r="B113" s="4"/>
@@ -7294,7 +7264,7 @@
       <c r="S113" s="16"/>
       <c r="T113" s="16"/>
       <c r="U113" s="16"/>
-      <c r="V113" s="107"/>
+      <c r="V113" s="102"/>
     </row>
     <row r="114" spans="1:22">
       <c r="B114" s="4"/>
@@ -7341,7 +7311,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="108"/>
+      <c r="V115" s="103"/>
     </row>
     <row r="116" spans="1:22">
       <c r="D116" s="6"/>
@@ -7467,7 +7437,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
-      <c r="V121" s="105"/>
+      <c r="V121" s="100"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="4"/>
@@ -7491,7 +7461,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="106"/>
+      <c r="V122" s="101"/>
     </row>
     <row r="123" spans="1:22">
       <c r="D123" s="6"/>
@@ -7512,7 +7482,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
-      <c r="V123" s="105"/>
+      <c r="V123" s="100"/>
     </row>
     <row r="124" spans="1:22">
       <c r="D124" s="6"/>
@@ -7533,7 +7503,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
-      <c r="V124" s="105"/>
+      <c r="V124" s="100"/>
     </row>
     <row r="125" spans="1:22">
       <c r="B125" s="4"/>
@@ -7556,7 +7526,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="106"/>
+      <c r="V125" s="101"/>
     </row>
     <row r="127" spans="1:22">
       <c r="B127" s="4"/>
@@ -7609,7 +7579,7 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -7722,7 +7692,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -9164,22 +9134,22 @@
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="99"/>
-      <c r="U70" s="99"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="94"/>
+      <c r="U70" s="94"/>
     </row>
     <row r="71" spans="3:26" ht="15">
       <c r="C71" s="17">
@@ -9188,22 +9158,22 @@
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="99"/>
-      <c r="O71" s="99"/>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="99"/>
-      <c r="S71" s="99"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="99"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
     </row>
     <row r="72" spans="3:26" ht="15">
       <c r="C72" s="17">
@@ -9212,22 +9182,22 @@
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="99"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
     </row>
     <row r="73" spans="3:26" ht="15">
       <c r="C73" s="17">
@@ -9236,22 +9206,22 @@
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="99"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="99"/>
-      <c r="U73" s="99"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="94"/>
+      <c r="U73" s="94"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
@@ -9264,22 +9234,22 @@
       </c>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="102"/>
-      <c r="U74" s="102"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="97"/>
+      <c r="P74" s="97"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="97"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="97"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
@@ -9292,22 +9262,22 @@
       </c>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="99"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
+      <c r="U75" s="94"/>
     </row>
     <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C76" s="17">
@@ -9316,22 +9286,22 @@
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="99"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="99"/>
-      <c r="P76" s="99"/>
-      <c r="Q76" s="99"/>
-      <c r="R76" s="99"/>
-      <c r="S76" s="99"/>
-      <c r="T76" s="99"/>
-      <c r="U76" s="99"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
+      <c r="U76" s="94"/>
     </row>
     <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
       <c r="C77" s="17">
@@ -9340,22 +9310,22 @@
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="99"/>
-      <c r="M77" s="99"/>
-      <c r="N77" s="99"/>
-      <c r="O77" s="99"/>
-      <c r="P77" s="99"/>
-      <c r="Q77" s="99"/>
-      <c r="R77" s="99"/>
-      <c r="S77" s="99"/>
-      <c r="T77" s="99"/>
-      <c r="U77" s="99"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="94"/>
+      <c r="M77" s="94"/>
+      <c r="N77" s="94"/>
+      <c r="O77" s="94"/>
+      <c r="P77" s="94"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
+      <c r="T77" s="94"/>
+      <c r="U77" s="94"/>
     </row>
     <row r="78" spans="3:26" ht="15" collapsed="1">
       <c r="C78" s="17">
@@ -9364,22 +9334,22 @@
       </c>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="99"/>
-      <c r="L78" s="99"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="99"/>
-      <c r="O78" s="99"/>
-      <c r="P78" s="99"/>
-      <c r="Q78" s="99"/>
-      <c r="R78" s="99"/>
-      <c r="S78" s="99"/>
-      <c r="T78" s="99"/>
-      <c r="U78" s="99"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="94"/>
+      <c r="K78" s="94"/>
+      <c r="L78" s="94"/>
+      <c r="M78" s="94"/>
+      <c r="N78" s="94"/>
+      <c r="O78" s="94"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="94"/>
+      <c r="U78" s="94"/>
     </row>
     <row r="79" spans="3:26" ht="15.75" customHeight="1">
       <c r="C79" s="17">
@@ -9388,22 +9358,22 @@
       </c>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="103"/>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="103"/>
-      <c r="R79" s="103"/>
-      <c r="S79" s="103"/>
-      <c r="T79" s="103"/>
-      <c r="U79" s="103"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="98"/>
+      <c r="P79" s="98"/>
+      <c r="Q79" s="98"/>
+      <c r="R79" s="98"/>
+      <c r="S79" s="98"/>
+      <c r="T79" s="98"/>
+      <c r="U79" s="98"/>
     </row>
     <row r="80" spans="3:26" ht="15">
       <c r="C80" s="17">
@@ -9412,22 +9382,22 @@
       </c>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="99"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="99"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="99"/>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="99"/>
-      <c r="T80" s="99"/>
-      <c r="U80" s="99"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="94"/>
+      <c r="O80" s="94"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
+      <c r="U80" s="94"/>
     </row>
     <row r="81" spans="3:21" ht="15">
       <c r="C81" s="17">
@@ -9436,22 +9406,22 @@
       </c>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="101"/>
-      <c r="H81" s="101"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="101"/>
-      <c r="L81" s="101"/>
-      <c r="M81" s="101"/>
-      <c r="N81" s="101"/>
-      <c r="O81" s="101"/>
-      <c r="P81" s="101"/>
-      <c r="Q81" s="101"/>
-      <c r="R81" s="101"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="101"/>
-      <c r="U81" s="101"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="96"/>
+      <c r="Q81" s="96"/>
+      <c r="R81" s="96"/>
+      <c r="S81" s="96"/>
+      <c r="T81" s="96"/>
+      <c r="U81" s="96"/>
     </row>
     <row r="82" spans="3:21" ht="15">
       <c r="C82" s="17">
@@ -10309,18 +10279,19 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:O30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2" style="17" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="9" width="13.28515625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="15" width="13.28515625" style="17" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="16" max="16" width="2.7109375" style="58" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="17" max="17" width="15.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="15.42578125" style="17" customWidth="1"/>
+    <col min="7" max="15" width="13.28515625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="55" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="17" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
@@ -10329,7 +10300,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="40" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -10371,7 +10342,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="40" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10404,7 +10375,7 @@
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
-      <c r="P4" s="58"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="42" t="s">
         <v>26</v>
       </c>
@@ -10469,352 +10440,242 @@
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="59"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="46">
-        <v>-1375582</v>
-      </c>
-      <c r="E7" s="46">
-        <v>664497</v>
-      </c>
-      <c r="F7" s="46">
-        <v>-508913</v>
-      </c>
-      <c r="G7" s="46">
-        <v>-63392</v>
-      </c>
-      <c r="H7" s="46">
-        <v>-40088</v>
-      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="Q7" s="46">
-        <v>-1323478</v>
-      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
       <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="29">
-        <v>104167</v>
-      </c>
-      <c r="E9" s="29">
-        <v>104167</v>
-      </c>
-      <c r="F9" s="29">
-        <v>104167</v>
-      </c>
-      <c r="G9" s="29">
-        <v>104167</v>
-      </c>
-      <c r="H9" s="29">
-        <v>104167</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="Q9" s="29">
-        <v>520833</v>
-      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="29">
-        <v>589378</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>246683</v>
-      </c>
-      <c r="H10" s="29">
-        <v>273447</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="Q10" s="29">
-        <v>1109508</v>
-      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="29">
-        <v>20990</v>
-      </c>
-      <c r="E11" s="29">
-        <v>-30688</v>
-      </c>
-      <c r="F11" s="29">
-        <v>7305</v>
-      </c>
-      <c r="G11" s="29">
-        <v>-9094</v>
-      </c>
-      <c r="H11" s="29">
-        <v>8758</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="Q11" s="29">
-        <v>-2728</v>
-      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="Q12" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29">
-        <v>181842</v>
-      </c>
-      <c r="E13" s="29">
-        <v>122755</v>
-      </c>
-      <c r="F13" s="29">
-        <v>38663</v>
-      </c>
-      <c r="G13" s="29">
-        <v>-149873</v>
-      </c>
-      <c r="H13" s="29">
-        <v>167540</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="Q13" s="29">
-        <v>360926</v>
-      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="29">
-        <v>1080</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="Q14" s="29">
-        <v>1080</v>
-      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
       <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="51">
-        <v>-1068584</v>
-      </c>
-      <c r="E19" s="51">
-        <v>1450109</v>
-      </c>
-      <c r="F19" s="51">
-        <v>-357698</v>
-      </c>
-      <c r="G19" s="51">
-        <v>128491</v>
-      </c>
-      <c r="H19" s="51">
-        <v>513824</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="Q19" s="51">
-        <v>666141</v>
-      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17">
       <c r="D20" s="46"/>
@@ -10854,255 +10715,157 @@
       <c r="C22" s="24"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="Q22" s="45"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="24"/>
-      <c r="B23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="53">
-        <v>1510</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="Q23" s="46" t="s">
-        <v>58</v>
-      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="53">
-        <v>1520</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="29">
-        <v>-132300</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="Q24" s="29">
-        <v>-132300</v>
-      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="B25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="53">
-        <v>1538</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="29">
-        <v>-139</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="29">
-        <v>-21374</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="Q25" s="29">
-        <v>-21513</v>
-      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="B26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="53">
-        <v>1539</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="Q26" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="53">
-        <v>1531</v>
-      </c>
-      <c r="D27" s="29">
-        <v>-231</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="Q27" s="29">
-        <v>-231</v>
-      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="B28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="Q28" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17">
+      <c r="C29" s="51"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
       <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="62">
-        <v>-231</v>
-      </c>
-      <c r="E30" s="62">
-        <v>-132439</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62">
-        <v>-21374</v>
-      </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="Q30" s="62">
-        <v>-154044</v>
-      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
       <c r="D31" s="46"/>
@@ -11136,205 +10899,148 @@
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
       <c r="Q33" s="45"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="Q34" s="46"/>
+        <v>42</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="Q35" s="29"/>
+        <v>43</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="Q36" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="D37" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q37" s="49" t="s">
-        <v>51</v>
-      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="Q38" s="51"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q39" s="49" t="s">
-        <v>51</v>
-      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="51">
-        <v>-1068815</v>
-      </c>
-      <c r="E40" s="51">
-        <v>1317670</v>
-      </c>
-      <c r="F40" s="51">
-        <v>-357698</v>
-      </c>
-      <c r="G40" s="51">
-        <v>107117</v>
-      </c>
-      <c r="H40" s="51">
-        <v>513824</v>
-      </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="Q40" s="51">
-        <v>512097</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="1:22">
       <c r="D41" s="46"/>
@@ -11353,122 +11059,74 @@
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="51">
-        <v>7264371</v>
-      </c>
-      <c r="E42" s="51">
-        <v>6195556</v>
-      </c>
-      <c r="F42" s="51">
-        <v>7513119</v>
-      </c>
-      <c r="G42" s="51">
-        <v>7152482</v>
-      </c>
-      <c r="H42" s="51">
-        <v>7259598</v>
-      </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="Q42" s="51">
-        <v>7264371</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="Q42" s="50"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="49" t="s">
-        <v>51</v>
-      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="54">
-        <v>6195556</v>
-      </c>
-      <c r="E44" s="54">
-        <v>7513119</v>
-      </c>
-      <c r="F44" s="54">
-        <v>7152482</v>
-      </c>
-      <c r="G44" s="54">
-        <v>7259598</v>
-      </c>
-      <c r="H44" s="54">
-        <v>7771900</v>
-      </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="Q44" s="54">
-        <v>7771900</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="Q44" s="52"/>
       <c r="R44" s="46"/>
       <c r="V44" s="46"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="Q45" s="56"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="31" customFormat="1">
-      <c r="P46" s="64"/>
+      <c r="P46" s="59"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BA1B2-F5FA-4AA4-A842-CA72263B4EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC02A5-9506-4D38-AD87-78948919BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -4456,7 +4456,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -10279,8 +10279,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:O30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC02A5-9506-4D38-AD87-78948919BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1861A11-8E1B-447B-BA3C-9055C33763ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,22 +394,22 @@
     <t>10.3% / 10.2%</t>
   </si>
   <si>
-    <t>As of July</t>
-  </si>
-  <si>
-    <t>FY2022-2023 Charter FIRST Forecastas of July 31, 2023</t>
+    <t>FY2022-2023 Charter FIRST Forecastas of August 31, 2023</t>
   </si>
   <si>
     <t>ADVANTAGE ACADEMY 
 FY2022-2023 Statement of 
-Activities as of July 31, 2023</t>
+Activities as of August 31, 2023</t>
   </si>
   <si>
     <t>ADVANTAGE ACADEMY
-FY2022-2023 Balance Sheet as of  July 31, 2023</t>
+FY2022-2023 Balance Sheet as of August 31, 2023</t>
   </si>
   <si>
-    <t>for the period ended of July 31, 2023</t>
+    <t>As of August</t>
+  </si>
+  <si>
+    <t>for the period ended o fAugust 31, 2023</t>
   </si>
 </sst>
 </file>
@@ -4456,9 +4456,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -4483,7 +4481,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -4897,7 +4895,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="112"/>
       <c r="D1" s="112"/>
@@ -5636,7 +5634,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" hidden="1" outlineLevel="1">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -5699,7 +5697,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:22" collapsed="1">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -5720,7 +5718,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:22">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5741,7 +5739,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="11"/>
     </row>
-    <row r="40" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:22">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -5762,7 +5760,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="11"/>
     </row>
-    <row r="41" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:22">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -5783,7 +5781,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="11"/>
     </row>
-    <row r="42" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:22">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -5804,7 +5802,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="11"/>
     </row>
-    <row r="43" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:22">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -5825,7 +5823,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="11"/>
     </row>
-    <row r="44" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:22">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5846,7 +5844,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:22">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -5867,7 +5865,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="11"/>
     </row>
-    <row r="46" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:22">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -5888,7 +5886,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="11"/>
     </row>
-    <row r="47" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="47" spans="1:22">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -5909,7 +5907,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="11"/>
     </row>
-    <row r="48" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:22">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -5930,7 +5928,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="49" spans="2:22">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -5951,7 +5949,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="50" spans="2:22">
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5972,7 +5970,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="51" spans="2:22">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5993,7 +5991,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="52" spans="2:22">
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -6014,7 +6012,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="2:22" collapsed="1">
+    <row r="53" spans="2:22">
       <c r="B53" s="4"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -6064,7 +6062,7 @@
     <row r="56" spans="2:22">
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="57" spans="2:22">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -6211,7 +6209,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="64" spans="2:22">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -6232,7 +6230,7 @@
       <c r="U64" s="6"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="65" spans="2:22">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -6253,7 +6251,7 @@
       <c r="U65" s="6"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="66" spans="2:22">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -6274,7 +6272,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="67" spans="2:22">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -6295,7 +6293,7 @@
       <c r="U67" s="6"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="68" spans="2:22">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -6316,7 +6314,7 @@
       <c r="U68" s="6"/>
       <c r="V68" s="11"/>
     </row>
-    <row r="69" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="69" spans="2:22">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -6337,7 +6335,7 @@
       <c r="U69" s="6"/>
       <c r="V69" s="11"/>
     </row>
-    <row r="70" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="70" spans="2:22">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -6358,7 +6356,7 @@
       <c r="U70" s="6"/>
       <c r="V70" s="11"/>
     </row>
-    <row r="71" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="71" spans="2:22">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -6379,7 +6377,7 @@
       <c r="U71" s="6"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="72" spans="2:22">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -6400,7 +6398,7 @@
       <c r="U72" s="6"/>
       <c r="V72" s="11"/>
     </row>
-    <row r="73" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="73" spans="2:22">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -6421,7 +6419,7 @@
       <c r="U73" s="6"/>
       <c r="V73" s="11"/>
     </row>
-    <row r="74" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="74" spans="2:22">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -6442,7 +6440,7 @@
       <c r="U74" s="6"/>
       <c r="V74" s="11"/>
     </row>
-    <row r="75" spans="2:22" collapsed="1">
+    <row r="75" spans="2:22">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -6463,7 +6461,7 @@
       <c r="U75" s="6"/>
       <c r="V75" s="11"/>
     </row>
-    <row r="76" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="76" spans="2:22">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -6484,7 +6482,7 @@
       <c r="U76" s="6"/>
       <c r="V76" s="11"/>
     </row>
-    <row r="77" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="77" spans="2:22">
       <c r="B77" s="99"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -6506,7 +6504,7 @@
       <c r="U77" s="6"/>
       <c r="V77" s="11"/>
     </row>
-    <row r="78" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="78" spans="2:22">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -6527,7 +6525,7 @@
       <c r="U78" s="6"/>
       <c r="V78" s="11"/>
     </row>
-    <row r="79" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="79" spans="2:22">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -6548,7 +6546,7 @@
       <c r="U79" s="6"/>
       <c r="V79" s="11"/>
     </row>
-    <row r="80" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="80" spans="2:22">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -6569,7 +6567,7 @@
       <c r="U80" s="6"/>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="81" spans="3:22">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -6590,7 +6588,7 @@
       <c r="U81" s="6"/>
       <c r="V81" s="11"/>
     </row>
-    <row r="82" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="82" spans="3:22">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -6611,7 +6609,7 @@
       <c r="U82" s="6"/>
       <c r="V82" s="11"/>
     </row>
-    <row r="83" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="83" spans="3:22">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -6632,7 +6630,7 @@
       <c r="U83" s="6"/>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="84" spans="3:22">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -6653,7 +6651,7 @@
       <c r="U84" s="6"/>
       <c r="V84" s="11"/>
     </row>
-    <row r="85" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="85" spans="3:22">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -6674,7 +6672,7 @@
       <c r="U85" s="6"/>
       <c r="V85" s="11"/>
     </row>
-    <row r="86" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="86" spans="3:22">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -6695,7 +6693,7 @@
       <c r="U86" s="6"/>
       <c r="V86" s="11"/>
     </row>
-    <row r="87" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="87" spans="3:22">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -6716,7 +6714,7 @@
       <c r="U87" s="6"/>
       <c r="V87" s="11"/>
     </row>
-    <row r="88" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="88" spans="3:22">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -6737,7 +6735,7 @@
       <c r="U88" s="6"/>
       <c r="V88" s="11"/>
     </row>
-    <row r="89" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="89" spans="3:22">
       <c r="C89" s="4"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6759,7 +6757,7 @@
       <c r="U89" s="6"/>
       <c r="V89" s="11"/>
     </row>
-    <row r="90" spans="3:22" collapsed="1">
+    <row r="90" spans="3:22">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -6780,7 +6778,7 @@
       <c r="U90" s="6"/>
       <c r="V90" s="11"/>
     </row>
-    <row r="91" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="91" spans="3:22">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -6801,7 +6799,7 @@
       <c r="U91" s="6"/>
       <c r="V91" s="11"/>
     </row>
-    <row r="92" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="92" spans="3:22">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -6822,7 +6820,7 @@
       <c r="U92" s="6"/>
       <c r="V92" s="11"/>
     </row>
-    <row r="93" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="93" spans="3:22">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -6843,7 +6841,7 @@
       <c r="U93" s="6"/>
       <c r="V93" s="11"/>
     </row>
-    <row r="94" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="94" spans="3:22">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -6864,7 +6862,7 @@
       <c r="U94" s="6"/>
       <c r="V94" s="11"/>
     </row>
-    <row r="95" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="95" spans="3:22">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -6885,7 +6883,7 @@
       <c r="U95" s="6"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="96" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="96" spans="3:22">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -6906,7 +6904,7 @@
       <c r="U96" s="6"/>
       <c r="V96" s="11"/>
     </row>
-    <row r="97" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="97" spans="3:22">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -6927,7 +6925,7 @@
       <c r="U97" s="6"/>
       <c r="V97" s="11"/>
     </row>
-    <row r="98" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="98" spans="3:22">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -6948,7 +6946,7 @@
       <c r="U98" s="6"/>
       <c r="V98" s="11"/>
     </row>
-    <row r="99" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="99" spans="3:22">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6969,7 +6967,7 @@
       <c r="U99" s="6"/>
       <c r="V99" s="11"/>
     </row>
-    <row r="100" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="100" spans="3:22">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -6990,7 +6988,7 @@
       <c r="U100" s="6"/>
       <c r="V100" s="11"/>
     </row>
-    <row r="101" spans="3:22" collapsed="1">
+    <row r="101" spans="3:22">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -7011,7 +7009,7 @@
       <c r="U101" s="6"/>
       <c r="V101" s="11"/>
     </row>
-    <row r="102" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="102" spans="3:22">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -7032,7 +7030,7 @@
       <c r="U102" s="6"/>
       <c r="V102" s="11"/>
     </row>
-    <row r="103" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="103" spans="3:22">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -7053,7 +7051,7 @@
       <c r="U103" s="6"/>
       <c r="V103" s="11"/>
     </row>
-    <row r="104" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="104" spans="3:22">
       <c r="C104" s="4"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -7075,7 +7073,7 @@
       <c r="U104" s="6"/>
       <c r="V104" s="103"/>
     </row>
-    <row r="105" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="105" spans="3:22">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -7096,7 +7094,7 @@
       <c r="U105" s="6"/>
       <c r="V105" s="11"/>
     </row>
-    <row r="106" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="106" spans="3:22">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -7117,7 +7115,7 @@
       <c r="U106" s="6"/>
       <c r="V106" s="11"/>
     </row>
-    <row r="107" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="107" spans="3:22">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -7138,7 +7136,7 @@
       <c r="U107" s="6"/>
       <c r="V107" s="11"/>
     </row>
-    <row r="108" spans="3:22" collapsed="1">
+    <row r="108" spans="3:22">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -7159,7 +7157,7 @@
       <c r="U108" s="6"/>
       <c r="V108" s="11"/>
     </row>
-    <row r="109" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="109" spans="3:22">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -7180,7 +7178,7 @@
       <c r="U109" s="6"/>
       <c r="V109" s="11"/>
     </row>
-    <row r="110" spans="3:22" hidden="1" outlineLevel="1">
+    <row r="110" spans="3:22">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -7201,7 +7199,7 @@
       <c r="U110" s="6"/>
       <c r="V110" s="11"/>
     </row>
-    <row r="111" spans="3:22" collapsed="1">
+    <row r="111" spans="3:22">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -7579,7 +7577,7 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -7692,7 +7690,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -10279,9 +10277,7 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1861A11-8E1B-447B-BA3C-9055C33763ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01585A6-9B23-4F1E-9850-D600C82C0FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Amended
 Budget</t>
@@ -224,9 +224,6 @@
     <t>Indicators 1-5 Pass/Fail</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   <si>
     <t>#6 - Net assets over 3 years &lt; 25% decrease
         Exception: &gt;75days net assets</t>
-  </si>
-  <si>
-    <t>projected</t>
   </si>
   <si>
     <t>89 pts = B max if fails</t>
@@ -326,9 +320,6 @@
     <t>#15 - Students to Staff Ratio 15% or declines over 3 years</t>
   </si>
   <si>
-    <t>Not measured by DSS</t>
-  </si>
-  <si>
     <t>0  or 10 pts</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
   </si>
   <si>
     <t>#7 - Days Cash on Hand  ($40,806 = 1 day)</t>
-  </si>
-  <si>
-    <t>10.3% / 10.2%</t>
   </si>
   <si>
     <t>FY2022-2023 Charter FIRST Forecastas of August 31, 2023</t>
@@ -4472,7 +4460,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -4481,7 +4469,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -4509,9 +4497,7 @@
       <c r="A4" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="66">
-        <v>-1323478</v>
-      </c>
+      <c r="B4" s="66"/>
       <c r="C4" s="67" t="s">
         <v>56</v>
       </c>
@@ -4522,276 +4508,240 @@
       <c r="A5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B6" s="73"/>
       <c r="C6" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="76">
-        <v>190</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B7" s="76"/>
       <c r="C7" s="73">
         <v>10</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="78">
-        <v>4.6100000000000003</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B8" s="78"/>
       <c r="C8" s="79">
         <v>10</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="66">
-        <v>-802645</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B9" s="66"/>
       <c r="C9" s="79">
         <v>5</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B10" s="73"/>
       <c r="C10" s="79">
         <v>10</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="78">
-        <v>0.64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B11" s="78"/>
       <c r="C11" s="79">
         <v>10</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>59</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B12" s="81"/>
       <c r="C12" s="79">
         <v>10</v>
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="82">
-        <v>0.68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B13" s="82"/>
       <c r="C13" s="79">
         <v>5</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>101</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B14" s="84"/>
       <c r="C14" s="73">
         <v>10</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B15" s="85"/>
       <c r="C15" s="73">
         <v>10</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B16" s="73"/>
       <c r="C16" s="79">
         <v>5</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B17" s="73"/>
       <c r="C17" s="79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B18" s="73"/>
       <c r="C18" s="79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B19" s="73"/>
       <c r="C19" s="79">
         <v>10</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
       <c r="A20" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>62</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B20" s="73"/>
       <c r="C20" s="79">
         <v>5</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>80</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B21" s="85"/>
       <c r="C21" s="79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
       <c r="A22" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="104">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B22" s="104"/>
       <c r="C22" s="105"/>
       <c r="D22" s="106"/>
       <c r="E22" s="108" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
       <c r="A23" s="88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" s="110" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="107"/>
@@ -4812,7 +4762,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="91" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
@@ -4895,7 +4845,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="112" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" s="112"/>
       <c r="D1" s="112"/>
@@ -7577,7 +7527,7 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -7690,7 +7640,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -10338,7 +10288,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01585A6-9B23-4F1E-9850-D600C82C0FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56927982-DF83-422F-A195-57595987C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56927982-DF83-422F-A195-57595987C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAEC69-E4A9-45DA-A3D7-63DFCDC6677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -806,7 +806,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -987,13 +986,11 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4444,358 +4441,360 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="61" customWidth="1"/>
-    <col min="2" max="2" width="14" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="61" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="61" customWidth="1"/>
-    <col min="8" max="8" width="46" style="61" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="61"/>
+    <col min="1" max="1" width="46" style="60" customWidth="1"/>
+    <col min="2" max="2" width="14" style="60" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="60" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="46" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="75" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="73">
+      <c r="B7" s="75"/>
+      <c r="C7" s="72">
         <v>10</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="74" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78">
         <v>10</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="79">
+      <c r="B9" s="65"/>
+      <c r="C9" s="78">
         <v>5</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="74" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="79">
+      <c r="B10" s="72"/>
+      <c r="C10" s="78">
         <v>10</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="75" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78">
         <v>10</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="74" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="79">
+      <c r="B12" s="80"/>
+      <c r="C12" s="78">
         <v>10</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="75" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="74" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="79">
+      <c r="B13" s="81"/>
+      <c r="C13" s="78">
         <v>5</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="74" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="73">
+      <c r="B14" s="83"/>
+      <c r="C14" s="72">
         <v>10</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="85" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="73">
+      <c r="B15" s="84"/>
+      <c r="C15" s="72">
         <v>10</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="79">
+      <c r="B16" s="72"/>
+      <c r="C16" s="78">
         <v>5</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="75" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="74" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="79" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="74" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="79" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="75" t="s">
+      <c r="D18" s="70"/>
+      <c r="E18" s="74" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="79">
+      <c r="B19" s="72"/>
+      <c r="C19" s="78">
         <v>10</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="75" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="74" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="79">
+      <c r="B20" s="72"/>
+      <c r="C20" s="78">
         <v>5</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="75" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="74" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="108" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="107" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="108"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="89"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="91"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="89"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="88"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="89"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="89"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="89"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4821,7 +4820,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4844,31 +4843,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -4927,7 +4926,7 @@
     </row>
     <row r="4" spans="1:24" hidden="1" outlineLevel="1">
       <c r="A4" s="9"/>
-      <c r="V4" s="100"/>
+      <c r="V4" s="98"/>
     </row>
     <row r="5" spans="1:24" hidden="1" outlineLevel="1">
       <c r="A5" s="9"/>
@@ -5185,24 +5184,24 @@
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" hidden="1" outlineLevel="1">
@@ -5584,7 +5583,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:22">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -5605,7 +5604,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:22">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -5622,11 +5621,11 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="94"/>
+      <c r="T36" s="93"/>
       <c r="U36" s="6"/>
       <c r="V36" s="11"/>
     </row>
-    <row r="37" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:22">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -5643,11 +5642,11 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="94"/>
+      <c r="T37" s="93"/>
       <c r="U37" s="6"/>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="1:22" collapsed="1">
+    <row r="38" spans="1:22">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -5664,7 +5663,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="94"/>
+      <c r="T38" s="93"/>
       <c r="U38" s="6"/>
       <c r="V38" s="11"/>
     </row>
@@ -5685,7 +5684,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="94"/>
+      <c r="T39" s="93"/>
       <c r="U39" s="6"/>
       <c r="V39" s="11"/>
     </row>
@@ -5706,7 +5705,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="94"/>
+      <c r="T40" s="93"/>
       <c r="U40" s="6"/>
       <c r="V40" s="11"/>
     </row>
@@ -5727,7 +5726,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="94"/>
+      <c r="T41" s="93"/>
       <c r="U41" s="6"/>
       <c r="V41" s="11"/>
     </row>
@@ -5748,7 +5747,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="94"/>
+      <c r="T42" s="93"/>
       <c r="U42" s="6"/>
       <c r="V42" s="11"/>
     </row>
@@ -5769,7 +5768,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="94"/>
+      <c r="T43" s="93"/>
       <c r="U43" s="6"/>
       <c r="V43" s="11"/>
     </row>
@@ -5790,7 +5789,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="94"/>
+      <c r="T44" s="93"/>
       <c r="U44" s="6"/>
       <c r="V44" s="11"/>
     </row>
@@ -5811,7 +5810,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="94"/>
+      <c r="T45" s="93"/>
       <c r="U45" s="6"/>
       <c r="V45" s="11"/>
     </row>
@@ -5832,7 +5831,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="94"/>
+      <c r="T46" s="93"/>
       <c r="U46" s="6"/>
       <c r="V46" s="11"/>
     </row>
@@ -5853,7 +5852,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="94"/>
+      <c r="T47" s="93"/>
       <c r="U47" s="6"/>
       <c r="V47" s="11"/>
     </row>
@@ -5874,11 +5873,11 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="94"/>
+      <c r="T48" s="93"/>
       <c r="U48" s="6"/>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="2:22">
+    <row r="49" spans="4:22">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -5895,11 +5894,11 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="94"/>
+      <c r="T49" s="93"/>
       <c r="U49" s="6"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="2:22">
+    <row r="50" spans="4:22">
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5916,11 +5915,11 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="94"/>
+      <c r="T50" s="93"/>
       <c r="U50" s="6"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="2:22">
+    <row r="51" spans="4:22">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5937,11 +5936,11 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="94"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="2:22">
+    <row r="52" spans="4:22">
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -5958,37 +5957,35 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="94"/>
+      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="4"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
+    <row r="53" spans="4:22">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="2:22">
+    <row r="54" spans="4:22">
       <c r="V54" s="11"/>
     </row>
-    <row r="55" spans="2:22">
-      <c r="B55" s="4"/>
+    <row r="55" spans="4:22">
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
@@ -6009,10 +6006,10 @@
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
     </row>
-    <row r="56" spans="2:22">
+    <row r="56" spans="4:22">
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="2:22">
+    <row r="57" spans="4:22">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -6033,7 +6030,7 @@
       <c r="U57" s="6"/>
       <c r="V57" s="11"/>
     </row>
-    <row r="58" spans="2:22" hidden="1" outlineLevel="1">
+    <row r="58" spans="4:22">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -6054,7 +6051,7 @@
       <c r="U58" s="6"/>
       <c r="V58" s="11"/>
     </row>
-    <row r="59" spans="2:22" collapsed="1">
+    <row r="59" spans="4:22">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -6075,7 +6072,7 @@
       <c r="U59" s="6"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="2:22">
+    <row r="60" spans="4:22">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -6096,7 +6093,7 @@
       <c r="U60" s="6"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="61" spans="2:22">
+    <row r="61" spans="4:22">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -6117,7 +6114,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="11"/>
     </row>
-    <row r="62" spans="2:22">
+    <row r="62" spans="4:22">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -6138,7 +6135,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="11"/>
     </row>
-    <row r="63" spans="2:22">
+    <row r="63" spans="4:22">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -6159,7 +6156,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="2:22">
+    <row r="64" spans="4:22">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -6180,7 +6177,7 @@
       <c r="U64" s="6"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="4:22">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -6201,7 +6198,7 @@
       <c r="U65" s="6"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="4:22">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -6222,7 +6219,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="4:22">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -6243,7 +6240,7 @@
       <c r="U67" s="6"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="4:22">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -6264,7 +6261,7 @@
       <c r="U68" s="6"/>
       <c r="V68" s="11"/>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="4:22">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -6285,7 +6282,7 @@
       <c r="U69" s="6"/>
       <c r="V69" s="11"/>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="4:22">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -6306,7 +6303,7 @@
       <c r="U70" s="6"/>
       <c r="V70" s="11"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="4:22">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -6327,7 +6324,7 @@
       <c r="U71" s="6"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="4:22">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -6348,7 +6345,7 @@
       <c r="U72" s="6"/>
       <c r="V72" s="11"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="4:22">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -6369,7 +6366,7 @@
       <c r="U73" s="6"/>
       <c r="V73" s="11"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="4:22">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -6390,7 +6387,7 @@
       <c r="U74" s="6"/>
       <c r="V74" s="11"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="4:22">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -6411,7 +6408,7 @@
       <c r="U75" s="6"/>
       <c r="V75" s="11"/>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="4:22">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -6432,8 +6429,7 @@
       <c r="U76" s="6"/>
       <c r="V76" s="11"/>
     </row>
-    <row r="77" spans="2:22">
-      <c r="B77" s="99"/>
+    <row r="77" spans="4:22">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -6454,7 +6450,7 @@
       <c r="U77" s="6"/>
       <c r="V77" s="11"/>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="4:22">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -6475,7 +6471,7 @@
       <c r="U78" s="6"/>
       <c r="V78" s="11"/>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="4:22">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -6496,7 +6492,7 @@
       <c r="U79" s="6"/>
       <c r="V79" s="11"/>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="4:22">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -7021,7 +7017,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
-      <c r="V104" s="103"/>
+      <c r="V104" s="101"/>
     </row>
     <row r="105" spans="3:22">
       <c r="D105" s="6"/>
@@ -7171,70 +7167,70 @@
       <c r="V111" s="11"/>
     </row>
     <row r="112" spans="3:22">
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="102"/>
+      <c r="D112" s="102"/>
+      <c r="E112" s="102"/>
+      <c r="F112" s="102"/>
+      <c r="G112" s="102"/>
+      <c r="H112" s="102"/>
+      <c r="I112" s="102"/>
+      <c r="J112" s="102"/>
+      <c r="K112" s="102"/>
+      <c r="L112" s="102"/>
+      <c r="M112" s="102"/>
+      <c r="N112" s="102"/>
+      <c r="O112" s="102"/>
+      <c r="P112" s="102"/>
+      <c r="Q112" s="102"/>
+      <c r="R112" s="102"/>
+      <c r="S112" s="102"/>
+      <c r="T112" s="102"/>
+      <c r="U112" s="102"/>
+      <c r="V112" s="100"/>
     </row>
     <row r="113" spans="1:22">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="102"/>
+      <c r="G113" s="102"/>
+      <c r="H113" s="102"/>
+      <c r="I113" s="102"/>
+      <c r="J113" s="102"/>
+      <c r="K113" s="102"/>
+      <c r="L113" s="102"/>
+      <c r="M113" s="102"/>
+      <c r="N113" s="102"/>
+      <c r="O113" s="102"/>
+      <c r="P113" s="102"/>
+      <c r="Q113" s="102"/>
+      <c r="R113" s="102"/>
+      <c r="S113" s="102"/>
+      <c r="T113" s="102"/>
+      <c r="U113" s="102"/>
+      <c r="V113" s="100"/>
     </row>
     <row r="114" spans="1:22">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="16"/>
+      <c r="D114" s="102"/>
+      <c r="E114" s="102"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="102"/>
+      <c r="H114" s="102"/>
+      <c r="I114" s="102"/>
+      <c r="J114" s="102"/>
+      <c r="K114" s="102"/>
+      <c r="L114" s="102"/>
+      <c r="M114" s="102"/>
+      <c r="N114" s="102"/>
+      <c r="O114" s="102"/>
+      <c r="P114" s="102"/>
+      <c r="Q114" s="102"/>
+      <c r="R114" s="102"/>
+      <c r="S114" s="102"/>
+      <c r="T114" s="102"/>
+      <c r="U114" s="102"/>
       <c r="V114" s="11"/>
     </row>
     <row r="115" spans="1:22">
@@ -7259,7 +7255,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="103"/>
+      <c r="V115" s="101"/>
     </row>
     <row r="116" spans="1:22">
       <c r="D116" s="6"/>
@@ -7385,7 +7381,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
-      <c r="V121" s="100"/>
+      <c r="V121" s="98"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="4"/>
@@ -7409,7 +7405,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="101"/>
+      <c r="V122" s="99"/>
     </row>
     <row r="123" spans="1:22">
       <c r="D123" s="6"/>
@@ -7430,7 +7426,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
-      <c r="V123" s="100"/>
+      <c r="V123" s="98"/>
     </row>
     <row r="124" spans="1:22">
       <c r="D124" s="6"/>
@@ -7451,7 +7447,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
-      <c r="V124" s="100"/>
+      <c r="V124" s="98"/>
     </row>
     <row r="125" spans="1:22">
       <c r="B125" s="4"/>
@@ -7474,7 +7470,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="101"/>
+      <c r="V125" s="99"/>
     </row>
     <row r="127" spans="1:22">
       <c r="B127" s="4"/>
@@ -7506,155 +7502,155 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="17" customWidth="1"/>
-    <col min="13" max="18" width="11" style="17" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="17" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.5703125" style="17"/>
+    <col min="1" max="1" width="39.7109375" style="16" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
+    <col min="13" max="18" width="11" style="16" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.5703125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="44.25" customHeight="1">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22">
         <v>1</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <f>+M2+1</f>
         <v>2</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <f>+N2+1</f>
         <v>3</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <f>+O2+1</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="22">
         <f>+P2+1</f>
         <v>5</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <f>+Q2+1</f>
         <v>6</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="77.25" customHeight="1" collapsed="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30" t="s">
+      <c r="F4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" s="6"/>
@@ -7713,7 +7709,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="31"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D8"/>
@@ -7734,7 +7730,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="31"/>
+      <c r="V8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D9"/>
@@ -7755,7 +7751,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="31"/>
+      <c r="V9" s="30"/>
     </row>
     <row r="10" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D10"/>
@@ -7776,7 +7772,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="31"/>
+      <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D11"/>
@@ -7797,7 +7793,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="31"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D12"/>
@@ -7818,9 +7814,9 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="31"/>
-    </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+      <c r="V12" s="30"/>
+    </row>
+    <row r="13" spans="1:22" s="23" customFormat="1" ht="15" hidden="1" outlineLevel="1">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="6"/>
@@ -7839,7 +7835,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="31"/>
+      <c r="V13" s="30"/>
     </row>
     <row r="14" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D14"/>
@@ -7860,7 +7856,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="31"/>
+      <c r="V14" s="30"/>
     </row>
     <row r="15" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D15"/>
@@ -7881,7 +7877,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="31"/>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:22" ht="15" collapsed="1">
       <c r="D16"/>
@@ -7902,7 +7898,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="31"/>
+      <c r="V16" s="30"/>
     </row>
     <row r="17" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D17"/>
@@ -7923,7 +7919,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="31"/>
+      <c r="V17" s="30"/>
     </row>
     <row r="18" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D18"/>
@@ -7944,9 +7940,9 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="31"/>
-    </row>
-    <row r="19" spans="1:22" s="24" customFormat="1" ht="15" collapsed="1">
+      <c r="V18" s="30"/>
+    </row>
+    <row r="19" spans="1:22" s="23" customFormat="1" ht="15" collapsed="1">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="6"/>
@@ -7965,7 +7961,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="31"/>
+      <c r="V19" s="30"/>
     </row>
     <row r="20" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D20"/>
@@ -7986,12 +7982,12 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="31"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="6"/>
@@ -8010,7 +8006,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="31"/>
+      <c r="V21" s="30"/>
     </row>
     <row r="22" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D22"/>
@@ -8031,7 +8027,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="31"/>
+      <c r="V22" s="30"/>
     </row>
     <row r="23" spans="1:22" ht="15" collapsed="1">
       <c r="D23"/>
@@ -8052,7 +8048,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="31"/>
+      <c r="V23" s="30"/>
     </row>
     <row r="24" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D24"/>
@@ -8073,7 +8069,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="31"/>
+      <c r="V24" s="30"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D25"/>
@@ -8094,7 +8090,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="31"/>
+      <c r="V25" s="30"/>
     </row>
     <row r="26" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D26"/>
@@ -8115,7 +8111,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="31"/>
+      <c r="V26" s="30"/>
     </row>
     <row r="27" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D27"/>
@@ -8136,7 +8132,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="31"/>
+      <c r="V27" s="30"/>
     </row>
     <row r="28" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D28"/>
@@ -8157,7 +8153,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="31"/>
+      <c r="V28" s="30"/>
     </row>
     <row r="29" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D29"/>
@@ -8178,7 +8174,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="31"/>
+      <c r="V29" s="30"/>
     </row>
     <row r="30" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D30"/>
@@ -8199,7 +8195,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="31"/>
+      <c r="V30" s="30"/>
     </row>
     <row r="31" spans="1:22" ht="15" collapsed="1">
       <c r="D31"/>
@@ -8220,7 +8216,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="31"/>
+      <c r="V31" s="30"/>
     </row>
     <row r="32" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D32"/>
@@ -8241,7 +8237,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="31"/>
+      <c r="V32" s="30"/>
     </row>
     <row r="33" spans="1:22" ht="15" collapsed="1">
       <c r="D33"/>
@@ -8262,7 +8258,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="30"/>
     </row>
     <row r="34" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D34"/>
@@ -8283,7 +8279,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="31"/>
+      <c r="V34" s="30"/>
     </row>
     <row r="35" spans="1:22" ht="15" collapsed="1">
       <c r="D35"/>
@@ -8304,28 +8300,28 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="31"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="31"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="30"/>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="D37"/>
@@ -8346,7 +8342,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="31"/>
+      <c r="V37" s="30"/>
     </row>
     <row r="38" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D38"/>
@@ -8367,7 +8363,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="31"/>
+      <c r="V38" s="30"/>
     </row>
     <row r="39" spans="1:22" ht="15" collapsed="1">
       <c r="D39"/>
@@ -8388,7 +8384,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="31"/>
+      <c r="V39" s="30"/>
     </row>
     <row r="40" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D40"/>
@@ -8409,12 +8405,12 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="31"/>
+      <c r="V40" s="30"/>
     </row>
     <row r="41" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="6"/>
@@ -8433,7 +8429,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="31"/>
+      <c r="V41" s="30"/>
     </row>
     <row r="42" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D42"/>
@@ -8454,7 +8450,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="31"/>
+      <c r="V42" s="30"/>
     </row>
     <row r="43" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D43"/>
@@ -8475,7 +8471,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="31"/>
+      <c r="V43" s="30"/>
     </row>
     <row r="44" spans="1:22" ht="15" collapsed="1">
       <c r="D44"/>
@@ -8580,46 +8576,46 @@
     <row r="49" spans="1:21" ht="15">
       <c r="D49"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
     </row>
     <row r="50" spans="1:21" ht="15">
       <c r="D50"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
     </row>
     <row r="51" spans="1:21" ht="15">
       <c r="A51"/>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <f t="shared" ref="C51:C110" si="0">COUNTIFS(A:A,B51)</f>
         <v>0</v>
       </c>
@@ -8643,7 +8639,7 @@
       <c r="U51" s="6"/>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8668,7 +8664,7 @@
     </row>
     <row r="53" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="A53"/>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8692,7 +8688,7 @@
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8716,7 +8712,7 @@
       <c r="U54" s="6"/>
     </row>
     <row r="55" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8740,7 +8736,7 @@
       <c r="U55" s="6"/>
     </row>
     <row r="56" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8764,7 +8760,7 @@
       <c r="U56" s="6"/>
     </row>
     <row r="57" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8788,7 +8784,7 @@
       <c r="U57" s="6"/>
     </row>
     <row r="58" spans="1:21" ht="15" collapsed="1">
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8812,7 +8808,7 @@
       <c r="U58" s="6"/>
     </row>
     <row r="59" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8836,7 +8832,7 @@
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8860,7 +8856,7 @@
       <c r="U60" s="6"/>
     </row>
     <row r="61" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8884,7 +8880,7 @@
       <c r="U61" s="6"/>
     </row>
     <row r="62" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8908,7 +8904,7 @@
       <c r="U62" s="6"/>
     </row>
     <row r="63" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8932,7 +8928,7 @@
       <c r="U63" s="6"/>
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8956,7 +8952,7 @@
       <c r="U64" s="6"/>
     </row>
     <row r="65" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8980,7 +8976,7 @@
       <c r="U65" s="6"/>
     </row>
     <row r="66" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9004,7 +9000,7 @@
       <c r="U66" s="6"/>
     </row>
     <row r="67" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9028,7 +9024,7 @@
       <c r="U67" s="6"/>
     </row>
     <row r="68" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9052,7 +9048,7 @@
       <c r="U68" s="6"/>
     </row>
     <row r="69" spans="3:26" ht="15" collapsed="1">
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9076,1141 +9072,1141 @@
       <c r="U69" s="6"/>
     </row>
     <row r="70" spans="3:26" ht="15">
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
-      <c r="Q70" s="94"/>
-      <c r="R70" s="94"/>
-      <c r="S70" s="94"/>
-      <c r="T70" s="94"/>
-      <c r="U70" s="94"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93"/>
+      <c r="M70" s="93"/>
+      <c r="N70" s="93"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="93"/>
+      <c r="S70" s="93"/>
+      <c r="T70" s="93"/>
+      <c r="U70" s="93"/>
     </row>
     <row r="71" spans="3:26" ht="15">
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="93"/>
+      <c r="U71" s="93"/>
     </row>
     <row r="72" spans="3:26" ht="15">
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="94"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="93"/>
+      <c r="T72" s="93"/>
+      <c r="U72" s="93"/>
     </row>
     <row r="73" spans="3:26" ht="15">
-      <c r="C73" s="17">
+      <c r="C73" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="94"/>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="94"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="94"/>
-      <c r="T73" s="94"/>
-      <c r="U73" s="94"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="93"/>
+      <c r="S73" s="93"/>
+      <c r="T73" s="93"/>
+      <c r="U73" s="93"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
     </row>
     <row r="74" spans="3:26" ht="15">
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="97"/>
-      <c r="P74" s="97"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="97"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="97"/>
-      <c r="U74" s="97"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
     </row>
     <row r="75" spans="3:26" ht="15">
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="94"/>
-      <c r="T75" s="94"/>
-      <c r="U75" s="94"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="93"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="93"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="93"/>
+      <c r="O75" s="93"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="93"/>
+      <c r="S75" s="93"/>
+      <c r="T75" s="93"/>
+      <c r="U75" s="93"/>
     </row>
     <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-      <c r="O76" s="94"/>
-      <c r="P76" s="94"/>
-      <c r="Q76" s="94"/>
-      <c r="R76" s="94"/>
-      <c r="S76" s="94"/>
-      <c r="T76" s="94"/>
-      <c r="U76" s="94"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="93"/>
+      <c r="U76" s="93"/>
     </row>
     <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="94"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="94"/>
-      <c r="T77" s="94"/>
-      <c r="U77" s="94"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="93"/>
+      <c r="S77" s="93"/>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
     </row>
     <row r="78" spans="3:26" ht="15" collapsed="1">
-      <c r="C78" s="17">
+      <c r="C78" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="94"/>
-      <c r="P78" s="94"/>
-      <c r="Q78" s="94"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="94"/>
-      <c r="T78" s="94"/>
-      <c r="U78" s="94"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93"/>
+      <c r="M78" s="93"/>
+      <c r="N78" s="93"/>
+      <c r="O78" s="93"/>
+      <c r="P78" s="93"/>
+      <c r="Q78" s="93"/>
+      <c r="R78" s="93"/>
+      <c r="S78" s="93"/>
+      <c r="T78" s="93"/>
+      <c r="U78" s="93"/>
     </row>
     <row r="79" spans="3:26" ht="15.75" customHeight="1">
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="98"/>
-      <c r="K79" s="98"/>
-      <c r="L79" s="98"/>
-      <c r="M79" s="98"/>
-      <c r="N79" s="98"/>
-      <c r="O79" s="98"/>
-      <c r="P79" s="98"/>
-      <c r="Q79" s="98"/>
-      <c r="R79" s="98"/>
-      <c r="S79" s="98"/>
-      <c r="T79" s="98"/>
-      <c r="U79" s="98"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="97"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="97"/>
     </row>
     <row r="80" spans="3:26" ht="15">
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="94"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
-      <c r="O80" s="94"/>
-      <c r="P80" s="94"/>
-      <c r="Q80" s="94"/>
-      <c r="R80" s="94"/>
-      <c r="S80" s="94"/>
-      <c r="T80" s="94"/>
-      <c r="U80" s="94"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
+      <c r="O80" s="93"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="93"/>
+      <c r="S80" s="93"/>
+      <c r="T80" s="93"/>
+      <c r="U80" s="93"/>
     </row>
     <row r="81" spans="3:21" ht="15">
-      <c r="C81" s="17">
+      <c r="C81" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="96"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="95"/>
+      <c r="I81" s="95"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="95"/>
+      <c r="L81" s="95"/>
+      <c r="M81" s="95"/>
+      <c r="N81" s="95"/>
+      <c r="O81" s="95"/>
+      <c r="P81" s="95"/>
+      <c r="Q81" s="95"/>
+      <c r="R81" s="95"/>
+      <c r="S81" s="95"/>
+      <c r="T81" s="95"/>
+      <c r="U81" s="95"/>
     </row>
     <row r="82" spans="3:21" ht="15">
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
     </row>
     <row r="83" spans="3:21" ht="15">
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="34"/>
     </row>
     <row r="84" spans="3:21" ht="15">
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="34"/>
     </row>
     <row r="85" spans="3:21" ht="15">
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="34"/>
     </row>
     <row r="86" spans="3:21" ht="15">
-      <c r="C86" s="17">
+      <c r="C86" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="34"/>
     </row>
     <row r="87" spans="3:21" ht="15">
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="34"/>
     </row>
     <row r="88" spans="3:21" ht="15">
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="34"/>
     </row>
     <row r="89" spans="3:21" ht="15">
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="34"/>
     </row>
     <row r="90" spans="3:21" ht="15">
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="34"/>
     </row>
     <row r="91" spans="3:21" ht="15">
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="34"/>
     </row>
     <row r="92" spans="3:21" ht="15">
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="34"/>
     </row>
     <row r="93" spans="3:21" ht="15">
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="34"/>
     </row>
     <row r="94" spans="3:21" ht="15">
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="34"/>
     </row>
     <row r="95" spans="3:21" ht="15">
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="34"/>
     </row>
     <row r="96" spans="3:21" ht="15">
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="34"/>
     </row>
     <row r="97" spans="1:21" ht="15">
-      <c r="C97" s="17">
+      <c r="C97" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="34"/>
     </row>
     <row r="98" spans="1:21" ht="15">
-      <c r="C98" s="17">
+      <c r="C98" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="34"/>
     </row>
     <row r="99" spans="1:21" ht="15">
-      <c r="C99" s="17">
+      <c r="C99" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="34"/>
     </row>
     <row r="100" spans="1:21" ht="15">
-      <c r="C100" s="17">
+      <c r="C100" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="34"/>
     </row>
     <row r="101" spans="1:21" ht="15">
-      <c r="C101" s="17">
+      <c r="C101" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="34"/>
     </row>
     <row r="102" spans="1:21" ht="15">
-      <c r="C102" s="17">
+      <c r="C102" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="34"/>
     </row>
     <row r="103" spans="1:21" ht="15">
-      <c r="C103" s="17">
+      <c r="C103" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="34"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
     </row>
     <row r="104" spans="1:21" ht="15">
-      <c r="C104" s="17">
+      <c r="C104" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="34"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="31"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="34"/>
     </row>
     <row r="105" spans="1:21" ht="15">
-      <c r="C105" s="17">
+      <c r="C105" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32"/>
-      <c r="R105" s="32"/>
-      <c r="S105" s="34"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="35"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="31"/>
+      <c r="R105" s="31"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="34"/>
     </row>
     <row r="106" spans="1:21" ht="15">
-      <c r="C106" s="17">
+      <c r="C106" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="34"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="31"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="31"/>
+      <c r="R106" s="31"/>
+      <c r="S106" s="33"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="34"/>
     </row>
     <row r="107" spans="1:21" ht="15">
-      <c r="C107" s="17">
+      <c r="C107" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="34"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="31"/>
+      <c r="R107" s="31"/>
+      <c r="S107" s="33"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="34"/>
     </row>
     <row r="108" spans="1:21" ht="15">
-      <c r="C108" s="17">
+      <c r="C108" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="34"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31"/>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="31"/>
+      <c r="S108" s="33"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="34"/>
     </row>
     <row r="109" spans="1:21" ht="15">
-      <c r="C109" s="17">
+      <c r="C109" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="34"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
+      <c r="R109" s="31"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="34"/>
+      <c r="U109" s="34"/>
     </row>
     <row r="110" spans="1:21" ht="15">
-      <c r="C110" s="17">
+      <c r="C110" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="34"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="31"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="31"/>
+      <c r="O110" s="31"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="31"/>
+      <c r="R110" s="31"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="34"/>
+      <c r="U110" s="34"/>
     </row>
     <row r="111" spans="1:21" ht="15">
       <c r="A111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
+      <c r="T111" s="34"/>
+      <c r="U111" s="34"/>
     </row>
     <row r="112" spans="1:21" ht="15">
       <c r="D112"/>
       <c r="E112"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="35"/>
+      <c r="T112" s="34"/>
+      <c r="U112" s="34"/>
     </row>
     <row r="113" spans="4:21" ht="15">
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="34"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="35"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="31"/>
+      <c r="O113" s="31"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="31"/>
+      <c r="S113" s="33"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="34"/>
     </row>
     <row r="114" spans="4:21" ht="15">
       <c r="D114" s="4"/>
       <c r="E114"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="34"/>
-      <c r="T114" s="35"/>
-      <c r="U114" s="35"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31"/>
+      <c r="O114" s="31"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="31"/>
+      <c r="R114" s="31"/>
+      <c r="S114" s="33"/>
+      <c r="T114" s="34"/>
+      <c r="U114" s="34"/>
     </row>
     <row r="115" spans="4:21" ht="15">
       <c r="D115" s="4"/>
       <c r="E115"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="31"/>
+      <c r="P115" s="31"/>
+      <c r="Q115" s="31"/>
+      <c r="R115" s="31"/>
+      <c r="S115" s="33"/>
+      <c r="T115" s="34"/>
+      <c r="U115" s="34"/>
     </row>
     <row r="116" spans="4:21">
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="32"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
-      <c r="Q116" s="32"/>
-      <c r="R116" s="32"/>
-      <c r="S116" s="34"/>
-      <c r="T116" s="35"/>
-      <c r="U116" s="35"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="31"/>
+      <c r="O116" s="31"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="31"/>
+      <c r="R116" s="31"/>
+      <c r="S116" s="33"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="34"/>
     </row>
     <row r="117" spans="4:21">
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="31"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="31"/>
+      <c r="R117" s="31"/>
+      <c r="S117" s="33"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
     </row>
     <row r="118" spans="4:21">
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="32"/>
-      <c r="R118" s="32"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="31"/>
+      <c r="O118" s="31"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="31"/>
+      <c r="R118" s="31"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="34"/>
     </row>
     <row r="119" spans="4:21">
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="35"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="34"/>
+      <c r="U119" s="34"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10231,848 +10227,848 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="17" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="17" customWidth="1"/>
-    <col min="7" max="15" width="13.28515625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="55" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10" style="17"/>
+    <col min="1" max="1" width="2" style="16" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="16" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="16" customWidth="1"/>
+    <col min="7" max="15" width="13.28515625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="54" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="20.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
-    </row>
-    <row r="4" spans="1:18" s="42" customFormat="1" ht="15">
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="42" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+    </row>
+    <row r="4" spans="1:18" s="41" customFormat="1" ht="15">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="45"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="Q8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="Q15" s="29"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="Q16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="Q17" s="29"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="1:17" ht="15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="Q19" s="50"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="Q20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="Q21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" spans="1:17" ht="15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="15">
-      <c r="A23" s="24"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
+      <c r="A23" s="23"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="C24" s="51"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="C25" s="51"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="C26" s="51"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="C27" s="51"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="C28" s="51"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="C29" s="51"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="Q29" s="29"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="Q30" s="58"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="Q30" s="57"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="Q31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="Q32" s="46"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="Q32" s="45"/>
     </row>
     <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="Q33" s="45"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="Q37" s="48"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="1:22" ht="15">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="Q38" s="50"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="Q39" s="48"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="Q39" s="47"/>
     </row>
     <row r="40" spans="1:22" ht="15">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="Q40" s="50"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="Q40" s="49"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="Q41" s="46"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="Q41" s="45"/>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="Q42" s="50"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="Q42" s="49"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="Q43" s="48"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="Q43" s="47"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="46"/>
-      <c r="V44" s="46"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="45"/>
+      <c r="V44" s="45"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="Q45" s="53"/>
-    </row>
-    <row r="46" spans="1:22" s="31" customFormat="1">
-      <c r="P46" s="59"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="Q45" s="52"/>
+    </row>
+    <row r="46" spans="1:22" s="30" customFormat="1">
+      <c r="P46" s="58"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAEC69-E4A9-45DA-A3D7-63DFCDC6677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABBC42-C92E-477A-9344-30D5DC99DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -799,13 +799,6 @@
     <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -973,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4441,360 +4431,358 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="60" customWidth="1"/>
-    <col min="2" max="2" width="14" style="60" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="60" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="46" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="60"/>
+    <col min="1" max="1" width="46" style="57" customWidth="1"/>
+    <col min="2" max="2" width="14" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="88" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="46" style="57" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="59" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="74" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="72">
+      <c r="B7" s="72"/>
+      <c r="C7" s="69">
         <v>10</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75">
         <v>10</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="71" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="78">
+      <c r="B9" s="62"/>
+      <c r="C9" s="75">
         <v>5</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="74" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="78">
+      <c r="B10" s="69"/>
+      <c r="C10" s="75">
         <v>10</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="74" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78">
+      <c r="B11" s="74"/>
+      <c r="C11" s="75">
         <v>10</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="74" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="78">
+      <c r="B12" s="77"/>
+      <c r="C12" s="75">
         <v>10</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="74" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="78">
+      <c r="B13" s="78"/>
+      <c r="C13" s="75">
         <v>5</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="74" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="71" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="72">
+      <c r="B14" s="80"/>
+      <c r="C14" s="69">
         <v>10</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="84" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="81" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="72">
+      <c r="B15" s="81"/>
+      <c r="C15" s="69">
         <v>10</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="74" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="78">
+      <c r="B16" s="69"/>
+      <c r="C16" s="75">
         <v>5</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="74" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="71" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="78" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="74" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="74" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="78">
+      <c r="B19" s="69"/>
+      <c r="C19" s="75">
         <v>10</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="74" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="78">
+      <c r="B20" s="69"/>
+      <c r="C20" s="75">
         <v>5</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="74" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="107" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="103" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="104"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="88"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="90"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="88"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="85"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="88"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="88"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="85"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="88"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4819,11 +4807,11 @@
   <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -4843,31 +4831,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -4924,11 +4912,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:24">
       <c r="A4" s="9"/>
-      <c r="V4" s="98"/>
-    </row>
-    <row r="5" spans="1:24" hidden="1" outlineLevel="1">
+      <c r="V4" s="94"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="9"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4949,7 +4937,7 @@
       <c r="T5" s="6"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:24">
       <c r="A6" s="9"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4970,7 +4958,7 @@
       <c r="T6" s="6"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:24">
       <c r="A7" s="9"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4991,7 +4979,7 @@
       <c r="T7" s="6"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:24">
       <c r="A8" s="9"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5012,7 +5000,7 @@
       <c r="T8" s="6"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="9"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5033,7 +5021,7 @@
       <c r="T9" s="6"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:24">
       <c r="A10" s="9"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5054,7 +5042,7 @@
       <c r="T10" s="6"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="9"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5075,7 +5063,7 @@
       <c r="T11" s="6"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="9"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5096,7 +5084,7 @@
       <c r="T12" s="6"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:24">
       <c r="A13" s="9"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5117,7 +5105,7 @@
       <c r="T13" s="6"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="9"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5138,7 +5126,7 @@
       <c r="T14" s="6"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:24">
       <c r="A15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5159,449 +5147,452 @@
       <c r="T15" s="6"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" collapsed="1">
+    <row r="17" spans="1:22">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="9"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="13"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:22">
       <c r="A19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="13"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22" collapsed="1">
+    <row r="20" spans="1:22">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:22">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="9"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:22">
       <c r="A25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:22">
       <c r="A27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:22">
       <c r="A28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:22">
       <c r="A29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:22">
       <c r="A30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:22">
       <c r="A31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
       <c r="V31" s="11"/>
     </row>
-    <row r="32" spans="1:22" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:22">
       <c r="A32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
       <c r="V32" s="11"/>
     </row>
-    <row r="33" spans="1:22" collapsed="1">
+    <row r="33" spans="1:22">
       <c r="A33" s="9"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
       <c r="V33" s="8"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="9"/>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
       <c r="V34" s="8"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
       <c r="V35" s="11"/>
     </row>
     <row r="36" spans="1:22">
@@ -5621,7 +5612,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="93"/>
+      <c r="T36" s="89"/>
       <c r="U36" s="6"/>
       <c r="V36" s="11"/>
     </row>
@@ -5642,7 +5633,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="93"/>
+      <c r="T37" s="89"/>
       <c r="U37" s="6"/>
       <c r="V37" s="11"/>
     </row>
@@ -5663,7 +5654,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="93"/>
+      <c r="T38" s="89"/>
       <c r="U38" s="6"/>
       <c r="V38" s="11"/>
     </row>
@@ -5684,7 +5675,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="93"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="6"/>
       <c r="V39" s="11"/>
     </row>
@@ -5705,7 +5696,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="93"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="6"/>
       <c r="V40" s="11"/>
     </row>
@@ -5726,7 +5717,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="93"/>
+      <c r="T41" s="89"/>
       <c r="U41" s="6"/>
       <c r="V41" s="11"/>
     </row>
@@ -5747,7 +5738,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="93"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="6"/>
       <c r="V42" s="11"/>
     </row>
@@ -5768,7 +5759,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="93"/>
+      <c r="T43" s="89"/>
       <c r="U43" s="6"/>
       <c r="V43" s="11"/>
     </row>
@@ -5789,7 +5780,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="93"/>
+      <c r="T44" s="89"/>
       <c r="U44" s="6"/>
       <c r="V44" s="11"/>
     </row>
@@ -5810,7 +5801,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="93"/>
+      <c r="T45" s="89"/>
       <c r="U45" s="6"/>
       <c r="V45" s="11"/>
     </row>
@@ -5831,7 +5822,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="93"/>
+      <c r="T46" s="89"/>
       <c r="U46" s="6"/>
       <c r="V46" s="11"/>
     </row>
@@ -5852,7 +5843,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="93"/>
+      <c r="T47" s="89"/>
       <c r="U47" s="6"/>
       <c r="V47" s="11"/>
     </row>
@@ -5873,7 +5864,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="93"/>
+      <c r="T48" s="89"/>
       <c r="U48" s="6"/>
       <c r="V48" s="11"/>
     </row>
@@ -5894,7 +5885,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="93"/>
+      <c r="T49" s="89"/>
       <c r="U49" s="6"/>
       <c r="V49" s="11"/>
     </row>
@@ -5915,7 +5906,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="93"/>
+      <c r="T50" s="89"/>
       <c r="U50" s="6"/>
       <c r="V50" s="11"/>
     </row>
@@ -7017,7 +7008,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
-      <c r="V104" s="101"/>
+      <c r="V104" s="97"/>
     </row>
     <row r="105" spans="3:22">
       <c r="D105" s="6"/>
@@ -7167,70 +7158,70 @@
       <c r="V111" s="11"/>
     </row>
     <row r="112" spans="3:22">
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="102"/>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="102"/>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102"/>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
-      <c r="O112" s="102"/>
-      <c r="P112" s="102"/>
-      <c r="Q112" s="102"/>
-      <c r="R112" s="102"/>
-      <c r="S112" s="102"/>
-      <c r="T112" s="102"/>
-      <c r="U112" s="102"/>
-      <c r="V112" s="100"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="98"/>
+      <c r="I112" s="98"/>
+      <c r="J112" s="98"/>
+      <c r="K112" s="98"/>
+      <c r="L112" s="98"/>
+      <c r="M112" s="98"/>
+      <c r="N112" s="98"/>
+      <c r="O112" s="98"/>
+      <c r="P112" s="98"/>
+      <c r="Q112" s="98"/>
+      <c r="R112" s="98"/>
+      <c r="S112" s="98"/>
+      <c r="T112" s="98"/>
+      <c r="U112" s="98"/>
+      <c r="V112" s="96"/>
     </row>
     <row r="113" spans="1:22">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
-      <c r="F113" s="102"/>
-      <c r="G113" s="102"/>
-      <c r="H113" s="102"/>
-      <c r="I113" s="102"/>
-      <c r="J113" s="102"/>
-      <c r="K113" s="102"/>
-      <c r="L113" s="102"/>
-      <c r="M113" s="102"/>
-      <c r="N113" s="102"/>
-      <c r="O113" s="102"/>
-      <c r="P113" s="102"/>
-      <c r="Q113" s="102"/>
-      <c r="R113" s="102"/>
-      <c r="S113" s="102"/>
-      <c r="T113" s="102"/>
-      <c r="U113" s="102"/>
-      <c r="V113" s="100"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="98"/>
+      <c r="I113" s="98"/>
+      <c r="J113" s="98"/>
+      <c r="K113" s="98"/>
+      <c r="L113" s="98"/>
+      <c r="M113" s="98"/>
+      <c r="N113" s="98"/>
+      <c r="O113" s="98"/>
+      <c r="P113" s="98"/>
+      <c r="Q113" s="98"/>
+      <c r="R113" s="98"/>
+      <c r="S113" s="98"/>
+      <c r="T113" s="98"/>
+      <c r="U113" s="98"/>
+      <c r="V113" s="96"/>
     </row>
     <row r="114" spans="1:22">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="102"/>
-      <c r="E114" s="102"/>
-      <c r="F114" s="102"/>
-      <c r="G114" s="102"/>
-      <c r="H114" s="102"/>
-      <c r="I114" s="102"/>
-      <c r="J114" s="102"/>
-      <c r="K114" s="102"/>
-      <c r="L114" s="102"/>
-      <c r="M114" s="102"/>
-      <c r="N114" s="102"/>
-      <c r="O114" s="102"/>
-      <c r="P114" s="102"/>
-      <c r="Q114" s="102"/>
-      <c r="R114" s="102"/>
-      <c r="S114" s="102"/>
-      <c r="T114" s="102"/>
-      <c r="U114" s="102"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="98"/>
+      <c r="I114" s="98"/>
+      <c r="J114" s="98"/>
+      <c r="K114" s="98"/>
+      <c r="L114" s="98"/>
+      <c r="M114" s="98"/>
+      <c r="N114" s="98"/>
+      <c r="O114" s="98"/>
+      <c r="P114" s="98"/>
+      <c r="Q114" s="98"/>
+      <c r="R114" s="98"/>
+      <c r="S114" s="98"/>
+      <c r="T114" s="98"/>
+      <c r="U114" s="98"/>
       <c r="V114" s="11"/>
     </row>
     <row r="115" spans="1:22">
@@ -7255,7 +7246,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="101"/>
+      <c r="V115" s="97"/>
     </row>
     <row r="116" spans="1:22">
       <c r="D116" s="6"/>
@@ -7381,7 +7372,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
-      <c r="V121" s="98"/>
+      <c r="V121" s="94"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="4"/>
@@ -7405,7 +7396,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="99"/>
+      <c r="V122" s="95"/>
     </row>
     <row r="123" spans="1:22">
       <c r="D123" s="6"/>
@@ -7426,7 +7417,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
-      <c r="V123" s="98"/>
+      <c r="V123" s="94"/>
     </row>
     <row r="124" spans="1:22">
       <c r="D124" s="6"/>
@@ -7447,7 +7438,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
-      <c r="V124" s="98"/>
+      <c r="V124" s="94"/>
     </row>
     <row r="125" spans="1:22">
       <c r="B125" s="4"/>
@@ -7470,7 +7461,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="99"/>
+      <c r="V125" s="95"/>
     </row>
     <row r="127" spans="1:22">
       <c r="B127" s="4"/>
@@ -7502,155 +7493,155 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="16" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
-    <col min="13" max="18" width="11" style="16" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.5703125" style="16"/>
+    <col min="1" max="1" width="39.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13" max="18" width="11" style="13" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="13" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.5703125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="44.25" customHeight="1">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19">
         <v>1</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="19">
         <f>+M2+1</f>
         <v>2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="19">
         <f>+N2+1</f>
         <v>3</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="19">
         <f>+O2+1</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="19">
         <f>+P2+1</f>
         <v>5</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="19">
         <f>+Q2+1</f>
         <v>6</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="16" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="77.25" customHeight="1" collapsed="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29" t="s">
+      <c r="F4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="20"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" s="6"/>
@@ -7709,7 +7700,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="30"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D8"/>
@@ -7730,7 +7721,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="30"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D9"/>
@@ -7751,7 +7742,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="30"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D10"/>
@@ -7772,7 +7763,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="30"/>
+      <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D11"/>
@@ -7793,7 +7784,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="30"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D12"/>
@@ -7814,9 +7805,9 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="30"/>
-    </row>
-    <row r="13" spans="1:22" s="23" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" spans="1:22" s="20" customFormat="1" ht="15" hidden="1" outlineLevel="1">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="6"/>
@@ -7835,7 +7826,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="30"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D14"/>
@@ -7856,7 +7847,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="30"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D15"/>
@@ -7877,7 +7868,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="30"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" ht="15" collapsed="1">
       <c r="D16"/>
@@ -7898,7 +7889,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D17"/>
@@ -7919,7 +7910,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="30"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D18"/>
@@ -7940,9 +7931,9 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="30"/>
-    </row>
-    <row r="19" spans="1:22" s="23" customFormat="1" ht="15" collapsed="1">
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:22" s="20" customFormat="1" ht="15" collapsed="1">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="6"/>
@@ -7961,7 +7952,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="30"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D20"/>
@@ -7982,12 +7973,12 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="30"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="6"/>
@@ -8006,7 +7997,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="30"/>
+      <c r="V21" s="27"/>
     </row>
     <row r="22" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D22"/>
@@ -8027,7 +8018,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="30"/>
+      <c r="V22" s="27"/>
     </row>
     <row r="23" spans="1:22" ht="15" collapsed="1">
       <c r="D23"/>
@@ -8048,7 +8039,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="30"/>
+      <c r="V23" s="27"/>
     </row>
     <row r="24" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D24"/>
@@ -8069,7 +8060,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="30"/>
+      <c r="V24" s="27"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D25"/>
@@ -8090,7 +8081,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="30"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D26"/>
@@ -8111,7 +8102,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="30"/>
+      <c r="V26" s="27"/>
     </row>
     <row r="27" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D27"/>
@@ -8132,7 +8123,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="30"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="28" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D28"/>
@@ -8153,7 +8144,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="30"/>
+      <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D29"/>
@@ -8174,7 +8165,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="30"/>
+      <c r="V29" s="27"/>
     </row>
     <row r="30" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D30"/>
@@ -8195,7 +8186,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="30"/>
+      <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" ht="15" collapsed="1">
       <c r="D31"/>
@@ -8216,7 +8207,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="30"/>
+      <c r="V31" s="27"/>
     </row>
     <row r="32" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D32"/>
@@ -8237,7 +8228,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="30"/>
+      <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="15" collapsed="1">
       <c r="D33"/>
@@ -8258,7 +8249,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="30"/>
+      <c r="V33" s="27"/>
     </row>
     <row r="34" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D34"/>
@@ -8279,7 +8270,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="30"/>
+      <c r="V34" s="27"/>
     </row>
     <row r="35" spans="1:22" ht="15" collapsed="1">
       <c r="D35"/>
@@ -8300,28 +8291,28 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="30"/>
+      <c r="V35" s="27"/>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="30"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="D37"/>
@@ -8342,7 +8333,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="30"/>
+      <c r="V37" s="27"/>
     </row>
     <row r="38" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D38"/>
@@ -8363,7 +8354,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="30"/>
+      <c r="V38" s="27"/>
     </row>
     <row r="39" spans="1:22" ht="15" collapsed="1">
       <c r="D39"/>
@@ -8384,7 +8375,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="30"/>
+      <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D40"/>
@@ -8405,12 +8396,12 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="30"/>
+      <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:22" ht="15" hidden="1" outlineLevel="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="6"/>
@@ -8429,7 +8420,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="30"/>
+      <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D42"/>
@@ -8450,7 +8441,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="30"/>
+      <c r="V42" s="27"/>
     </row>
     <row r="43" spans="1:22" ht="15" hidden="1" outlineLevel="1">
       <c r="D43"/>
@@ -8471,7 +8462,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="30"/>
+      <c r="V43" s="27"/>
     </row>
     <row r="44" spans="1:22" ht="15" collapsed="1">
       <c r="D44"/>
@@ -8576,46 +8567,46 @@
     <row r="49" spans="1:21" ht="15">
       <c r="D49"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
     </row>
     <row r="50" spans="1:21" ht="15">
       <c r="D50"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
     </row>
     <row r="51" spans="1:21" ht="15">
       <c r="A51"/>
-      <c r="C51" s="16">
+      <c r="C51" s="13">
         <f t="shared" ref="C51:C110" si="0">COUNTIFS(A:A,B51)</f>
         <v>0</v>
       </c>
@@ -8639,7 +8630,7 @@
       <c r="U51" s="6"/>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8664,7 +8655,7 @@
     </row>
     <row r="53" spans="1:21" ht="15" hidden="1" outlineLevel="1">
       <c r="A53"/>
-      <c r="C53" s="16">
+      <c r="C53" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8688,7 +8679,7 @@
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C54" s="16">
+      <c r="C54" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8712,7 +8703,7 @@
       <c r="U54" s="6"/>
     </row>
     <row r="55" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C55" s="16">
+      <c r="C55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8736,7 +8727,7 @@
       <c r="U55" s="6"/>
     </row>
     <row r="56" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C56" s="16">
+      <c r="C56" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8760,7 +8751,7 @@
       <c r="U56" s="6"/>
     </row>
     <row r="57" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C57" s="16">
+      <c r="C57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8784,7 +8775,7 @@
       <c r="U57" s="6"/>
     </row>
     <row r="58" spans="1:21" ht="15" collapsed="1">
-      <c r="C58" s="16">
+      <c r="C58" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8808,7 +8799,7 @@
       <c r="U58" s="6"/>
     </row>
     <row r="59" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C59" s="16">
+      <c r="C59" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8832,7 +8823,7 @@
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C60" s="16">
+      <c r="C60" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8856,7 +8847,7 @@
       <c r="U60" s="6"/>
     </row>
     <row r="61" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C61" s="16">
+      <c r="C61" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8880,7 +8871,7 @@
       <c r="U61" s="6"/>
     </row>
     <row r="62" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C62" s="16">
+      <c r="C62" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8904,7 +8895,7 @@
       <c r="U62" s="6"/>
     </row>
     <row r="63" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C63" s="16">
+      <c r="C63" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8928,7 +8919,7 @@
       <c r="U63" s="6"/>
     </row>
     <row r="64" spans="1:21" ht="15" hidden="1" outlineLevel="1">
-      <c r="C64" s="16">
+      <c r="C64" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8952,7 +8943,7 @@
       <c r="U64" s="6"/>
     </row>
     <row r="65" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C65" s="16">
+      <c r="C65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8976,7 +8967,7 @@
       <c r="U65" s="6"/>
     </row>
     <row r="66" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C66" s="16">
+      <c r="C66" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9000,7 +8991,7 @@
       <c r="U66" s="6"/>
     </row>
     <row r="67" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C67" s="16">
+      <c r="C67" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9024,7 +9015,7 @@
       <c r="U67" s="6"/>
     </row>
     <row r="68" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C68" s="16">
+      <c r="C68" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9048,7 +9039,7 @@
       <c r="U68" s="6"/>
     </row>
     <row r="69" spans="3:26" ht="15" collapsed="1">
-      <c r="C69" s="16">
+      <c r="C69" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9072,1141 +9063,1141 @@
       <c r="U69" s="6"/>
     </row>
     <row r="70" spans="3:26" ht="15">
-      <c r="C70" s="16">
+      <c r="C70" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="93"/>
-      <c r="K70" s="93"/>
-      <c r="L70" s="93"/>
-      <c r="M70" s="93"/>
-      <c r="N70" s="93"/>
-      <c r="O70" s="93"/>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="93"/>
-      <c r="S70" s="93"/>
-      <c r="T70" s="93"/>
-      <c r="U70" s="93"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
     </row>
     <row r="71" spans="3:26" ht="15">
-      <c r="C71" s="16">
+      <c r="C71" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="93"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="93"/>
-      <c r="S71" s="93"/>
-      <c r="T71" s="93"/>
-      <c r="U71" s="93"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="89"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="89"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="89"/>
     </row>
     <row r="72" spans="3:26" ht="15">
-      <c r="C72" s="16">
+      <c r="C72" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="93"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="93"/>
-      <c r="S72" s="93"/>
-      <c r="T72" s="93"/>
-      <c r="U72" s="93"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="89"/>
+      <c r="S72" s="89"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="89"/>
     </row>
     <row r="73" spans="3:26" ht="15">
-      <c r="C73" s="16">
+      <c r="C73" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="93"/>
-      <c r="S73" s="93"/>
-      <c r="T73" s="93"/>
-      <c r="U73" s="93"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="89"/>
+      <c r="R73" s="89"/>
+      <c r="S73" s="89"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="89"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
     </row>
     <row r="74" spans="3:26" ht="15">
-      <c r="C74" s="16">
+      <c r="C74" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="96"/>
-      <c r="U74" s="96"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
+      <c r="P74" s="92"/>
+      <c r="Q74" s="92"/>
+      <c r="R74" s="92"/>
+      <c r="S74" s="92"/>
+      <c r="T74" s="92"/>
+      <c r="U74" s="92"/>
+      <c r="W74" s="31"/>
+      <c r="X74" s="31"/>
+      <c r="Y74" s="31"/>
+      <c r="Z74" s="31"/>
     </row>
     <row r="75" spans="3:26" ht="15">
-      <c r="C75" s="16">
+      <c r="C75" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="93"/>
-      <c r="K75" s="93"/>
-      <c r="L75" s="93"/>
-      <c r="M75" s="93"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="93"/>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="93"/>
-      <c r="R75" s="93"/>
-      <c r="S75" s="93"/>
-      <c r="T75" s="93"/>
-      <c r="U75" s="93"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="89"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="89"/>
     </row>
     <row r="76" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C76" s="16">
+      <c r="C76" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="93"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="93"/>
-      <c r="S76" s="93"/>
-      <c r="T76" s="93"/>
-      <c r="U76" s="93"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="89"/>
+      <c r="M76" s="89"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="89"/>
+      <c r="P76" s="89"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="89"/>
+      <c r="S76" s="89"/>
+      <c r="T76" s="89"/>
+      <c r="U76" s="89"/>
     </row>
     <row r="77" spans="3:26" ht="15" hidden="1" outlineLevel="1">
-      <c r="C77" s="16">
+      <c r="C77" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="93"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="93"/>
-      <c r="S77" s="93"/>
-      <c r="T77" s="93"/>
-      <c r="U77" s="93"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
+      <c r="P77" s="89"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="89"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
     </row>
     <row r="78" spans="3:26" ht="15" collapsed="1">
-      <c r="C78" s="16">
+      <c r="C78" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="93"/>
-      <c r="S78" s="93"/>
-      <c r="T78" s="93"/>
-      <c r="U78" s="93"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="89"/>
     </row>
     <row r="79" spans="3:26" ht="15.75" customHeight="1">
-      <c r="C79" s="16">
+      <c r="C79" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="97"/>
-      <c r="O79" s="97"/>
-      <c r="P79" s="97"/>
-      <c r="Q79" s="97"/>
-      <c r="R79" s="97"/>
-      <c r="S79" s="97"/>
-      <c r="T79" s="97"/>
-      <c r="U79" s="97"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="93"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="93"/>
+      <c r="M79" s="93"/>
+      <c r="N79" s="93"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="93"/>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="93"/>
+      <c r="S79" s="93"/>
+      <c r="T79" s="93"/>
+      <c r="U79" s="93"/>
     </row>
     <row r="80" spans="3:26" ht="15">
-      <c r="C80" s="16">
+      <c r="C80" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="93"/>
-      <c r="L80" s="93"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93"/>
-      <c r="O80" s="93"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
-      <c r="R80" s="93"/>
-      <c r="S80" s="93"/>
-      <c r="T80" s="93"/>
-      <c r="U80" s="93"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="89"/>
+      <c r="S80" s="89"/>
+      <c r="T80" s="89"/>
+      <c r="U80" s="89"/>
     </row>
     <row r="81" spans="3:21" ht="15">
-      <c r="C81" s="16">
+      <c r="C81" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="95"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="95"/>
-      <c r="P81" s="95"/>
-      <c r="Q81" s="95"/>
-      <c r="R81" s="95"/>
-      <c r="S81" s="95"/>
-      <c r="T81" s="95"/>
-      <c r="U81" s="95"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="91"/>
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91"/>
     </row>
     <row r="82" spans="3:21" ht="15">
-      <c r="C82" s="16">
+      <c r="C82" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
     </row>
     <row r="83" spans="3:21" ht="15">
-      <c r="C83" s="16">
+      <c r="C83" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="34"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="31"/>
     </row>
     <row r="84" spans="3:21" ht="15">
-      <c r="C84" s="16">
+      <c r="C84" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="34"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="31"/>
     </row>
     <row r="85" spans="3:21" ht="15">
-      <c r="C85" s="16">
+      <c r="C85" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="34"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="31"/>
     </row>
     <row r="86" spans="3:21" ht="15">
-      <c r="C86" s="16">
+      <c r="C86" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="34"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="31"/>
     </row>
     <row r="87" spans="3:21" ht="15">
-      <c r="C87" s="16">
+      <c r="C87" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="34"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="31"/>
     </row>
     <row r="88" spans="3:21" ht="15">
-      <c r="C88" s="16">
+      <c r="C88" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="34"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="31"/>
     </row>
     <row r="89" spans="3:21" ht="15">
-      <c r="C89" s="16">
+      <c r="C89" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="34"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="32"/>
+      <c r="U89" s="31"/>
     </row>
     <row r="90" spans="3:21" ht="15">
-      <c r="C90" s="16">
+      <c r="C90" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="34"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="31"/>
     </row>
     <row r="91" spans="3:21" ht="15">
-      <c r="C91" s="16">
+      <c r="C91" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="34"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="31"/>
     </row>
     <row r="92" spans="3:21" ht="15">
-      <c r="C92" s="16">
+      <c r="C92" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="34"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="31"/>
     </row>
     <row r="93" spans="3:21" ht="15">
-      <c r="C93" s="16">
+      <c r="C93" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="34"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="32"/>
+      <c r="U93" s="31"/>
     </row>
     <row r="94" spans="3:21" ht="15">
-      <c r="C94" s="16">
+      <c r="C94" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="34"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="32"/>
+      <c r="U94" s="31"/>
     </row>
     <row r="95" spans="3:21" ht="15">
-      <c r="C95" s="16">
+      <c r="C95" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="34"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="31"/>
     </row>
     <row r="96" spans="3:21" ht="15">
-      <c r="C96" s="16">
+      <c r="C96" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="34"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="32"/>
+      <c r="U96" s="31"/>
     </row>
     <row r="97" spans="1:21" ht="15">
-      <c r="C97" s="16">
+      <c r="C97" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="34"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="31"/>
     </row>
     <row r="98" spans="1:21" ht="15">
-      <c r="C98" s="16">
+      <c r="C98" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="34"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="31"/>
     </row>
     <row r="99" spans="1:21" ht="15">
-      <c r="C99" s="16">
+      <c r="C99" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="34"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="32"/>
+      <c r="U99" s="31"/>
     </row>
     <row r="100" spans="1:21" ht="15">
-      <c r="C100" s="16">
+      <c r="C100" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="34"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="32"/>
+      <c r="U100" s="31"/>
     </row>
     <row r="101" spans="1:21" ht="15">
-      <c r="C101" s="16">
+      <c r="C101" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="34"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="31"/>
     </row>
     <row r="102" spans="1:21" ht="15">
-      <c r="C102" s="16">
+      <c r="C102" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="34"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="31"/>
     </row>
     <row r="103" spans="1:21" ht="15">
-      <c r="C103" s="16">
+      <c r="C103" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="33"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="28"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
     </row>
     <row r="104" spans="1:21" ht="15">
-      <c r="C104" s="16">
+      <c r="C104" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="33"/>
-      <c r="T104" s="34"/>
-      <c r="U104" s="34"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="28"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="31"/>
     </row>
     <row r="105" spans="1:21" ht="15">
-      <c r="C105" s="16">
+      <c r="C105" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="31"/>
-      <c r="R105" s="31"/>
-      <c r="S105" s="33"/>
-      <c r="T105" s="34"/>
-      <c r="U105" s="34"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="28"/>
+      <c r="R105" s="28"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="31"/>
+      <c r="U105" s="31"/>
     </row>
     <row r="106" spans="1:21" ht="15">
-      <c r="C106" s="16">
+      <c r="C106" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="31"/>
-      <c r="R106" s="31"/>
-      <c r="S106" s="33"/>
-      <c r="T106" s="34"/>
-      <c r="U106" s="34"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="28"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="31"/>
+      <c r="U106" s="31"/>
     </row>
     <row r="107" spans="1:21" ht="15">
-      <c r="C107" s="16">
+      <c r="C107" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="31"/>
-      <c r="R107" s="31"/>
-      <c r="S107" s="33"/>
-      <c r="T107" s="34"/>
-      <c r="U107" s="34"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="31"/>
+      <c r="U107" s="31"/>
     </row>
     <row r="108" spans="1:21" ht="15">
-      <c r="C108" s="16">
+      <c r="C108" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="34"/>
-      <c r="U108" s="34"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
     </row>
     <row r="109" spans="1:21" ht="15">
-      <c r="C109" s="16">
+      <c r="C109" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="31"/>
-      <c r="S109" s="33"/>
-      <c r="T109" s="34"/>
-      <c r="U109" s="34"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28"/>
+      <c r="O109" s="28"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="28"/>
+      <c r="R109" s="28"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
     </row>
     <row r="110" spans="1:21" ht="15">
-      <c r="C110" s="16">
+      <c r="C110" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="31"/>
-      <c r="R110" s="31"/>
-      <c r="S110" s="33"/>
-      <c r="T110" s="34"/>
-      <c r="U110" s="34"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+      <c r="R110" s="28"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="31"/>
+      <c r="U110" s="31"/>
     </row>
     <row r="111" spans="1:21" ht="15">
       <c r="A111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="T111" s="34"/>
-      <c r="U111" s="34"/>
+      <c r="T111" s="31"/>
+      <c r="U111" s="31"/>
     </row>
     <row r="112" spans="1:21" ht="15">
       <c r="D112"/>
       <c r="E112"/>
-      <c r="T112" s="34"/>
-      <c r="U112" s="34"/>
+      <c r="T112" s="31"/>
+      <c r="U112" s="31"/>
     </row>
     <row r="113" spans="4:21" ht="15">
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="31"/>
-      <c r="S113" s="33"/>
-      <c r="T113" s="34"/>
-      <c r="U113" s="34"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28"/>
+      <c r="O113" s="28"/>
+      <c r="P113" s="28"/>
+      <c r="Q113" s="28"/>
+      <c r="R113" s="28"/>
+      <c r="S113" s="30"/>
+      <c r="T113" s="31"/>
+      <c r="U113" s="31"/>
     </row>
     <row r="114" spans="4:21" ht="15">
       <c r="D114" s="4"/>
       <c r="E114"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="31"/>
-      <c r="R114" s="31"/>
-      <c r="S114" s="33"/>
-      <c r="T114" s="34"/>
-      <c r="U114" s="34"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
+      <c r="O114" s="28"/>
+      <c r="P114" s="28"/>
+      <c r="Q114" s="28"/>
+      <c r="R114" s="28"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="31"/>
+      <c r="U114" s="31"/>
     </row>
     <row r="115" spans="4:21" ht="15">
       <c r="D115" s="4"/>
       <c r="E115"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
-      <c r="P115" s="31"/>
-      <c r="Q115" s="31"/>
-      <c r="R115" s="31"/>
-      <c r="S115" s="33"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
+      <c r="O115" s="28"/>
+      <c r="P115" s="28"/>
+      <c r="Q115" s="28"/>
+      <c r="R115" s="28"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="31"/>
+      <c r="U115" s="31"/>
     </row>
     <row r="116" spans="4:21">
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="31"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
-      <c r="P116" s="31"/>
-      <c r="Q116" s="31"/>
-      <c r="R116" s="31"/>
-      <c r="S116" s="33"/>
-      <c r="T116" s="34"/>
-      <c r="U116" s="34"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="28"/>
+      <c r="P116" s="28"/>
+      <c r="Q116" s="28"/>
+      <c r="R116" s="28"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="31"/>
+      <c r="U116" s="31"/>
     </row>
     <row r="117" spans="4:21">
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="31"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="31"/>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="31"/>
-      <c r="R117" s="31"/>
-      <c r="S117" s="33"/>
-      <c r="T117" s="34"/>
-      <c r="U117" s="34"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="28"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="28"/>
+      <c r="R117" s="28"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="31"/>
+      <c r="U117" s="31"/>
     </row>
     <row r="118" spans="4:21">
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="31"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="31"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="31"/>
-      <c r="R118" s="31"/>
-      <c r="S118" s="33"/>
-      <c r="T118" s="34"/>
-      <c r="U118" s="34"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+      <c r="R118" s="28"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="31"/>
+      <c r="U118" s="31"/>
     </row>
     <row r="119" spans="4:21">
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="31"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="31"/>
-      <c r="P119" s="31"/>
-      <c r="Q119" s="31"/>
-      <c r="R119" s="31"/>
-      <c r="S119" s="33"/>
-      <c r="T119" s="34"/>
-      <c r="U119" s="34"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="28"/>
+      <c r="N119" s="28"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="28"/>
+      <c r="R119" s="28"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="31"/>
+      <c r="U119" s="31"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10227,848 +10218,848 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="16" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="16" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" style="16" customWidth="1"/>
-    <col min="7" max="15" width="13.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="54" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10" style="16"/>
+    <col min="1" max="1" width="2" style="13" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="13" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="13" customWidth="1"/>
+    <col min="7" max="15" width="13.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="51" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="20.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-    </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="15">
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="41" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" s="38" customFormat="1" ht="15">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="43"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="44"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="Q7" s="45"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="Q8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="Q15" s="28"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="Q16" s="28"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="Q17" s="28"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="Q18" s="46"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="15">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="Q19" s="49"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="Q20" s="45"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="Q21" s="45"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17" ht="15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="15">
-      <c r="A23" s="23"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="A23" s="20"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="C24" s="50"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="C25" s="50"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="C26" s="50"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="C27" s="50"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="C28" s="50"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="C29" s="50"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="Q29" s="28"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="Q30" s="57"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="Q30" s="54"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="Q31" s="45"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="Q32" s="45"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="Q32" s="42"/>
     </row>
     <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="Q33" s="44"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="Q37" s="47"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:22" ht="15">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="Q38" s="46"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="Q39" s="47"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="Q39" s="44"/>
     </row>
     <row r="40" spans="1:22" ht="15">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="Q40" s="49"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="Q40" s="46"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="Q41" s="45"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="Q41" s="42"/>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="Q42" s="46"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="Q43" s="47"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="Q43" s="44"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="45"/>
-      <c r="V44" s="45"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="42"/>
+      <c r="V44" s="42"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="Q45" s="52"/>
-    </row>
-    <row r="46" spans="1:22" s="30" customFormat="1">
-      <c r="P46" s="58"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="Q45" s="49"/>
+    </row>
+    <row r="46" spans="1:22" s="27" customFormat="1">
+      <c r="P46" s="55"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABBC42-C92E-477A-9344-30D5DC99DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF50F6-FC30-4FFC-9D20-083F6AC1DF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Amended
 Budget</t>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">            </t>
-  </si>
-  <si>
-    <t>ADVANTAGE ACADAMEY</t>
   </si>
   <si>
     <t>#7 - Days Cash on Hand  ($40,806 = 1 day)</t>
@@ -4446,9 +4443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="56" t="s">
-        <v>96</v>
-      </c>
+      <c r="A1" s="56"/>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
       <c r="D1" s="56"/>
@@ -4456,7 +4451,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -4519,7 +4514,7 @@
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="69">
@@ -4808,7 +4803,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4832,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -7514,7 +7509,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -7627,7 +7622,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -10275,7 +10270,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF50F6-FC30-4FFC-9D20-083F6AC1DF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC4B77-45A3-432C-8061-7A911EA2B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,3124 +1038,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6542D69F-0640-4351-A0EA-F8C477066F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9E2B13-A3E6-A61A-5CF3-270379FF4A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4959350" y="8851900"/>
-          <a:ext cx="182618" cy="173152"/>
+          <a:off x="11115675" y="3724275"/>
+          <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A56217D-3DBB-49F7-BD35-5350E96AE63B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="3279775"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>290627</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346DD78D-6C32-4BB2-A90B-F91E64822E81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="4127500"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE22B312-69EC-488F-A744-D25DFA383C34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="5422900"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287D5D03-C29C-4757-A759-90DCFA090A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="6280150"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB689C8-4B27-4968-B14D-1F7501ACFABC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="6708775"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352A7C5E-1F6A-4521-9F0A-E71CA94431CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="7137400"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0AA854-AF1B-4628-B2D8-4F415DA031A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="7566025"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3326BE81-B926-477E-BDFE-78A21C78E5DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="7994650"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46608A0-F974-4EA3-9E91-3E9729BFC223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="8423275"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>349250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90602</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0D50B-5679-487C-A925-8157899260C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="9502775"/>
-          <a:ext cx="182618" cy="169977"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Oval 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B42B5F6-A927-4149-A879-9A040A10B59D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="4994275"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>515993</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>296977</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Oval 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D01387-6209-4229-8D55-B450AA1BDD47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4962525" y="4562475"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Oval 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13C0954-D9B6-4E30-BE7D-4CBADF564977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5038724" y="3733800"/>
-          <a:ext cx="161925" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>Y</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>408043</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>325552</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81BFB65-6614-42D3-9A92-429CF7E51824}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4854575" y="3733800"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF80713-2738-4484-8640-8B71530CB37A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="2851150"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Oval 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BDF9FC-A1A9-42B2-8AC2-9B0F4D8FCDC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="1851025"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Oval 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF230836-790E-485D-A141-07A1D57D6DDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="2422525"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>300152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Oval 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E697D3-D564-4A44-8DFC-4DDE7012B2F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4959350" y="5851525"/>
-          <a:ext cx="182618" cy="173152"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009900"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45720" rIns="45720" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="50000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:cs typeface="Arial" charset="0"/>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4428,7 +1365,9 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC4B77-45A3-432C-8061-7A911EA2B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BAD65-06AB-4514-AE0A-E06F316981D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -974,9 +974,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,9 +1362,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -1650,10 +1645,10 @@
       <c r="A22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="103" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="100" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1661,12 +1656,12 @@
       <c r="A23" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="104"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="101"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="85"/>
@@ -1738,10 +1733,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X128"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1765,31 +1760,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="3" t="s">
@@ -3942,7 +3937,7 @@
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
-      <c r="V104" s="97"/>
+      <c r="V104" s="11"/>
     </row>
     <row r="105" spans="3:22">
       <c r="D105" s="6"/>
@@ -4092,70 +4087,70 @@
       <c r="V111" s="11"/>
     </row>
     <row r="112" spans="3:22">
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="98"/>
-      <c r="G112" s="98"/>
-      <c r="H112" s="98"/>
-      <c r="I112" s="98"/>
-      <c r="J112" s="98"/>
-      <c r="K112" s="98"/>
-      <c r="L112" s="98"/>
-      <c r="M112" s="98"/>
-      <c r="N112" s="98"/>
-      <c r="O112" s="98"/>
-      <c r="P112" s="98"/>
-      <c r="Q112" s="98"/>
-      <c r="R112" s="98"/>
-      <c r="S112" s="98"/>
-      <c r="T112" s="98"/>
-      <c r="U112" s="98"/>
-      <c r="V112" s="96"/>
+      <c r="D112" s="95"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="95"/>
+      <c r="H112" s="95"/>
+      <c r="I112" s="95"/>
+      <c r="J112" s="95"/>
+      <c r="K112" s="95"/>
+      <c r="L112" s="95"/>
+      <c r="M112" s="95"/>
+      <c r="N112" s="95"/>
+      <c r="O112" s="95"/>
+      <c r="P112" s="95"/>
+      <c r="Q112" s="95"/>
+      <c r="R112" s="95"/>
+      <c r="S112" s="95"/>
+      <c r="T112" s="95"/>
+      <c r="U112" s="95"/>
+      <c r="V112" s="11"/>
     </row>
     <row r="113" spans="1:22">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="98"/>
-      <c r="G113" s="98"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="98"/>
-      <c r="K113" s="98"/>
-      <c r="L113" s="98"/>
-      <c r="M113" s="98"/>
-      <c r="N113" s="98"/>
-      <c r="O113" s="98"/>
-      <c r="P113" s="98"/>
-      <c r="Q113" s="98"/>
-      <c r="R113" s="98"/>
-      <c r="S113" s="98"/>
-      <c r="T113" s="98"/>
-      <c r="U113" s="98"/>
-      <c r="V113" s="96"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="95"/>
+      <c r="G113" s="95"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="95"/>
+      <c r="J113" s="95"/>
+      <c r="K113" s="95"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="95"/>
+      <c r="N113" s="95"/>
+      <c r="O113" s="95"/>
+      <c r="P113" s="95"/>
+      <c r="Q113" s="95"/>
+      <c r="R113" s="95"/>
+      <c r="S113" s="95"/>
+      <c r="T113" s="95"/>
+      <c r="U113" s="95"/>
+      <c r="V113" s="11"/>
     </row>
     <row r="114" spans="1:22">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="98"/>
-      <c r="G114" s="98"/>
-      <c r="H114" s="98"/>
-      <c r="I114" s="98"/>
-      <c r="J114" s="98"/>
-      <c r="K114" s="98"/>
-      <c r="L114" s="98"/>
-      <c r="M114" s="98"/>
-      <c r="N114" s="98"/>
-      <c r="O114" s="98"/>
-      <c r="P114" s="98"/>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="98"/>
-      <c r="S114" s="98"/>
-      <c r="T114" s="98"/>
-      <c r="U114" s="98"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+      <c r="G114" s="95"/>
+      <c r="H114" s="95"/>
+      <c r="I114" s="95"/>
+      <c r="J114" s="95"/>
+      <c r="K114" s="95"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="95"/>
+      <c r="N114" s="95"/>
+      <c r="O114" s="95"/>
+      <c r="P114" s="95"/>
+      <c r="Q114" s="95"/>
+      <c r="R114" s="95"/>
+      <c r="S114" s="95"/>
+      <c r="T114" s="95"/>
+      <c r="U114" s="95"/>
       <c r="V114" s="11"/>
     </row>
     <row r="115" spans="1:22">
@@ -4180,7 +4175,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="97"/>
+      <c r="V115" s="11"/>
     </row>
     <row r="116" spans="1:22">
       <c r="D116" s="6"/>
@@ -4306,7 +4301,7 @@
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
-      <c r="V121" s="94"/>
+      <c r="V121" s="11"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="4"/>
@@ -4330,7 +4325,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="95"/>
+      <c r="V122" s="11"/>
     </row>
     <row r="123" spans="1:22">
       <c r="D123" s="6"/>
@@ -4351,7 +4346,7 @@
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
-      <c r="V123" s="94"/>
+      <c r="V123" s="11"/>
     </row>
     <row r="124" spans="1:22">
       <c r="D124" s="6"/>
@@ -4372,7 +4367,7 @@
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
-      <c r="V124" s="94"/>
+      <c r="V124" s="11"/>
     </row>
     <row r="125" spans="1:22">
       <c r="B125" s="4"/>
@@ -4395,13 +4390,84 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="4"/>
-      <c r="V125" s="95"/>
+      <c r="V125" s="11"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="V126" s="11"/>
     </row>
     <row r="127" spans="1:22">
       <c r="B127" s="4"/>
+      <c r="V127" s="11"/>
     </row>
     <row r="128" spans="1:22">
       <c r="B128" s="4"/>
+      <c r="V128" s="11"/>
+    </row>
+    <row r="129" spans="22:22">
+      <c r="V129" s="11"/>
+    </row>
+    <row r="130" spans="22:22">
+      <c r="V130" s="11"/>
+    </row>
+    <row r="131" spans="22:22">
+      <c r="V131" s="11"/>
+    </row>
+    <row r="132" spans="22:22">
+      <c r="V132" s="11"/>
+    </row>
+    <row r="133" spans="22:22">
+      <c r="V133" s="11"/>
+    </row>
+    <row r="134" spans="22:22">
+      <c r="V134" s="11"/>
+    </row>
+    <row r="135" spans="22:22">
+      <c r="V135" s="11"/>
+    </row>
+    <row r="136" spans="22:22">
+      <c r="V136" s="11"/>
+    </row>
+    <row r="137" spans="22:22">
+      <c r="V137" s="11"/>
+    </row>
+    <row r="138" spans="22:22">
+      <c r="V138" s="11"/>
+    </row>
+    <row r="139" spans="22:22">
+      <c r="V139" s="11"/>
+    </row>
+    <row r="140" spans="22:22">
+      <c r="V140" s="11"/>
+    </row>
+    <row r="141" spans="22:22">
+      <c r="V141" s="11"/>
+    </row>
+    <row r="142" spans="22:22">
+      <c r="V142" s="11"/>
+    </row>
+    <row r="143" spans="22:22">
+      <c r="V143" s="11"/>
+    </row>
+    <row r="144" spans="22:22">
+      <c r="V144" s="11"/>
+    </row>
+    <row r="145" spans="22:22">
+      <c r="V145" s="11"/>
+    </row>
+    <row r="146" spans="22:22">
+      <c r="V146" s="11"/>
+    </row>
+    <row r="147" spans="22:22">
+      <c r="V147" s="11"/>
+    </row>
+    <row r="148" spans="22:22">
+      <c r="V148" s="11"/>
+    </row>
+    <row r="149" spans="22:22">
+      <c r="V149" s="11"/>
+    </row>
+    <row r="150" spans="22:22">
+      <c r="V150" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BAD65-06AB-4514-AE0A-E06F316981D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D3647-B844-4E5B-AC8E-1C28B51DE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1002,6 +1002,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ALSTEC $ below" xfId="13" xr:uid="{087C95A4-F02D-4D55-8959-3D4AEC86E154}"/>
@@ -1736,8 +1738,8 @@
   <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="9"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="1"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -4108,7 +4110,7 @@
       <c r="V112" s="11"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="B113" s="4"/>
+      <c r="B113" s="105"/>
       <c r="C113" s="4"/>
       <c r="D113" s="95"/>
       <c r="E113" s="95"/>
@@ -4131,7 +4133,7 @@
       <c r="V113" s="11"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="B114" s="4"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="4"/>
       <c r="D114" s="95"/>
       <c r="E114" s="95"/>
@@ -4155,7 +4157,7 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="105"/>
       <c r="C115" s="4"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -4305,7 +4307,7 @@
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="105"/>
       <c r="C122" s="4"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4370,7 +4372,7 @@
       <c r="V124" s="11"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="B125" s="4"/>
+      <c r="B125" s="105"/>
       <c r="C125" s="4"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A2BF8-B9FC-4A01-AE27-A71F62CA4599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ADC9C-5DCD-44CC-9624-5B7C204304D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$128</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1339,7 +1339,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -1712,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4437,7 +4437,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
-  <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ADC9C-5DCD-44CC-9624-5B7C204304D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14068D-2372-46E1-8A4A-71A613EC01DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRST" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$128</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1339,7 +1339,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
@@ -1712,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4437,7 +4437,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
-  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14068D-2372-46E1-8A4A-71A613EC01DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC330523-0BAA-4898-BE47-E9BE9BFD3612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,9 +808,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1343,352 +1343,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="53" customWidth="1"/>
-    <col min="2" max="2" width="14" style="53" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="53" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="46" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="53"/>
+    <col min="1" max="1" width="46" style="52" customWidth="1"/>
+    <col min="2" max="2" width="14" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="52" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="46" style="52" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="63" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="65">
+      <c r="B7" s="67"/>
+      <c r="C7" s="64">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="66" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="67" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="71">
+      <c r="B9" s="57"/>
+      <c r="C9" s="70">
         <v>5</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="71">
+      <c r="B10" s="64"/>
+      <c r="C10" s="70">
         <v>10</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="67" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="66" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71">
+      <c r="B11" s="69"/>
+      <c r="C11" s="70">
         <v>10</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="71">
+      <c r="B12" s="72"/>
+      <c r="C12" s="70">
         <v>10</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="71">
+      <c r="B13" s="73"/>
+      <c r="C13" s="70">
         <v>5</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="66" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="65">
+      <c r="B14" s="75"/>
+      <c r="C14" s="64">
         <v>10</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="77" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="65">
+      <c r="B15" s="76"/>
+      <c r="C15" s="64">
         <v>10</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="67" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="71">
+      <c r="B16" s="64"/>
+      <c r="C16" s="70">
         <v>5</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="67" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="66" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="67" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="66" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="71">
+      <c r="B19" s="64"/>
+      <c r="C19" s="70">
         <v>10</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="67" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="66" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="71">
+      <c r="B20" s="64"/>
+      <c r="C20" s="70">
         <v>5</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="66" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="93" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="81"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="83"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="81"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="81"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="81"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1737,31 +1737,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="2" t="s">
@@ -1818,7 +1818,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="7"/>
-      <c r="V4" s="87"/>
+      <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="7"/>
@@ -2051,446 +2051,446 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="7"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="7"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="7"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="7"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
       <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="7"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="7"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="9"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="7"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="7"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="7"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
       <c r="V27" s="9"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="7"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
       <c r="V28" s="9"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="7"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
       <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="7"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
       <c r="V30" s="9"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="7"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
       <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
       <c r="V32" s="9"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="7"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="7"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
       <c r="V34" s="6"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22">
@@ -2510,7 +2510,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="85"/>
+      <c r="T36" s="84"/>
       <c r="U36" s="4"/>
       <c r="V36" s="9"/>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="85"/>
+      <c r="T37" s="84"/>
       <c r="U37" s="4"/>
       <c r="V37" s="9"/>
     </row>
@@ -2552,7 +2552,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="85"/>
+      <c r="T38" s="84"/>
       <c r="U38" s="4"/>
       <c r="V38" s="9"/>
     </row>
@@ -2573,7 +2573,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="85"/>
+      <c r="T39" s="84"/>
       <c r="U39" s="4"/>
       <c r="V39" s="9"/>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="85"/>
+      <c r="T40" s="84"/>
       <c r="U40" s="4"/>
       <c r="V40" s="9"/>
     </row>
@@ -2615,7 +2615,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="85"/>
+      <c r="T41" s="84"/>
       <c r="U41" s="4"/>
       <c r="V41" s="9"/>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="85"/>
+      <c r="T42" s="84"/>
       <c r="U42" s="4"/>
       <c r="V42" s="9"/>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="85"/>
+      <c r="T43" s="84"/>
       <c r="U43" s="4"/>
       <c r="V43" s="9"/>
     </row>
@@ -2678,7 +2678,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="85"/>
+      <c r="T44" s="84"/>
       <c r="U44" s="4"/>
       <c r="V44" s="9"/>
     </row>
@@ -2699,7 +2699,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="85"/>
+      <c r="T45" s="84"/>
       <c r="U45" s="4"/>
       <c r="V45" s="9"/>
     </row>
@@ -2720,7 +2720,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="85"/>
+      <c r="T46" s="84"/>
       <c r="U46" s="4"/>
       <c r="V46" s="9"/>
     </row>
@@ -2741,7 +2741,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="85"/>
+      <c r="T47" s="84"/>
       <c r="U47" s="4"/>
       <c r="V47" s="9"/>
     </row>
@@ -2762,7 +2762,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="85"/>
+      <c r="T48" s="84"/>
       <c r="U48" s="4"/>
       <c r="V48" s="9"/>
     </row>
@@ -2783,7 +2783,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="85"/>
+      <c r="T49" s="84"/>
       <c r="U49" s="4"/>
       <c r="V49" s="9"/>
     </row>
@@ -2804,7 +2804,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="85"/>
+      <c r="T50" s="84"/>
       <c r="U50" s="4"/>
       <c r="V50" s="9"/>
     </row>
@@ -4056,68 +4056,68 @@
       <c r="V111" s="9"/>
     </row>
     <row r="112" spans="3:22">
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="J112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="88"/>
-      <c r="M112" s="88"/>
-      <c r="N112" s="88"/>
-      <c r="O112" s="88"/>
-      <c r="P112" s="88"/>
-      <c r="Q112" s="88"/>
-      <c r="R112" s="88"/>
-      <c r="S112" s="88"/>
-      <c r="T112" s="88"/>
-      <c r="U112" s="88"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="87"/>
+      <c r="H112" s="87"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="87"/>
+      <c r="L112" s="87"/>
+      <c r="M112" s="87"/>
+      <c r="N112" s="87"/>
+      <c r="O112" s="87"/>
+      <c r="P112" s="87"/>
+      <c r="Q112" s="87"/>
+      <c r="R112" s="87"/>
+      <c r="S112" s="87"/>
+      <c r="T112" s="87"/>
+      <c r="U112" s="87"/>
       <c r="V112" s="9"/>
     </row>
     <row r="113" spans="1:22">
       <c r="C113" s="3"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
-      <c r="N113" s="88"/>
-      <c r="O113" s="88"/>
-      <c r="P113" s="88"/>
-      <c r="Q113" s="88"/>
-      <c r="R113" s="88"/>
-      <c r="S113" s="88"/>
-      <c r="T113" s="88"/>
-      <c r="U113" s="88"/>
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87"/>
+      <c r="K113" s="87"/>
+      <c r="L113" s="87"/>
+      <c r="M113" s="87"/>
+      <c r="N113" s="87"/>
+      <c r="O113" s="87"/>
+      <c r="P113" s="87"/>
+      <c r="Q113" s="87"/>
+      <c r="R113" s="87"/>
+      <c r="S113" s="87"/>
+      <c r="T113" s="87"/>
+      <c r="U113" s="87"/>
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
       <c r="C114" s="3"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
-      <c r="K114" s="88"/>
-      <c r="L114" s="88"/>
-      <c r="M114" s="88"/>
-      <c r="N114" s="88"/>
-      <c r="O114" s="88"/>
-      <c r="P114" s="88"/>
-      <c r="Q114" s="88"/>
-      <c r="R114" s="88"/>
-      <c r="S114" s="88"/>
-      <c r="T114" s="88"/>
-      <c r="U114" s="88"/>
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="87"/>
+      <c r="L114" s="87"/>
+      <c r="M114" s="87"/>
+      <c r="N114" s="87"/>
+      <c r="O114" s="87"/>
+      <c r="P114" s="87"/>
+      <c r="Q114" s="87"/>
+      <c r="R114" s="87"/>
+      <c r="S114" s="87"/>
+      <c r="T114" s="87"/>
+      <c r="U114" s="87"/>
       <c r="V114" s="9"/>
     </row>
     <row r="115" spans="1:22">
@@ -4585,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="97" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4596,9 +4596,9 @@
       <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="24" t="s">
+      <c r="F4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="25"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="1:22" ht="15">
       <c r="D8"/>
@@ -4683,7 +4683,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="25"/>
+      <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:22" ht="15">
       <c r="D9"/>
@@ -4704,7 +4704,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="25"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22" ht="15">
       <c r="D10"/>
@@ -4725,7 +4725,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="25"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:22" ht="15">
       <c r="D11"/>
@@ -4746,7 +4746,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="25"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="D12"/>
@@ -4767,7 +4767,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="25"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="1:22" s="18" customFormat="1" ht="15">
       <c r="D13"/>
@@ -4788,7 +4788,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="25"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="D14"/>
@@ -4809,7 +4809,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="25"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="D15"/>
@@ -4830,7 +4830,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="D16"/>
@@ -4851,7 +4851,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="25"/>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="D17"/>
@@ -4872,7 +4872,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="25"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="D18"/>
@@ -4893,7 +4893,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="25"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22" s="18" customFormat="1" ht="15">
       <c r="D19"/>
@@ -4914,7 +4914,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="25"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="D20"/>
@@ -4935,7 +4935,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="25"/>
+      <c r="V20" s="24"/>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="18"/>
@@ -4959,7 +4959,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="25"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="D22"/>
@@ -4980,7 +4980,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="25"/>
+      <c r="V22" s="24"/>
     </row>
     <row r="23" spans="1:22" ht="15">
       <c r="D23"/>
@@ -5001,7 +5001,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="25"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="D24"/>
@@ -5022,7 +5022,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="25"/>
+      <c r="V24" s="24"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="D25"/>
@@ -5043,7 +5043,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="25"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="D26"/>
@@ -5064,7 +5064,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="25"/>
+      <c r="V26" s="24"/>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="D27"/>
@@ -5085,7 +5085,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="25"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="D28"/>
@@ -5106,7 +5106,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="25"/>
+      <c r="V28" s="24"/>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="D29"/>
@@ -5127,7 +5127,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="25"/>
+      <c r="V29" s="24"/>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="D30"/>
@@ -5148,7 +5148,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="25"/>
+      <c r="V30" s="24"/>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="D31"/>
@@ -5169,7 +5169,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="25"/>
+      <c r="V31" s="24"/>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="D32"/>
@@ -5190,7 +5190,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="25"/>
+      <c r="V32" s="24"/>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="D33"/>
@@ -5211,7 +5211,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="25"/>
+      <c r="V33" s="24"/>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="D34"/>
@@ -5232,7 +5232,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="25"/>
+      <c r="V34" s="24"/>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="D35"/>
@@ -5253,7 +5253,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="25"/>
+      <c r="V35" s="24"/>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="D36" s="3"/>
@@ -5274,7 +5274,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="25"/>
+      <c r="V36" s="24"/>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="D37"/>
@@ -5295,7 +5295,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="25"/>
+      <c r="V37" s="24"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="D38"/>
@@ -5316,7 +5316,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="25"/>
+      <c r="V38" s="24"/>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="D39"/>
@@ -5337,7 +5337,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="25"/>
+      <c r="V39" s="24"/>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="D40"/>
@@ -5358,7 +5358,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="25"/>
+      <c r="V40" s="24"/>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="18"/>
@@ -5382,7 +5382,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="25"/>
+      <c r="V41" s="24"/>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="D42"/>
@@ -5403,7 +5403,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="25"/>
+      <c r="V42" s="24"/>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="D43"/>
@@ -5424,7 +5424,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="25"/>
+      <c r="V43" s="24"/>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="D44"/>
@@ -6031,22 +6031,22 @@
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="85"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
     </row>
     <row r="71" spans="3:26" ht="15">
       <c r="C71" s="11">
@@ -6055,22 +6055,22 @@
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
-      <c r="T71" s="85"/>
-      <c r="U71" s="85"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="84"/>
     </row>
     <row r="72" spans="3:26" ht="15">
       <c r="C72" s="11">
@@ -6119,10 +6119,10 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
     </row>
     <row r="74" spans="3:26" ht="15">
       <c r="C74" s="11">
@@ -6147,10 +6147,10 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
     </row>
     <row r="75" spans="3:26" ht="15">
       <c r="C75" s="11">
@@ -6327,22 +6327,22 @@
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
     </row>
     <row r="83" spans="3:21" ht="15">
       <c r="C83" s="11">
@@ -6351,22 +6351,22 @@
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="28"/>
     </row>
     <row r="84" spans="3:21" ht="15">
       <c r="C84" s="11">
@@ -6375,22 +6375,22 @@
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="28"/>
     </row>
     <row r="85" spans="3:21" ht="15">
       <c r="C85" s="11">
@@ -6399,22 +6399,22 @@
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="28"/>
     </row>
     <row r="86" spans="3:21" ht="15">
       <c r="C86" s="11">
@@ -6423,22 +6423,22 @@
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="28"/>
     </row>
     <row r="87" spans="3:21" ht="15">
       <c r="C87" s="11">
@@ -6447,22 +6447,22 @@
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="28"/>
     </row>
     <row r="88" spans="3:21" ht="15">
       <c r="C88" s="11">
@@ -6471,22 +6471,22 @@
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="28"/>
     </row>
     <row r="89" spans="3:21" ht="15">
       <c r="C89" s="11">
@@ -6495,22 +6495,22 @@
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="28"/>
     </row>
     <row r="90" spans="3:21" ht="15">
       <c r="C90" s="11">
@@ -6519,22 +6519,22 @@
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="28"/>
     </row>
     <row r="91" spans="3:21" ht="15">
       <c r="C91" s="11">
@@ -6543,22 +6543,22 @@
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="28"/>
     </row>
     <row r="92" spans="3:21" ht="15">
       <c r="C92" s="11">
@@ -6567,22 +6567,22 @@
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="28"/>
     </row>
     <row r="93" spans="3:21" ht="15">
       <c r="C93" s="11">
@@ -6591,22 +6591,22 @@
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="28"/>
     </row>
     <row r="94" spans="3:21" ht="15">
       <c r="C94" s="11">
@@ -6615,22 +6615,22 @@
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="30"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="28"/>
     </row>
     <row r="95" spans="3:21" ht="15">
       <c r="C95" s="11">
@@ -6639,22 +6639,22 @@
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="28"/>
     </row>
     <row r="96" spans="3:21" ht="15">
       <c r="C96" s="11">
@@ -6663,22 +6663,22 @@
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="30"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="30"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="28"/>
     </row>
     <row r="97" spans="1:21" ht="15">
       <c r="C97" s="11">
@@ -6687,22 +6687,22 @@
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="30"/>
-      <c r="N97" s="30"/>
-      <c r="O97" s="30"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="30"/>
-      <c r="S97" s="30"/>
-      <c r="T97" s="30"/>
-      <c r="U97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="28"/>
     </row>
     <row r="98" spans="1:21" ht="15">
       <c r="C98" s="11">
@@ -6711,22 +6711,22 @@
       </c>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30"/>
-      <c r="R98" s="30"/>
-      <c r="S98" s="30"/>
-      <c r="T98" s="30"/>
-      <c r="U98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="28"/>
     </row>
     <row r="99" spans="1:21" ht="15">
       <c r="C99" s="11">
@@ -6735,22 +6735,22 @@
       </c>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30"/>
-      <c r="R99" s="30"/>
-      <c r="S99" s="30"/>
-      <c r="T99" s="30"/>
-      <c r="U99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="28"/>
     </row>
     <row r="100" spans="1:21" ht="15">
       <c r="C100" s="11">
@@ -6759,22 +6759,22 @@
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="28"/>
     </row>
     <row r="101" spans="1:21" ht="15">
       <c r="C101" s="11">
@@ -6783,22 +6783,22 @@
       </c>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="30"/>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="28"/>
     </row>
     <row r="102" spans="1:21" ht="15">
       <c r="C102" s="11">
@@ -6807,22 +6807,22 @@
       </c>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="30"/>
-      <c r="R102" s="30"/>
-      <c r="S102" s="30"/>
-      <c r="T102" s="30"/>
-      <c r="U102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="28"/>
     </row>
     <row r="103" spans="1:21" ht="15">
       <c r="C103" s="11">
@@ -6831,22 +6831,22 @@
       </c>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26"/>
-      <c r="S103" s="28"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="27"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="28"/>
     </row>
     <row r="104" spans="1:21" ht="15">
       <c r="C104" s="11">
@@ -6855,22 +6855,22 @@
       </c>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="28"/>
-      <c r="T104" s="29"/>
-      <c r="U104" s="29"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="27"/>
+      <c r="T104" s="28"/>
+      <c r="U104" s="28"/>
     </row>
     <row r="105" spans="1:21" ht="15">
       <c r="C105" s="11">
@@ -6879,22 +6879,22 @@
       </c>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="28"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="28"/>
+      <c r="U105" s="28"/>
     </row>
     <row r="106" spans="1:21" ht="15">
       <c r="C106" s="11">
@@ -6903,22 +6903,22 @@
       </c>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="28"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="28"/>
+      <c r="U106" s="28"/>
     </row>
     <row r="107" spans="1:21" ht="15">
       <c r="C107" s="11">
@@ -6927,22 +6927,22 @@
       </c>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="28"/>
     </row>
     <row r="108" spans="1:21" ht="15">
       <c r="C108" s="11">
@@ -6951,22 +6951,22 @@
       </c>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="28"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="28"/>
+      <c r="U108" s="28"/>
     </row>
     <row r="109" spans="1:21" ht="15">
       <c r="C109" s="11">
@@ -6975,22 +6975,22 @@
       </c>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="28"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="28"/>
+      <c r="U109" s="28"/>
     </row>
     <row r="110" spans="1:21" ht="15">
       <c r="C110" s="11">
@@ -6999,167 +6999,167 @@
       </c>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="28"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="29"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="28"/>
+      <c r="U110" s="28"/>
     </row>
     <row r="111" spans="1:21" ht="15">
       <c r="A111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="T111" s="29"/>
-      <c r="U111" s="29"/>
+      <c r="T111" s="28"/>
+      <c r="U111" s="28"/>
     </row>
     <row r="112" spans="1:21" ht="15">
       <c r="D112"/>
       <c r="E112"/>
-      <c r="T112" s="29"/>
-      <c r="U112" s="29"/>
+      <c r="T112" s="28"/>
+      <c r="U112" s="28"/>
     </row>
     <row r="113" spans="4:21" ht="15">
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="28"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="29"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="28"/>
+      <c r="U113" s="28"/>
     </row>
     <row r="114" spans="4:21" ht="15">
       <c r="D114" s="3"/>
       <c r="E114"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="26"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="28"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="29"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="28"/>
+      <c r="U114" s="28"/>
     </row>
     <row r="115" spans="4:21" ht="15">
       <c r="D115" s="3"/>
       <c r="E115"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-      <c r="S115" s="28"/>
-      <c r="T115" s="29"/>
-      <c r="U115" s="29"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="28"/>
+      <c r="U115" s="28"/>
     </row>
     <row r="116" spans="4:21">
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="28"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="28"/>
+      <c r="U116" s="28"/>
     </row>
     <row r="117" spans="4:21">
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="28"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="29"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="28"/>
+      <c r="U117" s="28"/>
     </row>
     <row r="118" spans="4:21">
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
-      <c r="S118" s="28"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="29"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="28"/>
+      <c r="U118" s="28"/>
     </row>
     <row r="119" spans="4:21">
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="26"/>
-      <c r="L119" s="26"/>
-      <c r="M119" s="26"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="26"/>
-      <c r="Q119" s="26"/>
-      <c r="R119" s="26"/>
-      <c r="S119" s="28"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="28"/>
+      <c r="U119" s="28"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7185,7 +7185,7 @@
     <col min="3" max="3" width="9.7109375" style="11" customWidth="1"/>
     <col min="4" max="6" width="15.42578125" style="11" customWidth="1"/>
     <col min="7" max="15" width="13.28515625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="47" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="46" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" style="11" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -7194,87 +7194,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="20.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" s="34" customFormat="1" ht="15">
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" spans="1:18" s="33" customFormat="1" ht="15">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:18" ht="19.5">
       <c r="D5" s="19" t="s">
@@ -7335,272 +7335,272 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="37"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="Q8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="Q15" s="23"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:18" hidden="1" outlineLevel="1">
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="Q16" s="23"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="Q17" s="23"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="Q19" s="42"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="Q20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="Q21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="18" t="s">
@@ -7608,139 +7608,139 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="18"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="C24" s="43"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="C25" s="43"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="C26" s="43"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="C27" s="43"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="C28" s="43"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="C29" s="43"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="Q29" s="23"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="18" t="s">
@@ -7748,49 +7748,49 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="Q30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="Q31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="Q32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="18" t="s">
@@ -7798,91 +7798,91 @@
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="Q33" s="37"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:22">
       <c r="B36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="Q37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="Q37" s="39"/>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="18" t="s">
@@ -7890,138 +7890,138 @@
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="Q38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="Q38" s="41"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="Q39" s="40"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="Q40" s="42"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="Q40" s="41"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="Q41" s="38"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="Q42" s="41"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="Q43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="Q43" s="39"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="38"/>
-      <c r="V44" s="38"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="37"/>
+      <c r="V44" s="37"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="Q45" s="45"/>
-    </row>
-    <row r="46" spans="1:22" s="25" customFormat="1">
-      <c r="P46" s="51"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="Q45" s="44"/>
+    </row>
+    <row r="46" spans="1:22" s="24" customFormat="1">
+      <c r="P46" s="50"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC330523-0BAA-4898-BE47-E9BE9BFD3612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D303FA47-FC87-4503-8243-93794F41F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$128</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>Amended
 Budget</t>
@@ -332,12 +332,6 @@
     <t>Ceiling</t>
   </si>
   <si>
-    <t>89 pts = B max if 3% variance</t>
-  </si>
-  <si>
-    <t>#18 - Annual audit compliance</t>
-  </si>
-  <si>
     <t>79 pts = C max if material weaknesses</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
   </si>
   <si>
     <t>2022-2023 School Year</t>
-  </si>
-  <si>
-    <t>A - Superior</t>
   </si>
   <si>
     <t xml:space="preserve">            </t>
@@ -949,6 +940,9 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1337,7 +1328,7 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1353,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -1425,7 +1416,7 @@
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="64">
@@ -1571,92 +1562,84 @@
         <v>83</v>
       </c>
       <c r="B18" s="64"/>
-      <c r="C18" s="70" t="s">
-        <v>81</v>
+      <c r="C18" s="70">
+        <v>10</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="66" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="34.15" customHeight="1">
       <c r="A19" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A20" s="68" t="s">
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="70">
-        <v>5</v>
+      <c r="B20" s="76"/>
+      <c r="C20" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A21" s="78" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="77" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="66" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A23" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="93"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="94"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="80"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="81"/>
-      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="82"/>
+      <c r="A25" s="82" t="s">
+        <v>91</v>
+      </c>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="82" t="s">
-        <v>94</v>
-      </c>
+      <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -1683,19 +1666,12 @@
       <c r="D29" s="81"/>
       <c r="E29" s="80"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="80"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
@@ -1737,38 +1713,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
+      <c r="B1" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -4476,7 +4452,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4585,11 +4561,11 @@
         <v>12</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="T3" s="97" t="s">
+      <c r="T3" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="97" t="s">
-        <v>99</v>
+      <c r="U3" s="88" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -7237,7 +7213,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D303FA47-FC87-4503-8243-93794F41F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F957B-6900-4206-BD5D-B861E4044B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$128</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$109</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>Amended
 Budget</t>
@@ -167,21 +167,6 @@
   </si>
   <si>
     <t>NET CASH FLOWS FROM INVESTING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>CASH FLOWS FROM FINANCING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Short Term Notes Payable, Bond</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Long Term Liabilities</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) Restricted Cash (Constr.)</t>
-  </si>
-  <si>
-    <t>NET CASH FLOWS FROM FINANCING ACTIVITIES</t>
   </si>
   <si>
     <t>NET INCREASE (DECREASE) IN CASH</t>
@@ -1353,7 +1338,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -1362,61 +1347,61 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="54" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="58" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="66" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="64">
@@ -1424,12 +1409,12 @@
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="70">
@@ -1437,12 +1422,12 @@
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="70">
@@ -1450,12 +1435,12 @@
       </c>
       <c r="D9" s="71"/>
       <c r="E9" s="66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="70">
@@ -1463,12 +1448,12 @@
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="66" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="70">
@@ -1476,12 +1461,12 @@
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="68" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="70">
@@ -1489,12 +1474,12 @@
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="66" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="70">
@@ -1502,12 +1487,12 @@
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="74" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="64">
@@ -1515,12 +1500,12 @@
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="76" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="77" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="64">
@@ -1528,12 +1513,12 @@
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="66" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="68" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="70">
@@ -1541,25 +1526,25 @@
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="68" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="70">
@@ -1567,12 +1552,12 @@
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.15" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="70">
@@ -1580,36 +1565,36 @@
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="66" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
       <c r="A20" s="77" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="66" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.15" customHeight="1">
       <c r="A21" s="78" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B21" s="89"/>
       <c r="C21" s="90"/>
       <c r="D21" s="91"/>
       <c r="E21" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
       <c r="A22" s="79" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="95"/>
       <c r="C22" s="96"/>
@@ -1631,7 +1616,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="82" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -1714,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="97" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
@@ -1744,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -4452,7 +4437,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4565,7 +4550,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="88" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -7150,9 +7135,11 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
@@ -7171,7 +7158,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7213,7 +7200,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -7753,251 +7740,109 @@
       <c r="O31" s="38"/>
       <c r="Q31" s="37"/>
     </row>
-    <row r="32" spans="1:17">
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="Q32" s="37"/>
-    </row>
-    <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="18" t="s">
+    <row r="32" spans="1:17" ht="15">
+      <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="Q33" s="36"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="B34" s="11" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="Q32" s="41"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="Q33" s="37"/>
+    </row>
+    <row r="34" spans="1:22" ht="15">
+      <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="B36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="Q37" s="39"/>
-    </row>
-    <row r="38" spans="1:22" ht="15">
-      <c r="A38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="Q38" s="41"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="Q39" s="39"/>
-    </row>
-    <row r="40" spans="1:22" ht="15">
-      <c r="A40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="Q40" s="41"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="Q41" s="37"/>
-    </row>
-    <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="Q42" s="41"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A44" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="37"/>
-      <c r="V44" s="37"/>
-    </row>
-    <row r="45" spans="1:22" ht="15" thickTop="1">
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="Q45" s="44"/>
-    </row>
-    <row r="46" spans="1:22" s="24" customFormat="1">
-      <c r="P46" s="50"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="37"/>
+      <c r="V36" s="37"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" thickTop="1">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="Q37" s="44"/>
+    </row>
+    <row r="38" spans="1:22" s="24" customFormat="1">
+      <c r="P38" s="50"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F957B-6900-4206-BD5D-B861E4044B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559DBE46-FECC-4E62-8F01-774D3398DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Amended
 Budget</t>
@@ -130,52 +130,7 @@
     <t>YTD FY 2023</t>
   </si>
   <si>
-    <t>CASH FLOWS FROM OPERATING ACTIVITIES</t>
-  </si>
-  <si>
     <t>Change in Net Assets</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Accounts Payable</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Payable to Gov't Agencies</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Payroll and Payroll Related Payables</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Inventories</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Accrued Expenses</t>
-  </si>
-  <si>
-    <t>Decrease (Increase) in Deferred Expenses</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Deferred Revenue</t>
-  </si>
-  <si>
-    <t>NET CASH FLOWS FROM OPERATING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>CASH FLOWS FROM INVESTING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>NET CASH FLOWS FROM INVESTING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>NET INCREASE (DECREASE) IN CASH</t>
-  </si>
-  <si>
-    <t>Cash at Beginning of Period</t>
-  </si>
-  <si>
-    <t>Cash at End of Period</t>
   </si>
   <si>
     <t>ADVANTAGE ACADEMY</t>
@@ -388,7 +343,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,18 +449,6 @@
       <name val="Arial  "/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial  "/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial  "/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial  "/>
@@ -551,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -575,28 +518,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -736,7 +657,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -811,104 +732,97 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
@@ -928,28 +842,31 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,337 +1236,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="52" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="46" style="52" customWidth="1"/>
-    <col min="9" max="16384" width="133.42578125" style="52"/>
+    <col min="1" max="1" width="46" style="45" customWidth="1"/>
+    <col min="2" max="2" width="14" style="45" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="45" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="46" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="133.42578125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="57">
+        <v>10</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63">
+        <v>10</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="63">
+        <v>5</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="54" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="63">
+        <v>10</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="54" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="56" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63">
+        <v>10</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="61" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="63">
+        <v>10</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="63">
+        <v>5</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="56" t="s">
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="66" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="57">
+        <v>10</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="64">
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="57">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="68" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="63">
+        <v>5</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63">
         <v>10</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="70">
+      <c r="D18" s="55"/>
+      <c r="E18" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A19" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="63">
         <v>5</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="68" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="70">
-        <v>10</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70">
-        <v>10</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="70">
-        <v>10</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="70">
-        <v>5</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="66" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A21" s="71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="74" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="64">
-        <v>10</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="76" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A22" s="72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="77" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="90"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="73"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="75"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="64">
-        <v>10</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="70">
-        <v>5</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="70">
-        <v>10</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A19" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="70">
-        <v>5</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A21" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="94"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="80"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="82"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="80"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="73"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="80"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="80"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="73"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="80"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="80"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1698,38 +1615,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="B1" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -1779,7 +1696,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="7"/>
-      <c r="V4" s="86"/>
+      <c r="V4" s="79"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="7"/>
@@ -2012,446 +1929,446 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="7"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="7"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="7"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="7"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
       <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="7"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="7"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
       <c r="V22" s="9"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="7"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="7"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="7"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
       <c r="V27" s="9"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="7"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
       <c r="V28" s="9"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="7"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
       <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="7"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
       <c r="V30" s="9"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="7"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
       <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
       <c r="V32" s="9"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="7"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="7"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
       <c r="V34" s="6"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22">
@@ -2471,7 +2388,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="84"/>
+      <c r="T36" s="77"/>
       <c r="U36" s="4"/>
       <c r="V36" s="9"/>
     </row>
@@ -2492,7 +2409,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="84"/>
+      <c r="T37" s="77"/>
       <c r="U37" s="4"/>
       <c r="V37" s="9"/>
     </row>
@@ -2513,7 +2430,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="84"/>
+      <c r="T38" s="77"/>
       <c r="U38" s="4"/>
       <c r="V38" s="9"/>
     </row>
@@ -2534,7 +2451,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="84"/>
+      <c r="T39" s="77"/>
       <c r="U39" s="4"/>
       <c r="V39" s="9"/>
     </row>
@@ -2555,7 +2472,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="84"/>
+      <c r="T40" s="77"/>
       <c r="U40" s="4"/>
       <c r="V40" s="9"/>
     </row>
@@ -2576,7 +2493,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="84"/>
+      <c r="T41" s="77"/>
       <c r="U41" s="4"/>
       <c r="V41" s="9"/>
     </row>
@@ -2597,7 +2514,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="84"/>
+      <c r="T42" s="77"/>
       <c r="U42" s="4"/>
       <c r="V42" s="9"/>
     </row>
@@ -2618,7 +2535,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="84"/>
+      <c r="T43" s="77"/>
       <c r="U43" s="4"/>
       <c r="V43" s="9"/>
     </row>
@@ -2639,7 +2556,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="84"/>
+      <c r="T44" s="77"/>
       <c r="U44" s="4"/>
       <c r="V44" s="9"/>
     </row>
@@ -2660,7 +2577,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="84"/>
+      <c r="T45" s="77"/>
       <c r="U45" s="4"/>
       <c r="V45" s="9"/>
     </row>
@@ -2681,7 +2598,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="84"/>
+      <c r="T46" s="77"/>
       <c r="U46" s="4"/>
       <c r="V46" s="9"/>
     </row>
@@ -2702,7 +2619,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="84"/>
+      <c r="T47" s="77"/>
       <c r="U47" s="4"/>
       <c r="V47" s="9"/>
     </row>
@@ -2723,7 +2640,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="84"/>
+      <c r="T48" s="77"/>
       <c r="U48" s="4"/>
       <c r="V48" s="9"/>
     </row>
@@ -2744,7 +2661,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="84"/>
+      <c r="T49" s="77"/>
       <c r="U49" s="4"/>
       <c r="V49" s="9"/>
     </row>
@@ -2765,7 +2682,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="84"/>
+      <c r="T50" s="77"/>
       <c r="U50" s="4"/>
       <c r="V50" s="9"/>
     </row>
@@ -4017,68 +3934,68 @@
       <c r="V111" s="9"/>
     </row>
     <row r="112" spans="3:22">
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
-      <c r="I112" s="87"/>
-      <c r="J112" s="87"/>
-      <c r="K112" s="87"/>
-      <c r="L112" s="87"/>
-      <c r="M112" s="87"/>
-      <c r="N112" s="87"/>
-      <c r="O112" s="87"/>
-      <c r="P112" s="87"/>
-      <c r="Q112" s="87"/>
-      <c r="R112" s="87"/>
-      <c r="S112" s="87"/>
-      <c r="T112" s="87"/>
-      <c r="U112" s="87"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="80"/>
+      <c r="N112" s="80"/>
+      <c r="O112" s="80"/>
+      <c r="P112" s="80"/>
+      <c r="Q112" s="80"/>
+      <c r="R112" s="80"/>
+      <c r="S112" s="80"/>
+      <c r="T112" s="80"/>
+      <c r="U112" s="80"/>
       <c r="V112" s="9"/>
     </row>
     <row r="113" spans="1:22">
       <c r="C113" s="3"/>
-      <c r="D113" s="87"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="87"/>
-      <c r="I113" s="87"/>
-      <c r="J113" s="87"/>
-      <c r="K113" s="87"/>
-      <c r="L113" s="87"/>
-      <c r="M113" s="87"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="87"/>
-      <c r="P113" s="87"/>
-      <c r="Q113" s="87"/>
-      <c r="R113" s="87"/>
-      <c r="S113" s="87"/>
-      <c r="T113" s="87"/>
-      <c r="U113" s="87"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="80"/>
+      <c r="P113" s="80"/>
+      <c r="Q113" s="80"/>
+      <c r="R113" s="80"/>
+      <c r="S113" s="80"/>
+      <c r="T113" s="80"/>
+      <c r="U113" s="80"/>
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
       <c r="C114" s="3"/>
-      <c r="D114" s="87"/>
-      <c r="E114" s="87"/>
-      <c r="F114" s="87"/>
-      <c r="G114" s="87"/>
-      <c r="H114" s="87"/>
-      <c r="I114" s="87"/>
-      <c r="J114" s="87"/>
-      <c r="K114" s="87"/>
-      <c r="L114" s="87"/>
-      <c r="M114" s="87"/>
-      <c r="N114" s="87"/>
-      <c r="O114" s="87"/>
-      <c r="P114" s="87"/>
-      <c r="Q114" s="87"/>
-      <c r="R114" s="87"/>
-      <c r="S114" s="87"/>
-      <c r="T114" s="87"/>
-      <c r="U114" s="87"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="80"/>
+      <c r="I114" s="80"/>
+      <c r="J114" s="80"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="80"/>
+      <c r="M114" s="80"/>
+      <c r="N114" s="80"/>
+      <c r="O114" s="80"/>
+      <c r="P114" s="80"/>
+      <c r="Q114" s="80"/>
+      <c r="R114" s="80"/>
+      <c r="S114" s="80"/>
+      <c r="T114" s="80"/>
+      <c r="U114" s="80"/>
       <c r="V114" s="9"/>
     </row>
     <row r="115" spans="1:22">
@@ -4437,7 +4354,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4546,11 +4463,11 @@
         <v>12</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="88" t="s">
-        <v>91</v>
+      <c r="U3" s="81" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -5992,22 +5909,22 @@
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
     </row>
     <row r="71" spans="3:26" ht="15">
       <c r="C71" s="11">
@@ -6016,22 +5933,22 @@
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
     </row>
     <row r="72" spans="3:26" ht="15">
       <c r="C72" s="11">
@@ -7135,20 +7052,18 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="11" customWidth="1"/>
     <col min="4" max="6" width="15.42578125" style="11" customWidth="1"/>
     <col min="7" max="15" width="13.28515625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="46" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="41" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" style="11" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -7158,7 +7073,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="31" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7200,7 +7115,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="31" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -7233,7 +7148,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
-      <c r="P4" s="46"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="33" t="s">
         <v>25</v>
       </c>
@@ -7281,10 +7196,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -7298,12 +7210,13 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="47"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="36"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="11" t="s">
-        <v>28</v>
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -7320,6 +7233,8 @@
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -7334,8 +7249,9 @@
       <c r="O8" s="37"/>
       <c r="Q8" s="36"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="29"/>
@@ -7353,10 +7269,9 @@
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -7372,10 +7287,9 @@
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -7391,10 +7305,9 @@
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="11" t="s">
-        <v>31</v>
-      </c>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -7410,10 +7323,9 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="11" t="s">
-        <v>32</v>
-      </c>
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -7429,10 +7341,9 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -7448,131 +7359,138 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:18" hidden="1" outlineLevel="1">
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" hidden="1" outlineLevel="1">
-      <c r="B17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" collapsed="1">
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="Q18" s="38"/>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="1:17" ht="15">
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="1:17" ht="15">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:17" ht="15">
-      <c r="A19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="Q19" s="41"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="Q21" s="37"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" ht="15">
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" ht="15">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" ht="15">
-      <c r="A22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="18"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -7587,8 +7505,9 @@
       <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="15">
-      <c r="A23" s="18"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
@@ -7604,8 +7523,10 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:17" ht="15">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -7621,8 +7542,10 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="42"/>
+    <row r="25" spans="1:17" ht="15">
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -7638,8 +7561,10 @@
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="C26" s="42"/>
+    <row r="26" spans="1:17" ht="15">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -7655,8 +7580,10 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="C27" s="42"/>
+    <row r="27" spans="1:17" ht="15">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -7672,8 +7599,10 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="C28" s="42"/>
+    <row r="28" spans="1:17" ht="15">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -7689,160 +7618,318 @@
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
     </row>
-    <row r="29" spans="1:17">
-      <c r="C29" s="42"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="Q29" s="22"/>
+    <row r="29" spans="1:17" ht="15">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="15">
-      <c r="A30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="18"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="Q30" s="49"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="Q31" s="37"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="1:17" ht="15">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" ht="15">
-      <c r="A32" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="Q32" s="41"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="Q33" s="37"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="82"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="1:22" ht="15">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:22" ht="15">
-      <c r="A34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="Q34" s="41"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A36" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="Q36" s="43"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="82"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="1:22" ht="15">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="1:22" ht="15">
+      <c r="A36" s="83"/>
+      <c r="B36" s="82"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
       <c r="R36" s="37"/>
       <c r="V36" s="37"/>
     </row>
-    <row r="37" spans="1:22" ht="15" thickTop="1">
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="Q37" s="44"/>
-    </row>
-    <row r="38" spans="1:22" s="24" customFormat="1">
-      <c r="P38" s="50"/>
+    <row r="37" spans="1:22" ht="15">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:22" s="24" customFormat="1" ht="15">
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="P38" s="43"/>
+    </row>
+    <row r="39" spans="1:22" ht="15">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+    </row>
+    <row r="40" spans="1:22" ht="15">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+    </row>
+    <row r="41" spans="1:22" ht="15">
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+    </row>
+    <row r="42" spans="1:22" ht="15">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+    </row>
+    <row r="43" spans="1:22" ht="15">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+    </row>
+    <row r="44" spans="1:22" ht="15">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+    </row>
+    <row r="45" spans="1:22" ht="15">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+    </row>
+    <row r="46" spans="1:22" ht="15">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+    </row>
+    <row r="47" spans="1:22" ht="15">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+    </row>
+    <row r="48" spans="1:22" ht="15">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+    </row>
+    <row r="63" spans="1:2" ht="15">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+    </row>
+    <row r="64" spans="1:2" ht="15">
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+    </row>
+    <row r="65" spans="1:2" ht="15">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+    </row>
+    <row r="66" spans="1:2" ht="15">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+    </row>
+    <row r="67" spans="1:2" ht="15">
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+    </row>
+    <row r="68" spans="1:2" ht="15">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+    </row>
+    <row r="69" spans="1:2" ht="15">
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+    </row>
+    <row r="70" spans="1:2" ht="15">
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+    </row>
+    <row r="71" spans="1:2" ht="15">
+      <c r="B71" s="82"/>
+    </row>
+    <row r="72" spans="1:2" ht="15">
+      <c r="B72" s="82"/>
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="B73" s="82"/>
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="B74" s="82"/>
+    </row>
+    <row r="75" spans="1:2" ht="15">
+      <c r="B75" s="82"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559DBE46-FECC-4E62-8F01-774D3398DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81EAFD1-C175-44AC-BD53-DD82B208A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="Cash Flow Statement" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$128</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Cash Flow Statement'!$A$1:$Q$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIRST!$A$1:$E$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PL!$B$1:$V$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7042,7 +7042,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
-  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81EAFD1-C175-44AC-BD53-DD82B208A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A8832-E1E6-4CFA-AD73-BCAF4AEB20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>Amended
 Budget</t>
@@ -296,9 +296,6 @@
     <t>F &lt; 69, C Meets Standard = 70-79, 
 B Above Standard = 80-89, 
 A Superior = 90-100</t>
-  </si>
-  <si>
-    <t>2022-2023 School Year</t>
   </si>
   <si>
     <t xml:space="preserve">            </t>
@@ -1255,7 +1252,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="57">
@@ -1510,9 +1507,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="72"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="88"/>
@@ -1533,7 +1528,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -1616,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
       <c r="B1" s="93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -1646,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -4354,7 +4349,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4467,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -7115,7 +7110,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A8832-E1E6-4CFA-AD73-BCAF4AEB20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312A49AC-A71B-49D1-AFEA-185DD683FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -869,6 +869,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ALSTEC $ below" xfId="13" xr:uid="{087C95A4-F02D-4D55-8959-3D4AEC86E154}"/>
@@ -6200,22 +6203,22 @@
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="29"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="77"/>
+      <c r="R82" s="77"/>
+      <c r="S82" s="77"/>
+      <c r="T82" s="77"/>
+      <c r="U82" s="77"/>
     </row>
     <row r="83" spans="3:21" ht="15">
       <c r="C83" s="11">
@@ -6224,22 +6227,22 @@
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="28"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="77"/>
+      <c r="T83" s="77"/>
+      <c r="U83" s="94"/>
     </row>
     <row r="84" spans="3:21" ht="15">
       <c r="C84" s="11">
@@ -6248,22 +6251,22 @@
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="28"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="77"/>
+      <c r="S84" s="77"/>
+      <c r="T84" s="77"/>
+      <c r="U84" s="94"/>
     </row>
     <row r="85" spans="3:21" ht="15">
       <c r="C85" s="11">
@@ -6272,22 +6275,22 @@
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="28"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="77"/>
+      <c r="T85" s="77"/>
+      <c r="U85" s="94"/>
     </row>
     <row r="86" spans="3:21" ht="15">
       <c r="C86" s="11">
@@ -6296,22 +6299,22 @@
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="28"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="77"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
+      <c r="T86" s="77"/>
+      <c r="U86" s="94"/>
     </row>
     <row r="87" spans="3:21" ht="15">
       <c r="C87" s="11">
@@ -6320,22 +6323,22 @@
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="28"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="94"/>
     </row>
     <row r="88" spans="3:21" ht="15">
       <c r="C88" s="11">
@@ -6344,22 +6347,22 @@
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="28"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
+      <c r="T88" s="77"/>
+      <c r="U88" s="94"/>
     </row>
     <row r="89" spans="3:21" ht="15">
       <c r="C89" s="11">
@@ -6368,22 +6371,22 @@
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="28"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="77"/>
+      <c r="U89" s="94"/>
     </row>
     <row r="90" spans="3:21" ht="15">
       <c r="C90" s="11">
@@ -6392,22 +6395,22 @@
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="28"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="77"/>
+      <c r="T90" s="77"/>
+      <c r="U90" s="94"/>
     </row>
     <row r="91" spans="3:21" ht="15">
       <c r="C91" s="11">
@@ -6416,22 +6419,22 @@
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="28"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="77"/>
+      <c r="T91" s="77"/>
+      <c r="U91" s="94"/>
     </row>
     <row r="92" spans="3:21" ht="15">
       <c r="C92" s="11">
@@ -6440,22 +6443,22 @@
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="28"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="77"/>
+      <c r="U92" s="94"/>
     </row>
     <row r="93" spans="3:21" ht="15">
       <c r="C93" s="11">
@@ -6464,22 +6467,22 @@
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="28"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="77"/>
+      <c r="T93" s="77"/>
+      <c r="U93" s="94"/>
     </row>
     <row r="94" spans="3:21" ht="15">
       <c r="C94" s="11">
@@ -6488,22 +6491,22 @@
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="28"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="77"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="77"/>
+      <c r="U94" s="94"/>
     </row>
     <row r="95" spans="3:21" ht="15">
       <c r="C95" s="11">
@@ -6512,22 +6515,22 @@
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="28"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
+      <c r="R95" s="77"/>
+      <c r="S95" s="77"/>
+      <c r="T95" s="77"/>
+      <c r="U95" s="94"/>
     </row>
     <row r="96" spans="3:21" ht="15">
       <c r="C96" s="11">
@@ -6536,22 +6539,22 @@
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="28"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="77"/>
+      <c r="N96" s="77"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="77"/>
+      <c r="Q96" s="77"/>
+      <c r="R96" s="77"/>
+      <c r="S96" s="77"/>
+      <c r="T96" s="77"/>
+      <c r="U96" s="94"/>
     </row>
     <row r="97" spans="1:21" ht="15">
       <c r="C97" s="11">
@@ -6560,22 +6563,22 @@
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="28"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="77"/>
+      <c r="M97" s="77"/>
+      <c r="N97" s="77"/>
+      <c r="O97" s="77"/>
+      <c r="P97" s="77"/>
+      <c r="Q97" s="77"/>
+      <c r="R97" s="77"/>
+      <c r="S97" s="77"/>
+      <c r="T97" s="77"/>
+      <c r="U97" s="94"/>
     </row>
     <row r="98" spans="1:21" ht="15">
       <c r="C98" s="11">
@@ -6595,11 +6598,11 @@
       <c r="N98" s="29"/>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="28"/>
+      <c r="Q98" s="77"/>
+      <c r="R98" s="77"/>
+      <c r="S98" s="77"/>
+      <c r="T98" s="77"/>
+      <c r="U98" s="94"/>
     </row>
     <row r="99" spans="1:21" ht="15">
       <c r="C99" s="11">
@@ -6619,11 +6622,11 @@
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
       <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="28"/>
+      <c r="Q99" s="77"/>
+      <c r="R99" s="77"/>
+      <c r="S99" s="77"/>
+      <c r="T99" s="77"/>
+      <c r="U99" s="94"/>
     </row>
     <row r="100" spans="1:21" ht="15">
       <c r="C100" s="11">
@@ -6643,11 +6646,11 @@
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
       <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="28"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="94"/>
     </row>
     <row r="101" spans="1:21" ht="15">
       <c r="C101" s="11">
@@ -6667,11 +6670,11 @@
       <c r="N101" s="29"/>
       <c r="O101" s="29"/>
       <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="28"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="94"/>
     </row>
     <row r="102" spans="1:21" ht="15">
       <c r="C102" s="11">
@@ -6691,11 +6694,11 @@
       <c r="N102" s="29"/>
       <c r="O102" s="29"/>
       <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="28"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="94"/>
     </row>
     <row r="103" spans="1:21" ht="15">
       <c r="C103" s="11">
@@ -6715,11 +6718,11 @@
       <c r="N103" s="25"/>
       <c r="O103" s="25"/>
       <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="25"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
+      <c r="Q103" s="95"/>
+      <c r="R103" s="95"/>
+      <c r="S103" s="96"/>
+      <c r="T103" s="94"/>
+      <c r="U103" s="94"/>
     </row>
     <row r="104" spans="1:21" ht="15">
       <c r="C104" s="11">

--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312A49AC-A71B-49D1-AFEA-185DD683FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07D262-204C-4D16-B63F-A26BC4916BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="PL" sheetId="2" r:id="rId2"/>
     <sheet name="BS" sheetId="7" r:id="rId3"/>
     <sheet name="Cash Flow Statement" sheetId="9" r:id="rId4"/>
+    <sheet name="YTD Expenditure" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BS!$D$1:$U$65</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Amended
 Budget</t>
@@ -324,6 +325,12 @@
   <si>
     <t>YTD
 Budget</t>
+  </si>
+  <si>
+    <t>YTD EXPENDITURES</t>
+  </si>
+  <si>
+    <t>REMAINING BLANCE</t>
   </si>
 </sst>
 </file>
@@ -654,7 +661,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -842,6 +849,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,9 +882,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ALSTEC $ below" xfId="13" xr:uid="{087C95A4-F02D-4D55-8959-3D4AEC86E154}"/>
@@ -1502,19 +1512,19 @@
       <c r="A21" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="89" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.15" customHeight="1">
       <c r="A22" s="72"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="73"/>
@@ -1590,7 +1600,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1613,31 +1623,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="2" t="s">
@@ -6242,7 +6252,7 @@
       <c r="R83" s="77"/>
       <c r="S83" s="77"/>
       <c r="T83" s="77"/>
-      <c r="U83" s="94"/>
+      <c r="U83" s="85"/>
     </row>
     <row r="84" spans="3:21" ht="15">
       <c r="C84" s="11">
@@ -6266,7 +6276,7 @@
       <c r="R84" s="77"/>
       <c r="S84" s="77"/>
       <c r="T84" s="77"/>
-      <c r="U84" s="94"/>
+      <c r="U84" s="85"/>
     </row>
     <row r="85" spans="3:21" ht="15">
       <c r="C85" s="11">
@@ -6290,7 +6300,7 @@
       <c r="R85" s="77"/>
       <c r="S85" s="77"/>
       <c r="T85" s="77"/>
-      <c r="U85" s="94"/>
+      <c r="U85" s="85"/>
     </row>
     <row r="86" spans="3:21" ht="15">
       <c r="C86" s="11">
@@ -6314,7 +6324,7 @@
       <c r="R86" s="77"/>
       <c r="S86" s="77"/>
       <c r="T86" s="77"/>
-      <c r="U86" s="94"/>
+      <c r="U86" s="85"/>
     </row>
     <row r="87" spans="3:21" ht="15">
       <c r="C87" s="11">
@@ -6338,7 +6348,7 @@
       <c r="R87" s="77"/>
       <c r="S87" s="77"/>
       <c r="T87" s="77"/>
-      <c r="U87" s="94"/>
+      <c r="U87" s="85"/>
     </row>
     <row r="88" spans="3:21" ht="15">
       <c r="C88" s="11">
@@ -6362,7 +6372,7 @@
       <c r="R88" s="77"/>
       <c r="S88" s="77"/>
       <c r="T88" s="77"/>
-      <c r="U88" s="94"/>
+      <c r="U88" s="85"/>
     </row>
     <row r="89" spans="3:21" ht="15">
       <c r="C89" s="11">
@@ -6386,7 +6396,7 @@
       <c r="R89" s="77"/>
       <c r="S89" s="77"/>
       <c r="T89" s="77"/>
-      <c r="U89" s="94"/>
+      <c r="U89" s="85"/>
     </row>
     <row r="90" spans="3:21" ht="15">
       <c r="C90" s="11">
@@ -6410,7 +6420,7 @@
       <c r="R90" s="77"/>
       <c r="S90" s="77"/>
       <c r="T90" s="77"/>
-      <c r="U90" s="94"/>
+      <c r="U90" s="85"/>
     </row>
     <row r="91" spans="3:21" ht="15">
       <c r="C91" s="11">
@@ -6434,7 +6444,7 @@
       <c r="R91" s="77"/>
       <c r="S91" s="77"/>
       <c r="T91" s="77"/>
-      <c r="U91" s="94"/>
+      <c r="U91" s="85"/>
     </row>
     <row r="92" spans="3:21" ht="15">
       <c r="C92" s="11">
@@ -6458,7 +6468,7 @@
       <c r="R92" s="77"/>
       <c r="S92" s="77"/>
       <c r="T92" s="77"/>
-      <c r="U92" s="94"/>
+      <c r="U92" s="85"/>
     </row>
     <row r="93" spans="3:21" ht="15">
       <c r="C93" s="11">
@@ -6482,7 +6492,7 @@
       <c r="R93" s="77"/>
       <c r="S93" s="77"/>
       <c r="T93" s="77"/>
-      <c r="U93" s="94"/>
+      <c r="U93" s="85"/>
     </row>
     <row r="94" spans="3:21" ht="15">
       <c r="C94" s="11">
@@ -6506,7 +6516,7 @@
       <c r="R94" s="77"/>
       <c r="S94" s="77"/>
       <c r="T94" s="77"/>
-      <c r="U94" s="94"/>
+      <c r="U94" s="85"/>
     </row>
     <row r="95" spans="3:21" ht="15">
       <c r="C95" s="11">
@@ -6530,7 +6540,7 @@
       <c r="R95" s="77"/>
       <c r="S95" s="77"/>
       <c r="T95" s="77"/>
-      <c r="U95" s="94"/>
+      <c r="U95" s="85"/>
     </row>
     <row r="96" spans="3:21" ht="15">
       <c r="C96" s="11">
@@ -6554,7 +6564,7 @@
       <c r="R96" s="77"/>
       <c r="S96" s="77"/>
       <c r="T96" s="77"/>
-      <c r="U96" s="94"/>
+      <c r="U96" s="85"/>
     </row>
     <row r="97" spans="1:21" ht="15">
       <c r="C97" s="11">
@@ -6578,7 +6588,7 @@
       <c r="R97" s="77"/>
       <c r="S97" s="77"/>
       <c r="T97" s="77"/>
-      <c r="U97" s="94"/>
+      <c r="U97" s="85"/>
     </row>
     <row r="98" spans="1:21" ht="15">
       <c r="C98" s="11">
@@ -6602,7 +6612,7 @@
       <c r="R98" s="77"/>
       <c r="S98" s="77"/>
       <c r="T98" s="77"/>
-      <c r="U98" s="94"/>
+      <c r="U98" s="85"/>
     </row>
     <row r="99" spans="1:21" ht="15">
       <c r="C99" s="11">
@@ -6626,7 +6636,7 @@
       <c r="R99" s="77"/>
       <c r="S99" s="77"/>
       <c r="T99" s="77"/>
-      <c r="U99" s="94"/>
+      <c r="U99" s="85"/>
     </row>
     <row r="100" spans="1:21" ht="15">
       <c r="C100" s="11">
@@ -6650,7 +6660,7 @@
       <c r="R100" s="77"/>
       <c r="S100" s="77"/>
       <c r="T100" s="77"/>
-      <c r="U100" s="94"/>
+      <c r="U100" s="85"/>
     </row>
     <row r="101" spans="1:21" ht="15">
       <c r="C101" s="11">
@@ -6674,7 +6684,7 @@
       <c r="R101" s="77"/>
       <c r="S101" s="77"/>
       <c r="T101" s="77"/>
-      <c r="U101" s="94"/>
+      <c r="U101" s="85"/>
     </row>
     <row r="102" spans="1:21" ht="15">
       <c r="C102" s="11">
@@ -6698,7 +6708,7 @@
       <c r="R102" s="77"/>
       <c r="S102" s="77"/>
       <c r="T102" s="77"/>
-      <c r="U102" s="94"/>
+      <c r="U102" s="85"/>
     </row>
     <row r="103" spans="1:21" ht="15">
       <c r="C103" s="11">
@@ -6718,11 +6728,11 @@
       <c r="N103" s="25"/>
       <c r="O103" s="25"/>
       <c r="P103" s="25"/>
-      <c r="Q103" s="95"/>
-      <c r="R103" s="95"/>
-      <c r="S103" s="96"/>
-      <c r="T103" s="94"/>
-      <c r="U103" s="94"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="87"/>
+      <c r="T103" s="85"/>
+      <c r="U103" s="85"/>
     </row>
     <row r="104" spans="1:21" ht="15">
       <c r="C104" s="11">
@@ -7934,4 +7944,2730 @@
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C8BD5E-2948-489E-9C11-ED19B52063CC}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:X150"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="108" customHeight="1">
+      <c r="B1" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+    </row>
+    <row r="3" spans="1:24" ht="55.5" customHeight="1">
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="7"/>
+      <c r="V4" s="79"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="7"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="7"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="7"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="7"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="7"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="7"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="7"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="7"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="7"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="7"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="7"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="7"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="7"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="7"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="7"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="7"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="7"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="9"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="9"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="4:22">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="4:22">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="4:22">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="9"/>
+    </row>
+    <row r="52" spans="4:22">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="9"/>
+    </row>
+    <row r="53" spans="4:22">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="4:22">
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="4:22">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9"/>
+    </row>
+    <row r="56" spans="4:22">
+      <c r="V56" s="9"/>
+    </row>
+    <row r="57" spans="4:22">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="9"/>
+    </row>
+    <row r="58" spans="4:22">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="4:22">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="4:22">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="9"/>
+    </row>
+    <row r="61" spans="4:22">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="9"/>
+    </row>
+    <row r="62" spans="4:22">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="4:22">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="4:22">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="9"/>
+    </row>
+    <row r="65" spans="4:22">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="4:22">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="4:22">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" spans="4:22">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="9"/>
+    </row>
+    <row r="69" spans="4:22">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="9"/>
+    </row>
+    <row r="70" spans="4:22">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="9"/>
+    </row>
+    <row r="71" spans="4:22">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="4:22">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="9"/>
+    </row>
+    <row r="73" spans="4:22">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="9"/>
+    </row>
+    <row r="74" spans="4:22">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="9"/>
+    </row>
+    <row r="75" spans="4:22">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="9"/>
+    </row>
+    <row r="76" spans="4:22">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="9"/>
+    </row>
+    <row r="77" spans="4:22">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="9"/>
+    </row>
+    <row r="78" spans="4:22">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="9"/>
+    </row>
+    <row r="79" spans="4:22">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="9"/>
+    </row>
+    <row r="80" spans="4:22">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="9"/>
+    </row>
+    <row r="81" spans="3:22">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="9"/>
+    </row>
+    <row r="82" spans="3:22">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="9"/>
+    </row>
+    <row r="83" spans="3:22">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="9"/>
+    </row>
+    <row r="84" spans="3:22">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="9"/>
+    </row>
+    <row r="85" spans="3:22">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="9"/>
+    </row>
+    <row r="86" spans="3:22">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="9"/>
+    </row>
+    <row r="87" spans="3:22">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="9"/>
+    </row>
+    <row r="88" spans="3:22">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="9"/>
+    </row>
+    <row r="89" spans="3:22">
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="9"/>
+    </row>
+    <row r="90" spans="3:22">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="9"/>
+    </row>
+    <row r="91" spans="3:22">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="9"/>
+    </row>
+    <row r="92" spans="3:22">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="9"/>
+    </row>
+    <row r="93" spans="3:22">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="9"/>
+    </row>
+    <row r="94" spans="3:22">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="9"/>
+    </row>
+    <row r="95" spans="3:22">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="9"/>
+    </row>
+    <row r="96" spans="3:22">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="9"/>
+    </row>
+    <row r="97" spans="3:22">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="9"/>
+    </row>
+    <row r="98" spans="3:22">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="9"/>
+    </row>
+    <row r="99" spans="3:22">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="9"/>
+    </row>
+    <row r="100" spans="3:22">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="9"/>
+    </row>
+    <row r="101" spans="3:22">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="9"/>
+    </row>
+    <row r="102" spans="3:22">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="9"/>
+    </row>
+    <row r="103" spans="3:22">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="9"/>
+    </row>
+    <row r="104" spans="3:22">
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="9"/>
+    </row>
+    <row r="105" spans="3:22">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="9"/>
+    </row>
+    <row r="106" spans="3:22">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="9"/>
+    </row>
+    <row r="107" spans="3:22">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="9"/>
+    </row>
+    <row r="108" spans="3:22">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="9"/>
+    </row>
+    <row r="109" spans="3:22">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="9"/>
+    </row>
+    <row r="110" spans="3:22">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="9"/>
+    </row>
+    <row r="111" spans="3:22">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="9"/>
+    </row>
+    <row r="112" spans="3:22">
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="80"/>
+      <c r="N112" s="80"/>
+      <c r="O112" s="80"/>
+      <c r="P112" s="80"/>
+      <c r="Q112" s="80"/>
+      <c r="R112" s="80"/>
+      <c r="S112" s="80"/>
+      <c r="T112" s="80"/>
+      <c r="U112" s="80"/>
+      <c r="V112" s="9"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="C113" s="3"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="80"/>
+      <c r="P113" s="80"/>
+      <c r="Q113" s="80"/>
+      <c r="R113" s="80"/>
+      <c r="S113" s="80"/>
+      <c r="T113" s="80"/>
+      <c r="U113" s="80"/>
+      <c r="V113" s="9"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="C114" s="3"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="80"/>
+      <c r="I114" s="80"/>
+      <c r="J114" s="80"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="80"/>
+      <c r="M114" s="80"/>
+      <c r="N114" s="80"/>
+      <c r="O114" s="80"/>
+      <c r="P114" s="80"/>
+      <c r="Q114" s="80"/>
+      <c r="R114" s="80"/>
+      <c r="S114" s="80"/>
+      <c r="T114" s="80"/>
+      <c r="U114" s="80"/>
+      <c r="V114" s="9"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="9"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="9"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="9"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="9"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="9"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="9"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="9"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="9"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="9"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="9"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="C125" s="3"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="9"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="V126" s="9"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="V127" s="9"/>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="V128" s="9"/>
+    </row>
+    <row r="129" spans="22:22">
+      <c r="V129" s="9"/>
+    </row>
+    <row r="130" spans="22:22">
+      <c r="V130" s="9"/>
+    </row>
+    <row r="131" spans="22:22">
+      <c r="V131" s="9"/>
+    </row>
+    <row r="132" spans="22:22">
+      <c r="V132" s="9"/>
+    </row>
+    <row r="133" spans="22:22">
+      <c r="V133" s="9"/>
+    </row>
+    <row r="134" spans="22:22">
+      <c r="V134" s="9"/>
+    </row>
+    <row r="135" spans="22:22">
+      <c r="V135" s="9"/>
+    </row>
+    <row r="136" spans="22:22">
+      <c r="V136" s="9"/>
+    </row>
+    <row r="137" spans="22:22">
+      <c r="V137" s="9"/>
+    </row>
+    <row r="138" spans="22:22">
+      <c r="V138" s="9"/>
+    </row>
+    <row r="139" spans="22:22">
+      <c r="V139" s="9"/>
+    </row>
+    <row r="140" spans="22:22">
+      <c r="V140" s="9"/>
+    </row>
+    <row r="141" spans="22:22">
+      <c r="V141" s="9"/>
+    </row>
+    <row r="142" spans="22:22">
+      <c r="V142" s="9"/>
+    </row>
+    <row r="143" spans="22:22">
+      <c r="V143" s="9"/>
+    </row>
+    <row r="144" spans="22:22">
+      <c r="V144" s="9"/>
+    </row>
+    <row r="145" spans="22:22">
+      <c r="V145" s="9"/>
+    </row>
+    <row r="146" spans="22:22">
+      <c r="V146" s="9"/>
+    </row>
+    <row r="147" spans="22:22">
+      <c r="V147" s="9"/>
+    </row>
+    <row r="148" spans="22:22">
+      <c r="V148" s="9"/>
+    </row>
+    <row r="149" spans="22:22">
+      <c r="V149" s="9"/>
+    </row>
+    <row r="150" spans="22:22">
+      <c r="V150" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/config/finance/static/template.xlsx
+++ b/config/finance/static/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Financial\config\finance\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07D262-204C-4D16-B63F-A26BC4916BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09504F4B-78E2-49A5-A98B-6DFC9A67BB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>Amended
 Budget</t>
@@ -217,40 +217,6 @@
     <t>&gt;95% = 0 pts; &lt;95% = 5 pts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#14 - Administrative Ratio </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         (Function 21+41/11+12+13+31; Funds 199, 420 + ESSER)</t>
-    </r>
-  </si>
-  <si>
     <t>Target &lt;=15.61%
 &lt;=26.45% if less than 500 students</t>
   </si>
@@ -331,6 +297,74 @@
   </si>
   <si>
     <t>REMAINING BLANCE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#14 - Current Administrative Ratio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         (Function 21+41/11+12+13+31; Funds 199, 420 + ESSER)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#14 - Proposed Administrative Ratio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         (Function 21+41/All Expense)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -661,7 +695,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -861,10 +895,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
@@ -872,12 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1265,7 +1296,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -1328,7 +1359,7 @@
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="57">
@@ -1419,7 +1450,7 @@
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="67" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="57">
@@ -1427,111 +1458,117 @@
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="69"/>
+      <c r="A15" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="68"/>
       <c r="C15" s="57">
         <v>10</v>
       </c>
       <c r="D15" s="55"/>
-      <c r="E15" s="59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="63">
-        <v>5</v>
+      <c r="E15" s="69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="57">
+        <v>10</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="57"/>
-      <c r="C17" s="63" t="s">
-        <v>61</v>
+      <c r="C17" s="63">
+        <v>5</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="57"/>
-      <c r="C18" s="63">
-        <v>10</v>
+      <c r="C18" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.15" customHeight="1">
       <c r="A19" s="61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="63" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63">
+        <v>5</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A21" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A21" s="71" t="s">
+    <row r="22" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A22" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="93" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="73"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="75"/>
@@ -1541,7 +1578,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -1577,11 +1614,8 @@
       <c r="E29" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B22:C22"/>
+  <mergeCells count="1">
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0"/>
@@ -1623,38 +1657,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="B1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
     </row>
     <row r="3" spans="1:24" ht="55.5" customHeight="1">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -4362,7 +4396,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4475,7 +4509,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
@@ -7123,7 +7157,7 @@
     </row>
     <row r="3" spans="1:18" ht="20.25">
       <c r="A3" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -7975,26 +8009,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="108" customHeight="1">
-      <c r="B1" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
+      <c r="B1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
       <c r="T1" s="88"/>
       <c r="U1" s="88"/>
       <c r="V1" s="88"/>
@@ -8042,10 +8076,10 @@
         <v>12</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:24">
